--- a/data/First Pass Acceptance_Dallas.xlsx
+++ b/data/First Pass Acceptance_Dallas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A1C800-2741-4EB4-8083-B7E6EA3B6596}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F3BEA6-2F75-44FD-9AC1-42F222FE1C77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="960" windowWidth="19215" windowHeight="9600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="630" windowWidth="19215" windowHeight="9600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACR" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACR!$A$1:$J$670</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Application!$A$1:$A$88</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$4270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$4170</definedName>
     <definedName name="ListingItemLink" localSheetId="0">ACR!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -7047,11 +7047,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L3987"/>
+  <dimension ref="A1:J3887"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1056" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1069" sqref="A1069"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1064" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1068" sqref="A1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32990,7 +32990,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="865" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A865" s="3" t="s">
         <v>66</v>
       </c>
@@ -33018,7 +33018,7 @@
       <c r="I865" s="8"/>
       <c r="J865" s="8"/>
     </row>
-    <row r="866" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A866" s="3" t="s">
         <v>66</v>
       </c>
@@ -33050,7 +33050,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="867" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A867" s="3" t="s">
         <v>66</v>
       </c>
@@ -33078,7 +33078,7 @@
       <c r="I867" s="8"/>
       <c r="J867" s="8"/>
     </row>
-    <row r="868" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
         <v>66</v>
       </c>
@@ -33110,7 +33110,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="869" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A869" s="3" t="s">
         <v>66</v>
       </c>
@@ -33138,7 +33138,7 @@
       <c r="I869" s="8"/>
       <c r="J869" s="8"/>
     </row>
-    <row r="870" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
         <v>66</v>
       </c>
@@ -33170,7 +33170,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="871" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A871" s="3" t="s">
         <v>66</v>
       </c>
@@ -33198,7 +33198,7 @@
       <c r="I871" s="8"/>
       <c r="J871" s="8"/>
     </row>
-    <row r="872" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A872" s="3" t="s">
         <v>66</v>
       </c>
@@ -33226,7 +33226,7 @@
       <c r="I872" s="8"/>
       <c r="J872" s="8"/>
     </row>
-    <row r="873" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A873" s="78" t="s">
         <v>66</v>
       </c>
@@ -33253,10 +33253,8 @@
       </c>
       <c r="I873" s="51"/>
       <c r="J873" s="9"/>
-      <c r="K873" s="8"/>
-      <c r="L873" s="8"/>
-    </row>
-    <row r="874" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="874" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A874" s="78" t="s">
         <v>66</v>
       </c>
@@ -33287,10 +33285,8 @@
       <c r="J874" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="K874" s="8"/>
-      <c r="L874" s="8"/>
-    </row>
-    <row r="875" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="875" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A875" s="78" t="s">
         <v>66</v>
       </c>
@@ -33317,10 +33313,8 @@
       </c>
       <c r="I875" s="51"/>
       <c r="J875" s="9"/>
-      <c r="K875" s="8"/>
-      <c r="L875" s="8"/>
-    </row>
-    <row r="876" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="876" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A876" s="78" t="s">
         <v>66</v>
       </c>
@@ -33347,10 +33341,8 @@
       </c>
       <c r="I876" s="51"/>
       <c r="J876" s="9"/>
-      <c r="K876" s="8"/>
-      <c r="L876" s="8"/>
-    </row>
-    <row r="877" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="877" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A877" s="78" t="s">
         <v>66</v>
       </c>
@@ -33377,10 +33369,8 @@
       </c>
       <c r="I877" s="51"/>
       <c r="J877" s="9"/>
-      <c r="K877" s="8"/>
-      <c r="L877" s="8"/>
-    </row>
-    <row r="878" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="878" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A878" s="3" t="s">
         <v>66</v>
       </c>
@@ -33408,7 +33398,7 @@
       <c r="I878" s="8"/>
       <c r="J878" s="8"/>
     </row>
-    <row r="879" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A879" s="3" t="s">
         <v>66</v>
       </c>
@@ -33436,7 +33426,7 @@
       <c r="I879" s="8"/>
       <c r="J879" s="8"/>
     </row>
-    <row r="880" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A880" s="3" t="s">
         <v>66</v>
       </c>
@@ -39066,7 +39056,7 @@
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1068" s="3"/>
-      <c r="B1068" s="53"/>
+      <c r="B1068" s="56"/>
       <c r="C1068" s="3"/>
       <c r="D1068" s="3"/>
       <c r="E1068" s="3"/>
@@ -39078,7 +39068,7 @@
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1069" s="3"/>
-      <c r="B1069" s="53"/>
+      <c r="B1069" s="56"/>
       <c r="C1069" s="3"/>
       <c r="D1069" s="3"/>
       <c r="E1069" s="3"/>
@@ -39090,7 +39080,7 @@
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1070" s="3"/>
-      <c r="B1070" s="53"/>
+      <c r="B1070" s="56"/>
       <c r="C1070" s="3"/>
       <c r="D1070" s="3"/>
       <c r="E1070" s="3"/>
@@ -39102,7 +39092,7 @@
     </row>
     <row r="1071" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1071" s="3"/>
-      <c r="B1071" s="53"/>
+      <c r="B1071" s="56"/>
       <c r="C1071" s="3"/>
       <c r="D1071" s="3"/>
       <c r="E1071" s="3"/>
@@ -39114,7 +39104,7 @@
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1072" s="3"/>
-      <c r="B1072" s="53"/>
+      <c r="B1072" s="56"/>
       <c r="C1072" s="3"/>
       <c r="D1072" s="3"/>
       <c r="E1072" s="3"/>
@@ -39126,7 +39116,7 @@
     </row>
     <row r="1073" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1073" s="3"/>
-      <c r="B1073" s="53"/>
+      <c r="B1073" s="56"/>
       <c r="C1073" s="3"/>
       <c r="D1073" s="3"/>
       <c r="E1073" s="3"/>
@@ -39138,7 +39128,7 @@
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1074" s="3"/>
-      <c r="B1074" s="53"/>
+      <c r="B1074" s="56"/>
       <c r="C1074" s="3"/>
       <c r="D1074" s="3"/>
       <c r="E1074" s="3"/>
@@ -39150,7 +39140,7 @@
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1075" s="3"/>
-      <c r="B1075" s="53"/>
+      <c r="B1075" s="56"/>
       <c r="C1075" s="3"/>
       <c r="D1075" s="3"/>
       <c r="E1075" s="3"/>
@@ -39210,7 +39200,7 @@
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1080" s="3"/>
-      <c r="B1080" s="53"/>
+      <c r="B1080" s="56"/>
       <c r="C1080" s="3"/>
       <c r="D1080" s="3"/>
       <c r="E1080" s="3"/>
@@ -39222,7 +39212,7 @@
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1081" s="3"/>
-      <c r="B1081" s="53"/>
+      <c r="B1081" s="56"/>
       <c r="C1081" s="3"/>
       <c r="D1081" s="3"/>
       <c r="E1081" s="3"/>
@@ -39234,7 +39224,7 @@
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1082" s="3"/>
-      <c r="B1082" s="53"/>
+      <c r="B1082" s="56"/>
       <c r="C1082" s="3"/>
       <c r="D1082" s="3"/>
       <c r="E1082" s="3"/>
@@ -39246,7 +39236,7 @@
     </row>
     <row r="1083" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1083" s="3"/>
-      <c r="B1083" s="53"/>
+      <c r="B1083" s="56"/>
       <c r="C1083" s="3"/>
       <c r="D1083" s="3"/>
       <c r="E1083" s="3"/>
@@ -39270,7 +39260,7 @@
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1085" s="3"/>
-      <c r="B1085" s="53"/>
+      <c r="B1085" s="56"/>
       <c r="C1085" s="3"/>
       <c r="D1085" s="3"/>
       <c r="E1085" s="3"/>
@@ -39282,7 +39272,7 @@
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1086" s="3"/>
-      <c r="B1086" s="53"/>
+      <c r="B1086" s="56"/>
       <c r="C1086" s="3"/>
       <c r="D1086" s="3"/>
       <c r="E1086" s="3"/>
@@ -39294,7 +39284,7 @@
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1087" s="3"/>
-      <c r="B1087" s="53"/>
+      <c r="B1087" s="56"/>
       <c r="C1087" s="3"/>
       <c r="D1087" s="3"/>
       <c r="E1087" s="3"/>
@@ -39306,7 +39296,7 @@
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1088" s="3"/>
-      <c r="B1088" s="53"/>
+      <c r="B1088" s="56"/>
       <c r="C1088" s="3"/>
       <c r="D1088" s="3"/>
       <c r="E1088" s="3"/>
@@ -39318,7 +39308,7 @@
     </row>
     <row r="1089" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1089" s="3"/>
-      <c r="B1089" s="53"/>
+      <c r="B1089" s="56"/>
       <c r="C1089" s="3"/>
       <c r="D1089" s="3"/>
       <c r="E1089" s="3"/>
@@ -39330,7 +39320,7 @@
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1090" s="3"/>
-      <c r="B1090" s="53"/>
+      <c r="B1090" s="56"/>
       <c r="C1090" s="3"/>
       <c r="D1090" s="3"/>
       <c r="E1090" s="3"/>
@@ -39342,7 +39332,7 @@
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1091" s="3"/>
-      <c r="B1091" s="53"/>
+      <c r="B1091" s="56"/>
       <c r="C1091" s="3"/>
       <c r="D1091" s="3"/>
       <c r="E1091" s="3"/>
@@ -39354,7 +39344,7 @@
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1092" s="3"/>
-      <c r="B1092" s="53"/>
+      <c r="B1092" s="56"/>
       <c r="C1092" s="3"/>
       <c r="D1092" s="3"/>
       <c r="E1092" s="3"/>
@@ -39366,7 +39356,7 @@
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1093" s="3"/>
-      <c r="B1093" s="53"/>
+      <c r="B1093" s="56"/>
       <c r="C1093" s="3"/>
       <c r="D1093" s="3"/>
       <c r="E1093" s="3"/>
@@ -39378,7 +39368,7 @@
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1094" s="3"/>
-      <c r="B1094" s="53"/>
+      <c r="B1094" s="56"/>
       <c r="C1094" s="3"/>
       <c r="D1094" s="3"/>
       <c r="E1094" s="3"/>
@@ -39510,7 +39500,7 @@
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1105" s="3"/>
-      <c r="B1105" s="56"/>
+      <c r="B1105" s="53"/>
       <c r="C1105" s="3"/>
       <c r="D1105" s="3"/>
       <c r="E1105" s="3"/>
@@ -39534,7 +39524,7 @@
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1107" s="3"/>
-      <c r="B1107" s="53"/>
+      <c r="B1107" s="56"/>
       <c r="C1107" s="3"/>
       <c r="D1107" s="3"/>
       <c r="E1107" s="3"/>
@@ -39546,7 +39536,7 @@
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1108" s="3"/>
-      <c r="B1108" s="53"/>
+      <c r="B1108" s="56"/>
       <c r="C1108" s="3"/>
       <c r="D1108" s="3"/>
       <c r="E1108" s="3"/>
@@ -39558,7 +39548,7 @@
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1109" s="3"/>
-      <c r="B1109" s="53"/>
+      <c r="B1109" s="56"/>
       <c r="C1109" s="3"/>
       <c r="D1109" s="3"/>
       <c r="E1109" s="3"/>
@@ -39570,7 +39560,7 @@
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1110" s="3"/>
-      <c r="B1110" s="53"/>
+      <c r="B1110" s="56"/>
       <c r="C1110" s="3"/>
       <c r="D1110" s="3"/>
       <c r="E1110" s="3"/>
@@ -39582,7 +39572,7 @@
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1111" s="3"/>
-      <c r="B1111" s="53"/>
+      <c r="B1111" s="56"/>
       <c r="C1111" s="3"/>
       <c r="D1111" s="3"/>
       <c r="E1111" s="3"/>
@@ -39594,7 +39584,7 @@
     </row>
     <row r="1112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1112" s="3"/>
-      <c r="B1112" s="53"/>
+      <c r="B1112" s="56"/>
       <c r="C1112" s="3"/>
       <c r="D1112" s="3"/>
       <c r="E1112" s="3"/>
@@ -39606,7 +39596,7 @@
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1113" s="3"/>
-      <c r="B1113" s="53"/>
+      <c r="B1113" s="56"/>
       <c r="C1113" s="3"/>
       <c r="D1113" s="3"/>
       <c r="E1113" s="3"/>
@@ -39618,7 +39608,7 @@
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1114" s="3"/>
-      <c r="B1114" s="53"/>
+      <c r="B1114" s="56"/>
       <c r="C1114" s="3"/>
       <c r="D1114" s="3"/>
       <c r="E1114" s="3"/>
@@ -39630,7 +39620,7 @@
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1115" s="3"/>
-      <c r="B1115" s="53"/>
+      <c r="B1115" s="56"/>
       <c r="C1115" s="3"/>
       <c r="D1115" s="3"/>
       <c r="E1115" s="3"/>
@@ -39642,7 +39632,7 @@
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1116" s="3"/>
-      <c r="B1116" s="53"/>
+      <c r="B1116" s="56"/>
       <c r="C1116" s="3"/>
       <c r="D1116" s="3"/>
       <c r="E1116" s="3"/>
@@ -39654,7 +39644,7 @@
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1117" s="3"/>
-      <c r="B1117" s="53"/>
+      <c r="B1117" s="56"/>
       <c r="C1117" s="3"/>
       <c r="D1117" s="3"/>
       <c r="E1117" s="3"/>
@@ -39666,7 +39656,7 @@
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1118" s="3"/>
-      <c r="B1118" s="53"/>
+      <c r="B1118" s="56"/>
       <c r="C1118" s="3"/>
       <c r="D1118" s="3"/>
       <c r="E1118" s="3"/>
@@ -39678,7 +39668,7 @@
     </row>
     <row r="1119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1119" s="3"/>
-      <c r="B1119" s="53"/>
+      <c r="B1119" s="56"/>
       <c r="C1119" s="3"/>
       <c r="D1119" s="3"/>
       <c r="E1119" s="3"/>
@@ -39690,7 +39680,7 @@
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1120" s="3"/>
-      <c r="B1120" s="53"/>
+      <c r="B1120" s="56"/>
       <c r="C1120" s="3"/>
       <c r="D1120" s="3"/>
       <c r="E1120" s="3"/>
@@ -39702,7 +39692,7 @@
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1121" s="3"/>
-      <c r="B1121" s="53"/>
+      <c r="B1121" s="56"/>
       <c r="C1121" s="3"/>
       <c r="D1121" s="3"/>
       <c r="E1121" s="3"/>
@@ -39714,7 +39704,7 @@
     </row>
     <row r="1122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1122" s="3"/>
-      <c r="B1122" s="53"/>
+      <c r="B1122" s="56"/>
       <c r="C1122" s="3"/>
       <c r="D1122" s="3"/>
       <c r="E1122" s="3"/>
@@ -39726,7 +39716,7 @@
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1123" s="3"/>
-      <c r="B1123" s="53"/>
+      <c r="B1123" s="56"/>
       <c r="C1123" s="3"/>
       <c r="D1123" s="3"/>
       <c r="E1123" s="3"/>
@@ -39738,7 +39728,7 @@
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1124" s="3"/>
-      <c r="B1124" s="53"/>
+      <c r="B1124" s="56"/>
       <c r="C1124" s="3"/>
       <c r="D1124" s="3"/>
       <c r="E1124" s="3"/>
@@ -39834,7 +39824,7 @@
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1132" s="3"/>
-      <c r="B1132" s="53"/>
+      <c r="B1132" s="56"/>
       <c r="C1132" s="3"/>
       <c r="D1132" s="3"/>
       <c r="E1132" s="3"/>
@@ -39846,7 +39836,7 @@
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1133" s="3"/>
-      <c r="B1133" s="53"/>
+      <c r="B1133" s="56"/>
       <c r="C1133" s="3"/>
       <c r="D1133" s="3"/>
       <c r="E1133" s="3"/>
@@ -39858,7 +39848,7 @@
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1134" s="3"/>
-      <c r="B1134" s="53"/>
+      <c r="B1134" s="56"/>
       <c r="C1134" s="3"/>
       <c r="D1134" s="3"/>
       <c r="E1134" s="3"/>
@@ -40398,7 +40388,7 @@
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1179" s="3"/>
-      <c r="B1179" s="53"/>
+      <c r="B1179" s="56"/>
       <c r="C1179" s="3"/>
       <c r="D1179" s="3"/>
       <c r="E1179" s="3"/>
@@ -40710,7 +40700,7 @@
     </row>
     <row r="1205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1205" s="3"/>
-      <c r="B1205" s="53"/>
+      <c r="B1205" s="56"/>
       <c r="C1205" s="3"/>
       <c r="D1205" s="3"/>
       <c r="E1205" s="3"/>
@@ -42666,7 +42656,7 @@
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1368" s="3"/>
-      <c r="B1368" s="56"/>
+      <c r="B1368" s="51"/>
       <c r="C1368" s="3"/>
       <c r="D1368" s="3"/>
       <c r="E1368" s="3"/>
@@ -43866,7 +43856,7 @@
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1468" s="3"/>
-      <c r="B1468" s="51"/>
+      <c r="B1468" s="56"/>
       <c r="C1468" s="3"/>
       <c r="D1468" s="3"/>
       <c r="E1468" s="3"/>
@@ -44778,474 +44768,32 @@
     </row>
     <row r="1544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1544" s="3"/>
-      <c r="B1544" s="56"/>
-      <c r="C1544" s="3"/>
-      <c r="D1544" s="3"/>
-      <c r="E1544" s="3"/>
-      <c r="F1544" s="3"/>
-      <c r="G1544" s="3"/>
-      <c r="H1544" s="5"/>
-      <c r="I1544" s="3"/>
-      <c r="J1544" s="3"/>
+      <c r="B1544" s="110"/>
+      <c r="C1544" s="20"/>
+      <c r="D1544" s="20"/>
+      <c r="E1544" s="20"/>
+      <c r="F1544" s="20"/>
+      <c r="G1544" s="20"/>
+      <c r="H1544" s="21"/>
+      <c r="I1544" s="20"/>
+      <c r="J1544" s="20"/>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1545" s="3"/>
-      <c r="B1545" s="56"/>
-      <c r="C1545" s="3"/>
-      <c r="D1545" s="3"/>
-      <c r="E1545" s="3"/>
-      <c r="F1545" s="3"/>
-      <c r="G1545" s="3"/>
-      <c r="H1545" s="5"/>
-      <c r="I1545" s="3"/>
-      <c r="J1545" s="3"/>
+      <c r="A1545" s="20"/>
+      <c r="B1545" s="110"/>
+      <c r="C1545" s="20"/>
+      <c r="D1545" s="20"/>
+      <c r="E1545" s="20"/>
+      <c r="F1545" s="20"/>
+      <c r="G1545" s="20"/>
+      <c r="H1545" s="21"/>
+      <c r="I1545" s="20"/>
+      <c r="J1545" s="20"/>
     </row>
     <row r="1546" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1546" s="3"/>
-      <c r="B1546" s="56"/>
-      <c r="C1546" s="3"/>
-      <c r="D1546" s="3"/>
-      <c r="E1546" s="3"/>
-      <c r="F1546" s="3"/>
-      <c r="G1546" s="3"/>
-      <c r="H1546" s="5"/>
-      <c r="I1546" s="3"/>
-      <c r="J1546" s="3"/>
-    </row>
-    <row r="1547" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1547" s="3"/>
-      <c r="B1547" s="56"/>
-      <c r="C1547" s="3"/>
-      <c r="D1547" s="3"/>
-      <c r="E1547" s="3"/>
-      <c r="F1547" s="3"/>
-      <c r="G1547" s="3"/>
-      <c r="H1547" s="5"/>
-      <c r="I1547" s="3"/>
-      <c r="J1547" s="3"/>
-    </row>
-    <row r="1548" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1548" s="3"/>
-      <c r="B1548" s="56"/>
-      <c r="C1548" s="3"/>
-      <c r="D1548" s="3"/>
-      <c r="E1548" s="3"/>
-      <c r="F1548" s="3"/>
-      <c r="G1548" s="3"/>
-      <c r="H1548" s="5"/>
-      <c r="I1548" s="3"/>
-      <c r="J1548" s="3"/>
-    </row>
-    <row r="1549" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1549" s="3"/>
-      <c r="B1549" s="56"/>
-      <c r="C1549" s="3"/>
-      <c r="D1549" s="3"/>
-      <c r="E1549" s="3"/>
-      <c r="F1549" s="3"/>
-      <c r="G1549" s="3"/>
-      <c r="H1549" s="5"/>
-      <c r="I1549" s="3"/>
-      <c r="J1549" s="3"/>
-    </row>
-    <row r="1550" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1550" s="3"/>
-      <c r="B1550" s="56"/>
-      <c r="C1550" s="3"/>
-      <c r="D1550" s="3"/>
-      <c r="E1550" s="3"/>
-      <c r="F1550" s="3"/>
-      <c r="G1550" s="3"/>
-      <c r="H1550" s="5"/>
-      <c r="I1550" s="3"/>
-      <c r="J1550" s="3"/>
-    </row>
-    <row r="1551" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1551" s="3"/>
-      <c r="B1551" s="56"/>
-      <c r="C1551" s="3"/>
-      <c r="D1551" s="3"/>
-      <c r="E1551" s="3"/>
-      <c r="F1551" s="3"/>
-      <c r="G1551" s="3"/>
-      <c r="H1551" s="5"/>
-      <c r="I1551" s="3"/>
-      <c r="J1551" s="3"/>
-    </row>
-    <row r="1552" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1552" s="3"/>
-      <c r="B1552" s="56"/>
-      <c r="C1552" s="3"/>
-      <c r="D1552" s="3"/>
-      <c r="E1552" s="3"/>
-      <c r="F1552" s="3"/>
-      <c r="G1552" s="3"/>
-      <c r="H1552" s="5"/>
-      <c r="I1552" s="3"/>
-      <c r="J1552" s="3"/>
-    </row>
-    <row r="1553" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1553" s="3"/>
-      <c r="B1553" s="56"/>
-      <c r="C1553" s="3"/>
-      <c r="D1553" s="3"/>
-      <c r="E1553" s="3"/>
-      <c r="F1553" s="3"/>
-      <c r="G1553" s="3"/>
-      <c r="H1553" s="5"/>
-      <c r="I1553" s="3"/>
-      <c r="J1553" s="3"/>
-    </row>
-    <row r="1554" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1554" s="3"/>
-      <c r="B1554" s="56"/>
-      <c r="C1554" s="3"/>
-      <c r="D1554" s="3"/>
-      <c r="E1554" s="3"/>
-      <c r="F1554" s="3"/>
-      <c r="G1554" s="3"/>
-      <c r="H1554" s="5"/>
-      <c r="I1554" s="3"/>
-      <c r="J1554" s="3"/>
-    </row>
-    <row r="1555" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1555" s="3"/>
-      <c r="B1555" s="56"/>
-      <c r="C1555" s="3"/>
-      <c r="D1555" s="3"/>
-      <c r="E1555" s="3"/>
-      <c r="F1555" s="3"/>
-      <c r="G1555" s="3"/>
-      <c r="H1555" s="5"/>
-      <c r="I1555" s="3"/>
-      <c r="J1555" s="3"/>
-    </row>
-    <row r="1556" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1556" s="3"/>
-      <c r="B1556" s="56"/>
-      <c r="C1556" s="3"/>
-      <c r="D1556" s="3"/>
-      <c r="E1556" s="3"/>
-      <c r="F1556" s="3"/>
-      <c r="G1556" s="3"/>
-      <c r="H1556" s="5"/>
-      <c r="I1556" s="3"/>
-      <c r="J1556" s="3"/>
-    </row>
-    <row r="1557" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1557" s="3"/>
-      <c r="B1557" s="56"/>
-      <c r="C1557" s="3"/>
-      <c r="D1557" s="3"/>
-      <c r="E1557" s="3"/>
-      <c r="F1557" s="3"/>
-      <c r="G1557" s="3"/>
-      <c r="H1557" s="5"/>
-      <c r="I1557" s="3"/>
-      <c r="J1557" s="3"/>
-    </row>
-    <row r="1558" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1558" s="3"/>
-      <c r="B1558" s="56"/>
-      <c r="C1558" s="3"/>
-      <c r="D1558" s="3"/>
-      <c r="E1558" s="3"/>
-      <c r="F1558" s="3"/>
-      <c r="G1558" s="3"/>
-      <c r="H1558" s="5"/>
-      <c r="I1558" s="3"/>
-      <c r="J1558" s="3"/>
-    </row>
-    <row r="1559" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1559" s="3"/>
-      <c r="B1559" s="56"/>
-      <c r="C1559" s="3"/>
-      <c r="D1559" s="3"/>
-      <c r="E1559" s="3"/>
-      <c r="F1559" s="3"/>
-      <c r="G1559" s="3"/>
-      <c r="H1559" s="5"/>
-      <c r="I1559" s="3"/>
-      <c r="J1559" s="3"/>
-    </row>
-    <row r="1560" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1560" s="3"/>
-      <c r="B1560" s="56"/>
-      <c r="C1560" s="3"/>
-      <c r="D1560" s="3"/>
-      <c r="E1560" s="3"/>
-      <c r="F1560" s="3"/>
-      <c r="G1560" s="3"/>
-      <c r="H1560" s="5"/>
-      <c r="I1560" s="3"/>
-      <c r="J1560" s="3"/>
-    </row>
-    <row r="1561" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1561" s="3"/>
-      <c r="B1561" s="56"/>
-      <c r="C1561" s="3"/>
-      <c r="D1561" s="3"/>
-      <c r="E1561" s="3"/>
-      <c r="F1561" s="3"/>
-      <c r="G1561" s="3"/>
-      <c r="H1561" s="5"/>
-      <c r="I1561" s="3"/>
-      <c r="J1561" s="3"/>
-    </row>
-    <row r="1562" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1562" s="3"/>
-      <c r="B1562" s="56"/>
-      <c r="C1562" s="3"/>
-      <c r="D1562" s="3"/>
-      <c r="E1562" s="3"/>
-      <c r="F1562" s="3"/>
-      <c r="G1562" s="3"/>
-      <c r="H1562" s="5"/>
-      <c r="I1562" s="3"/>
-      <c r="J1562" s="3"/>
-    </row>
-    <row r="1563" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1563" s="3"/>
-      <c r="B1563" s="56"/>
-      <c r="C1563" s="3"/>
-      <c r="D1563" s="3"/>
-      <c r="E1563" s="3"/>
-      <c r="F1563" s="3"/>
-      <c r="G1563" s="3"/>
-      <c r="H1563" s="5"/>
-      <c r="I1563" s="3"/>
-      <c r="J1563" s="3"/>
-    </row>
-    <row r="1564" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1564" s="3"/>
-      <c r="B1564" s="56"/>
-      <c r="C1564" s="3"/>
-      <c r="D1564" s="3"/>
-      <c r="E1564" s="3"/>
-      <c r="F1564" s="3"/>
-      <c r="G1564" s="3"/>
-      <c r="H1564" s="5"/>
-      <c r="I1564" s="3"/>
-      <c r="J1564" s="3"/>
-    </row>
-    <row r="1565" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1565" s="3"/>
-      <c r="B1565" s="56"/>
-      <c r="C1565" s="3"/>
-      <c r="D1565" s="3"/>
-      <c r="E1565" s="3"/>
-      <c r="F1565" s="3"/>
-      <c r="G1565" s="3"/>
-      <c r="H1565" s="5"/>
-      <c r="I1565" s="3"/>
-      <c r="J1565" s="3"/>
-    </row>
-    <row r="1566" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1566" s="3"/>
-      <c r="B1566" s="56"/>
-      <c r="C1566" s="3"/>
-      <c r="D1566" s="3"/>
-      <c r="E1566" s="3"/>
-      <c r="F1566" s="3"/>
-      <c r="G1566" s="3"/>
-      <c r="H1566" s="5"/>
-      <c r="I1566" s="3"/>
-      <c r="J1566" s="3"/>
-    </row>
-    <row r="1567" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1567" s="3"/>
-      <c r="B1567" s="56"/>
-      <c r="C1567" s="3"/>
-      <c r="D1567" s="3"/>
-      <c r="E1567" s="3"/>
-      <c r="F1567" s="3"/>
-      <c r="G1567" s="3"/>
-      <c r="H1567" s="5"/>
-      <c r="I1567" s="3"/>
-      <c r="J1567" s="3"/>
-    </row>
-    <row r="1568" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1568" s="3"/>
-      <c r="B1568" s="56"/>
-      <c r="C1568" s="3"/>
-      <c r="D1568" s="3"/>
-      <c r="E1568" s="3"/>
-      <c r="F1568" s="3"/>
-      <c r="G1568" s="3"/>
-      <c r="H1568" s="5"/>
-      <c r="I1568" s="3"/>
-      <c r="J1568" s="3"/>
-    </row>
-    <row r="1569" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1569" s="3"/>
-      <c r="B1569" s="56"/>
-      <c r="C1569" s="3"/>
-      <c r="D1569" s="3"/>
-      <c r="E1569" s="3"/>
-      <c r="F1569" s="3"/>
-      <c r="G1569" s="3"/>
-      <c r="H1569" s="5"/>
-      <c r="I1569" s="3"/>
-      <c r="J1569" s="3"/>
-    </row>
-    <row r="1570" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1570" s="3"/>
-      <c r="B1570" s="56"/>
-      <c r="C1570" s="3"/>
-      <c r="D1570" s="3"/>
-      <c r="E1570" s="3"/>
-      <c r="F1570" s="3"/>
-      <c r="G1570" s="3"/>
-      <c r="H1570" s="5"/>
-      <c r="I1570" s="3"/>
-      <c r="J1570" s="3"/>
-    </row>
-    <row r="1571" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1571" s="3"/>
-      <c r="B1571" s="56"/>
-      <c r="C1571" s="3"/>
-      <c r="D1571" s="3"/>
-      <c r="E1571" s="3"/>
-      <c r="F1571" s="3"/>
-      <c r="G1571" s="3"/>
-      <c r="H1571" s="5"/>
-      <c r="I1571" s="3"/>
-      <c r="J1571" s="3"/>
-    </row>
-    <row r="1572" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1572" s="3"/>
-      <c r="B1572" s="56"/>
-      <c r="C1572" s="3"/>
-      <c r="D1572" s="3"/>
-      <c r="E1572" s="3"/>
-      <c r="F1572" s="3"/>
-      <c r="G1572" s="3"/>
-      <c r="H1572" s="5"/>
-      <c r="I1572" s="3"/>
-      <c r="J1572" s="3"/>
-    </row>
-    <row r="1573" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1573" s="3"/>
-      <c r="B1573" s="56"/>
-      <c r="C1573" s="3"/>
-      <c r="D1573" s="3"/>
-      <c r="E1573" s="3"/>
-      <c r="F1573" s="3"/>
-      <c r="G1573" s="3"/>
-      <c r="H1573" s="5"/>
-      <c r="I1573" s="3"/>
-      <c r="J1573" s="3"/>
-    </row>
-    <row r="1574" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1574" s="3"/>
-      <c r="B1574" s="56"/>
-      <c r="C1574" s="3"/>
-      <c r="D1574" s="3"/>
-      <c r="E1574" s="3"/>
-      <c r="F1574" s="3"/>
-      <c r="G1574" s="3"/>
-      <c r="H1574" s="5"/>
-      <c r="I1574" s="3"/>
-      <c r="J1574" s="3"/>
-    </row>
-    <row r="1575" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1575" s="3"/>
-      <c r="B1575" s="56"/>
-      <c r="C1575" s="3"/>
-      <c r="D1575" s="3"/>
-      <c r="E1575" s="3"/>
-      <c r="F1575" s="3"/>
-      <c r="G1575" s="3"/>
-      <c r="H1575" s="5"/>
-      <c r="I1575" s="3"/>
-      <c r="J1575" s="3"/>
-    </row>
-    <row r="1576" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1576" s="3"/>
-      <c r="B1576" s="56"/>
-      <c r="C1576" s="3"/>
-      <c r="D1576" s="3"/>
-      <c r="E1576" s="3"/>
-      <c r="F1576" s="3"/>
-      <c r="G1576" s="3"/>
-      <c r="H1576" s="5"/>
-      <c r="I1576" s="3"/>
-      <c r="J1576" s="3"/>
-    </row>
-    <row r="1577" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1577" s="3"/>
-      <c r="B1577" s="56"/>
-      <c r="C1577" s="3"/>
-      <c r="D1577" s="3"/>
-      <c r="E1577" s="3"/>
-      <c r="F1577" s="3"/>
-      <c r="G1577" s="3"/>
-      <c r="H1577" s="5"/>
-      <c r="I1577" s="3"/>
-      <c r="J1577" s="3"/>
-    </row>
-    <row r="1578" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1578" s="3"/>
-      <c r="B1578" s="56"/>
-      <c r="C1578" s="3"/>
-      <c r="D1578" s="3"/>
-      <c r="E1578" s="3"/>
-      <c r="F1578" s="3"/>
-      <c r="G1578" s="3"/>
-      <c r="H1578" s="5"/>
-      <c r="I1578" s="3"/>
-      <c r="J1578" s="3"/>
-    </row>
-    <row r="1579" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1579" s="3"/>
-      <c r="B1579" s="56"/>
-      <c r="C1579" s="3"/>
-      <c r="D1579" s="3"/>
-      <c r="E1579" s="3"/>
-      <c r="F1579" s="3"/>
-      <c r="G1579" s="3"/>
-      <c r="H1579" s="5"/>
-      <c r="I1579" s="3"/>
-      <c r="J1579" s="3"/>
-    </row>
-    <row r="1580" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1580" s="3"/>
-      <c r="B1580" s="56"/>
-      <c r="C1580" s="3"/>
-      <c r="D1580" s="3"/>
-      <c r="E1580" s="3"/>
-      <c r="F1580" s="3"/>
-      <c r="G1580" s="3"/>
-      <c r="H1580" s="5"/>
-      <c r="I1580" s="3"/>
-      <c r="J1580" s="3"/>
-    </row>
-    <row r="1581" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1581" s="3"/>
-      <c r="B1581" s="56"/>
-      <c r="C1581" s="3"/>
-      <c r="D1581" s="3"/>
-      <c r="E1581" s="3"/>
-      <c r="F1581" s="3"/>
-      <c r="G1581" s="3"/>
-      <c r="H1581" s="5"/>
-      <c r="I1581" s="3"/>
-      <c r="J1581" s="3"/>
-    </row>
-    <row r="1582" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1582" s="3"/>
-      <c r="B1582" s="56"/>
-      <c r="C1582" s="3"/>
-      <c r="D1582" s="3"/>
-      <c r="E1582" s="3"/>
-      <c r="F1582" s="3"/>
-      <c r="G1582" s="3"/>
-      <c r="H1582" s="5"/>
-      <c r="I1582" s="3"/>
-      <c r="J1582" s="3"/>
+      <c r="A1546" s="20"/>
     </row>
     <row r="1583" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1583" s="3"/>
       <c r="B1583" s="56"/>
       <c r="C1583" s="3"/>
       <c r="D1583" s="3"/>
@@ -45258,27 +44806,27 @@
     </row>
     <row r="1584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1584" s="3"/>
-      <c r="B1584" s="56"/>
+      <c r="B1584" s="53"/>
       <c r="C1584" s="3"/>
       <c r="D1584" s="3"/>
       <c r="E1584" s="3"/>
       <c r="F1584" s="3"/>
-      <c r="G1584" s="3"/>
+      <c r="G1584" s="6"/>
       <c r="H1584" s="5"/>
       <c r="I1584" s="3"/>
       <c r="J1584" s="3"/>
     </row>
     <row r="1585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1585" s="3"/>
-      <c r="B1585" s="56"/>
-      <c r="C1585" s="3"/>
+      <c r="B1585" s="53"/>
+      <c r="C1585" s="8"/>
       <c r="D1585" s="3"/>
       <c r="E1585" s="3"/>
-      <c r="F1585" s="3"/>
-      <c r="G1585" s="3"/>
-      <c r="H1585" s="5"/>
+      <c r="F1585" s="8"/>
+      <c r="G1585" s="6"/>
+      <c r="H1585" s="9"/>
       <c r="I1585" s="3"/>
-      <c r="J1585" s="3"/>
+      <c r="J1585" s="8"/>
     </row>
     <row r="1586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1586" s="3"/>
@@ -45306,27 +44854,27 @@
     </row>
     <row r="1588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1588" s="3"/>
-      <c r="B1588" s="56"/>
-      <c r="C1588" s="3"/>
+      <c r="B1588" s="53"/>
+      <c r="C1588" s="8"/>
       <c r="D1588" s="3"/>
       <c r="E1588" s="3"/>
-      <c r="F1588" s="3"/>
-      <c r="G1588" s="3"/>
-      <c r="H1588" s="5"/>
+      <c r="F1588" s="8"/>
+      <c r="G1588" s="6"/>
+      <c r="H1588" s="9"/>
       <c r="I1588" s="3"/>
-      <c r="J1588" s="3"/>
+      <c r="J1588" s="8"/>
     </row>
     <row r="1589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1589" s="3"/>
-      <c r="B1589" s="56"/>
-      <c r="C1589" s="3"/>
+      <c r="B1589" s="53"/>
+      <c r="C1589" s="8"/>
       <c r="D1589" s="3"/>
       <c r="E1589" s="3"/>
-      <c r="F1589" s="3"/>
-      <c r="G1589" s="3"/>
-      <c r="H1589" s="5"/>
+      <c r="F1589" s="8"/>
+      <c r="G1589" s="6"/>
+      <c r="H1589" s="9"/>
       <c r="I1589" s="3"/>
-      <c r="J1589" s="3"/>
+      <c r="J1589" s="8"/>
     </row>
     <row r="1590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1590" s="3"/>
@@ -45486,27 +45034,27 @@
     </row>
     <row r="1603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1603" s="3"/>
-      <c r="B1603" s="56"/>
-      <c r="C1603" s="3"/>
+      <c r="B1603" s="53"/>
+      <c r="C1603" s="8"/>
       <c r="D1603" s="3"/>
       <c r="E1603" s="3"/>
-      <c r="F1603" s="3"/>
-      <c r="G1603" s="3"/>
-      <c r="H1603" s="5"/>
+      <c r="F1603" s="8"/>
+      <c r="G1603" s="6"/>
+      <c r="H1603" s="9"/>
       <c r="I1603" s="3"/>
-      <c r="J1603" s="3"/>
+      <c r="J1603" s="8"/>
     </row>
     <row r="1604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1604" s="3"/>
-      <c r="B1604" s="56"/>
-      <c r="C1604" s="3"/>
+      <c r="B1604" s="53"/>
+      <c r="C1604" s="8"/>
       <c r="D1604" s="3"/>
       <c r="E1604" s="3"/>
-      <c r="F1604" s="3"/>
-      <c r="G1604" s="3"/>
-      <c r="H1604" s="5"/>
+      <c r="F1604" s="8"/>
+      <c r="G1604" s="6"/>
+      <c r="H1604" s="9"/>
       <c r="I1604" s="3"/>
-      <c r="J1604" s="3"/>
+      <c r="J1604" s="8"/>
     </row>
     <row r="1605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1605" s="3"/>
@@ -45594,51 +45142,51 @@
     </row>
     <row r="1612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1612" s="3"/>
-      <c r="B1612" s="56"/>
-      <c r="C1612" s="3"/>
+      <c r="B1612" s="53"/>
+      <c r="C1612" s="8"/>
       <c r="D1612" s="3"/>
       <c r="E1612" s="3"/>
-      <c r="F1612" s="3"/>
-      <c r="G1612" s="3"/>
-      <c r="H1612" s="5"/>
+      <c r="F1612" s="8"/>
+      <c r="G1612" s="6"/>
+      <c r="H1612" s="9"/>
       <c r="I1612" s="3"/>
-      <c r="J1612" s="3"/>
+      <c r="J1612" s="8"/>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1613" s="3"/>
-      <c r="B1613" s="56"/>
-      <c r="C1613" s="3"/>
+      <c r="B1613" s="53"/>
+      <c r="C1613" s="8"/>
       <c r="D1613" s="3"/>
       <c r="E1613" s="3"/>
-      <c r="F1613" s="3"/>
-      <c r="G1613" s="3"/>
-      <c r="H1613" s="5"/>
+      <c r="F1613" s="8"/>
+      <c r="G1613" s="6"/>
+      <c r="H1613" s="9"/>
       <c r="I1613" s="3"/>
-      <c r="J1613" s="3"/>
+      <c r="J1613" s="8"/>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1614" s="3"/>
-      <c r="B1614" s="56"/>
-      <c r="C1614" s="3"/>
+      <c r="B1614" s="53"/>
+      <c r="C1614" s="8"/>
       <c r="D1614" s="3"/>
       <c r="E1614" s="3"/>
-      <c r="F1614" s="3"/>
-      <c r="G1614" s="3"/>
-      <c r="H1614" s="5"/>
+      <c r="F1614" s="8"/>
+      <c r="G1614" s="6"/>
+      <c r="H1614" s="9"/>
       <c r="I1614" s="3"/>
-      <c r="J1614" s="3"/>
+      <c r="J1614" s="8"/>
     </row>
     <row r="1615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1615" s="3"/>
-      <c r="B1615" s="56"/>
-      <c r="C1615" s="3"/>
+      <c r="B1615" s="53"/>
+      <c r="C1615" s="8"/>
       <c r="D1615" s="3"/>
       <c r="E1615" s="3"/>
-      <c r="F1615" s="3"/>
-      <c r="G1615" s="3"/>
-      <c r="H1615" s="5"/>
+      <c r="F1615" s="8"/>
+      <c r="G1615" s="6"/>
+      <c r="H1615" s="9"/>
       <c r="I1615" s="3"/>
-      <c r="J1615" s="3"/>
+      <c r="J1615" s="8"/>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1616" s="3"/>
@@ -45882,12 +45430,12 @@
     </row>
     <row r="1636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1636" s="3"/>
-      <c r="B1636" s="56"/>
+      <c r="B1636" s="53"/>
       <c r="C1636" s="3"/>
       <c r="D1636" s="3"/>
       <c r="E1636" s="3"/>
       <c r="F1636" s="3"/>
-      <c r="G1636" s="3"/>
+      <c r="G1636" s="6"/>
       <c r="H1636" s="5"/>
       <c r="I1636" s="3"/>
       <c r="J1636" s="3"/>
@@ -45978,32 +45526,474 @@
     </row>
     <row r="1644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1644" s="3"/>
-      <c r="B1644" s="110"/>
-      <c r="C1644" s="20"/>
-      <c r="D1644" s="20"/>
-      <c r="E1644" s="20"/>
-      <c r="F1644" s="20"/>
-      <c r="G1644" s="20"/>
-      <c r="H1644" s="21"/>
-      <c r="I1644" s="20"/>
-      <c r="J1644" s="20"/>
+      <c r="B1644" s="56"/>
+      <c r="C1644" s="3"/>
+      <c r="D1644" s="3"/>
+      <c r="E1644" s="3"/>
+      <c r="F1644" s="3"/>
+      <c r="G1644" s="3"/>
+      <c r="H1644" s="5"/>
+      <c r="I1644" s="3"/>
+      <c r="J1644" s="3"/>
     </row>
     <row r="1645" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1645" s="20"/>
-      <c r="B1645" s="110"/>
-      <c r="C1645" s="20"/>
-      <c r="D1645" s="20"/>
-      <c r="E1645" s="20"/>
-      <c r="F1645" s="20"/>
-      <c r="G1645" s="20"/>
-      <c r="H1645" s="21"/>
-      <c r="I1645" s="20"/>
-      <c r="J1645" s="20"/>
+      <c r="A1645" s="3"/>
+      <c r="B1645" s="56"/>
+      <c r="C1645" s="3"/>
+      <c r="D1645" s="3"/>
+      <c r="E1645" s="3"/>
+      <c r="F1645" s="3"/>
+      <c r="G1645" s="3"/>
+      <c r="H1645" s="5"/>
+      <c r="I1645" s="3"/>
+      <c r="J1645" s="3"/>
     </row>
     <row r="1646" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1646" s="20"/>
+      <c r="A1646" s="3"/>
+      <c r="B1646" s="56"/>
+      <c r="C1646" s="3"/>
+      <c r="D1646" s="3"/>
+      <c r="E1646" s="3"/>
+      <c r="F1646" s="3"/>
+      <c r="G1646" s="3"/>
+      <c r="H1646" s="5"/>
+      <c r="I1646" s="3"/>
+      <c r="J1646" s="3"/>
+    </row>
+    <row r="1647" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1647" s="3"/>
+      <c r="B1647" s="56"/>
+      <c r="C1647" s="3"/>
+      <c r="D1647" s="3"/>
+      <c r="E1647" s="3"/>
+      <c r="F1647" s="3"/>
+      <c r="G1647" s="3"/>
+      <c r="H1647" s="5"/>
+      <c r="I1647" s="3"/>
+      <c r="J1647" s="3"/>
+    </row>
+    <row r="1648" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1648" s="3"/>
+      <c r="B1648" s="53"/>
+      <c r="C1648" s="3"/>
+      <c r="D1648" s="3"/>
+      <c r="E1648" s="3"/>
+      <c r="F1648" s="3"/>
+      <c r="G1648" s="6"/>
+      <c r="H1648" s="5"/>
+      <c r="I1648" s="3"/>
+      <c r="J1648" s="3"/>
+    </row>
+    <row r="1649" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1649" s="3"/>
+      <c r="B1649" s="56"/>
+      <c r="C1649" s="3"/>
+      <c r="D1649" s="3"/>
+      <c r="E1649" s="3"/>
+      <c r="F1649" s="3"/>
+      <c r="G1649" s="3"/>
+      <c r="H1649" s="5"/>
+      <c r="I1649" s="3"/>
+      <c r="J1649" s="3"/>
+    </row>
+    <row r="1650" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1650" s="3"/>
+      <c r="B1650" s="56"/>
+      <c r="C1650" s="3"/>
+      <c r="D1650" s="3"/>
+      <c r="E1650" s="3"/>
+      <c r="F1650" s="3"/>
+      <c r="G1650" s="3"/>
+      <c r="H1650" s="5"/>
+      <c r="I1650" s="3"/>
+      <c r="J1650" s="3"/>
+    </row>
+    <row r="1651" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1651" s="3"/>
+      <c r="B1651" s="56"/>
+      <c r="C1651" s="3"/>
+      <c r="D1651" s="3"/>
+      <c r="E1651" s="3"/>
+      <c r="F1651" s="3"/>
+      <c r="G1651" s="3"/>
+      <c r="H1651" s="5"/>
+      <c r="I1651" s="3"/>
+      <c r="J1651" s="3"/>
+    </row>
+    <row r="1652" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1652" s="3"/>
+      <c r="B1652" s="56"/>
+      <c r="C1652" s="3"/>
+      <c r="D1652" s="3"/>
+      <c r="E1652" s="3"/>
+      <c r="F1652" s="3"/>
+      <c r="G1652" s="3"/>
+      <c r="H1652" s="5"/>
+      <c r="I1652" s="3"/>
+      <c r="J1652" s="3"/>
+    </row>
+    <row r="1653" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1653" s="3"/>
+      <c r="B1653" s="56"/>
+      <c r="C1653" s="3"/>
+      <c r="D1653" s="3"/>
+      <c r="E1653" s="3"/>
+      <c r="F1653" s="3"/>
+      <c r="G1653" s="3"/>
+      <c r="H1653" s="5"/>
+      <c r="I1653" s="3"/>
+      <c r="J1653" s="3"/>
+    </row>
+    <row r="1654" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1654" s="3"/>
+      <c r="B1654" s="56"/>
+      <c r="C1654" s="3"/>
+      <c r="D1654" s="3"/>
+      <c r="E1654" s="3"/>
+      <c r="F1654" s="3"/>
+      <c r="G1654" s="3"/>
+      <c r="H1654" s="5"/>
+      <c r="I1654" s="3"/>
+      <c r="J1654" s="3"/>
+    </row>
+    <row r="1655" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1655" s="3"/>
+      <c r="B1655" s="56"/>
+      <c r="C1655" s="3"/>
+      <c r="D1655" s="3"/>
+      <c r="E1655" s="3"/>
+      <c r="F1655" s="3"/>
+      <c r="G1655" s="3"/>
+      <c r="H1655" s="5"/>
+      <c r="I1655" s="3"/>
+      <c r="J1655" s="3"/>
+    </row>
+    <row r="1656" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1656" s="3"/>
+      <c r="B1656" s="56"/>
+      <c r="C1656" s="3"/>
+      <c r="D1656" s="3"/>
+      <c r="E1656" s="3"/>
+      <c r="F1656" s="3"/>
+      <c r="G1656" s="3"/>
+      <c r="H1656" s="5"/>
+      <c r="I1656" s="3"/>
+      <c r="J1656" s="3"/>
+    </row>
+    <row r="1657" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1657" s="3"/>
+      <c r="B1657" s="56"/>
+      <c r="C1657" s="3"/>
+      <c r="D1657" s="3"/>
+      <c r="E1657" s="3"/>
+      <c r="F1657" s="3"/>
+      <c r="G1657" s="3"/>
+      <c r="H1657" s="5"/>
+      <c r="I1657" s="3"/>
+      <c r="J1657" s="3"/>
+    </row>
+    <row r="1658" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1658" s="3"/>
+      <c r="B1658" s="56"/>
+      <c r="C1658" s="3"/>
+      <c r="D1658" s="3"/>
+      <c r="E1658" s="3"/>
+      <c r="F1658" s="3"/>
+      <c r="G1658" s="3"/>
+      <c r="H1658" s="5"/>
+      <c r="I1658" s="3"/>
+      <c r="J1658" s="3"/>
+    </row>
+    <row r="1659" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1659" s="3"/>
+      <c r="B1659" s="56"/>
+      <c r="C1659" s="3"/>
+      <c r="D1659" s="3"/>
+      <c r="E1659" s="3"/>
+      <c r="F1659" s="3"/>
+      <c r="G1659" s="3"/>
+      <c r="H1659" s="5"/>
+      <c r="I1659" s="3"/>
+      <c r="J1659" s="3"/>
+    </row>
+    <row r="1660" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1660" s="3"/>
+      <c r="B1660" s="56"/>
+      <c r="C1660" s="3"/>
+      <c r="D1660" s="3"/>
+      <c r="E1660" s="3"/>
+      <c r="F1660" s="3"/>
+      <c r="G1660" s="3"/>
+      <c r="H1660" s="5"/>
+      <c r="I1660" s="3"/>
+      <c r="J1660" s="3"/>
+    </row>
+    <row r="1661" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1661" s="3"/>
+      <c r="B1661" s="56"/>
+      <c r="C1661" s="3"/>
+      <c r="D1661" s="3"/>
+      <c r="E1661" s="3"/>
+      <c r="F1661" s="3"/>
+      <c r="G1661" s="3"/>
+      <c r="H1661" s="5"/>
+      <c r="I1661" s="3"/>
+      <c r="J1661" s="3"/>
+    </row>
+    <row r="1662" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1662" s="3"/>
+      <c r="B1662" s="56"/>
+      <c r="C1662" s="3"/>
+      <c r="D1662" s="3"/>
+      <c r="E1662" s="3"/>
+      <c r="F1662" s="3"/>
+      <c r="G1662" s="3"/>
+      <c r="H1662" s="5"/>
+      <c r="I1662" s="3"/>
+      <c r="J1662" s="3"/>
+    </row>
+    <row r="1663" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1663" s="3"/>
+      <c r="B1663" s="53"/>
+      <c r="C1663" s="3"/>
+      <c r="D1663" s="3"/>
+      <c r="E1663" s="3"/>
+      <c r="F1663" s="3"/>
+      <c r="G1663" s="6"/>
+      <c r="H1663" s="5"/>
+      <c r="I1663" s="3"/>
+      <c r="J1663" s="3"/>
+    </row>
+    <row r="1664" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1664" s="3"/>
+      <c r="B1664" s="56"/>
+      <c r="C1664" s="3"/>
+      <c r="D1664" s="3"/>
+      <c r="E1664" s="3"/>
+      <c r="F1664" s="3"/>
+      <c r="G1664" s="3"/>
+      <c r="H1664" s="5"/>
+      <c r="I1664" s="3"/>
+      <c r="J1664" s="3"/>
+    </row>
+    <row r="1665" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1665" s="3"/>
+      <c r="B1665" s="56"/>
+      <c r="C1665" s="3"/>
+      <c r="D1665" s="3"/>
+      <c r="E1665" s="3"/>
+      <c r="F1665" s="3"/>
+      <c r="G1665" s="3"/>
+      <c r="H1665" s="5"/>
+      <c r="I1665" s="3"/>
+      <c r="J1665" s="3"/>
+    </row>
+    <row r="1666" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1666" s="3"/>
+      <c r="B1666" s="56"/>
+      <c r="C1666" s="3"/>
+      <c r="D1666" s="3"/>
+      <c r="E1666" s="3"/>
+      <c r="F1666" s="3"/>
+      <c r="G1666" s="3"/>
+      <c r="H1666" s="5"/>
+      <c r="I1666" s="3"/>
+      <c r="J1666" s="3"/>
+    </row>
+    <row r="1667" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1667" s="3"/>
+      <c r="B1667" s="56"/>
+      <c r="C1667" s="3"/>
+      <c r="D1667" s="3"/>
+      <c r="E1667" s="3"/>
+      <c r="F1667" s="3"/>
+      <c r="G1667" s="3"/>
+      <c r="H1667" s="5"/>
+      <c r="I1667" s="3"/>
+      <c r="J1667" s="3"/>
+    </row>
+    <row r="1668" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1668" s="3"/>
+      <c r="B1668" s="56"/>
+      <c r="C1668" s="3"/>
+      <c r="D1668" s="3"/>
+      <c r="E1668" s="3"/>
+      <c r="F1668" s="3"/>
+      <c r="G1668" s="3"/>
+      <c r="H1668" s="5"/>
+      <c r="I1668" s="3"/>
+      <c r="J1668" s="3"/>
+    </row>
+    <row r="1669" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1669" s="3"/>
+      <c r="B1669" s="56"/>
+      <c r="C1669" s="3"/>
+      <c r="D1669" s="3"/>
+      <c r="E1669" s="3"/>
+      <c r="F1669" s="3"/>
+      <c r="G1669" s="3"/>
+      <c r="H1669" s="5"/>
+      <c r="I1669" s="3"/>
+      <c r="J1669" s="3"/>
+    </row>
+    <row r="1670" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1670" s="3"/>
+      <c r="B1670" s="56"/>
+      <c r="C1670" s="3"/>
+      <c r="D1670" s="3"/>
+      <c r="E1670" s="3"/>
+      <c r="F1670" s="3"/>
+      <c r="G1670" s="3"/>
+      <c r="H1670" s="5"/>
+      <c r="I1670" s="3"/>
+      <c r="J1670" s="3"/>
+    </row>
+    <row r="1671" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1671" s="3"/>
+      <c r="B1671" s="56"/>
+      <c r="C1671" s="3"/>
+      <c r="D1671" s="3"/>
+      <c r="E1671" s="3"/>
+      <c r="F1671" s="3"/>
+      <c r="G1671" s="3"/>
+      <c r="H1671" s="5"/>
+      <c r="I1671" s="3"/>
+      <c r="J1671" s="3"/>
+    </row>
+    <row r="1672" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1672" s="3"/>
+      <c r="B1672" s="56"/>
+      <c r="C1672" s="3"/>
+      <c r="D1672" s="3"/>
+      <c r="E1672" s="3"/>
+      <c r="F1672" s="3"/>
+      <c r="G1672" s="3"/>
+      <c r="H1672" s="5"/>
+      <c r="I1672" s="3"/>
+      <c r="J1672" s="3"/>
+    </row>
+    <row r="1673" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1673" s="3"/>
+      <c r="B1673" s="56"/>
+      <c r="C1673" s="3"/>
+      <c r="D1673" s="3"/>
+      <c r="E1673" s="3"/>
+      <c r="F1673" s="3"/>
+      <c r="G1673" s="3"/>
+      <c r="H1673" s="5"/>
+      <c r="I1673" s="3"/>
+      <c r="J1673" s="3"/>
+    </row>
+    <row r="1674" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1674" s="3"/>
+      <c r="B1674" s="56"/>
+      <c r="C1674" s="3"/>
+      <c r="D1674" s="3"/>
+      <c r="E1674" s="3"/>
+      <c r="F1674" s="3"/>
+      <c r="G1674" s="3"/>
+      <c r="H1674" s="5"/>
+      <c r="I1674" s="3"/>
+      <c r="J1674" s="3"/>
+    </row>
+    <row r="1675" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1675" s="3"/>
+      <c r="B1675" s="56"/>
+      <c r="C1675" s="3"/>
+      <c r="D1675" s="3"/>
+      <c r="E1675" s="3"/>
+      <c r="F1675" s="3"/>
+      <c r="G1675" s="3"/>
+      <c r="H1675" s="5"/>
+      <c r="I1675" s="3"/>
+      <c r="J1675" s="3"/>
+    </row>
+    <row r="1676" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1676" s="3"/>
+      <c r="B1676" s="56"/>
+      <c r="C1676" s="3"/>
+      <c r="D1676" s="3"/>
+      <c r="E1676" s="3"/>
+      <c r="F1676" s="3"/>
+      <c r="G1676" s="3"/>
+      <c r="H1676" s="5"/>
+      <c r="I1676" s="3"/>
+      <c r="J1676" s="3"/>
+    </row>
+    <row r="1677" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1677" s="3"/>
+      <c r="B1677" s="56"/>
+      <c r="C1677" s="3"/>
+      <c r="D1677" s="3"/>
+      <c r="E1677" s="3"/>
+      <c r="F1677" s="3"/>
+      <c r="G1677" s="3"/>
+      <c r="H1677" s="5"/>
+      <c r="I1677" s="3"/>
+      <c r="J1677" s="3"/>
+    </row>
+    <row r="1678" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1678" s="3"/>
+      <c r="B1678" s="56"/>
+      <c r="C1678" s="3"/>
+      <c r="D1678" s="3"/>
+      <c r="E1678" s="3"/>
+      <c r="F1678" s="3"/>
+      <c r="G1678" s="3"/>
+      <c r="H1678" s="5"/>
+      <c r="I1678" s="3"/>
+      <c r="J1678" s="3"/>
+    </row>
+    <row r="1679" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1679" s="3"/>
+      <c r="B1679" s="56"/>
+      <c r="C1679" s="3"/>
+      <c r="D1679" s="3"/>
+      <c r="E1679" s="3"/>
+      <c r="F1679" s="3"/>
+      <c r="G1679" s="3"/>
+      <c r="H1679" s="5"/>
+      <c r="I1679" s="3"/>
+      <c r="J1679" s="3"/>
+    </row>
+    <row r="1680" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1680" s="3"/>
+      <c r="B1680" s="56"/>
+      <c r="C1680" s="3"/>
+      <c r="D1680" s="3"/>
+      <c r="E1680" s="3"/>
+      <c r="F1680" s="3"/>
+      <c r="G1680" s="3"/>
+      <c r="H1680" s="5"/>
+      <c r="I1680" s="3"/>
+      <c r="J1680" s="3"/>
+    </row>
+    <row r="1681" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1681" s="3"/>
+      <c r="B1681" s="56"/>
+      <c r="C1681" s="3"/>
+      <c r="D1681" s="3"/>
+      <c r="E1681" s="3"/>
+      <c r="F1681" s="3"/>
+      <c r="G1681" s="3"/>
+      <c r="H1681" s="5"/>
+      <c r="I1681" s="3"/>
+      <c r="J1681" s="3"/>
+    </row>
+    <row r="1682" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1682" s="3"/>
+      <c r="B1682" s="56"/>
+      <c r="C1682" s="3"/>
+      <c r="D1682" s="3"/>
+      <c r="E1682" s="3"/>
+      <c r="F1682" s="3"/>
+      <c r="G1682" s="3"/>
+      <c r="H1682" s="5"/>
+      <c r="I1682" s="3"/>
+      <c r="J1682" s="3"/>
     </row>
     <row r="1683" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1683" s="3"/>
       <c r="B1683" s="56"/>
       <c r="C1683" s="3"/>
       <c r="D1683" s="3"/>
@@ -46016,27 +46006,27 @@
     </row>
     <row r="1684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1684" s="3"/>
-      <c r="B1684" s="53"/>
+      <c r="B1684" s="56"/>
       <c r="C1684" s="3"/>
       <c r="D1684" s="3"/>
       <c r="E1684" s="3"/>
       <c r="F1684" s="3"/>
-      <c r="G1684" s="6"/>
+      <c r="G1684" s="3"/>
       <c r="H1684" s="5"/>
       <c r="I1684" s="3"/>
       <c r="J1684" s="3"/>
     </row>
     <row r="1685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1685" s="3"/>
-      <c r="B1685" s="53"/>
-      <c r="C1685" s="8"/>
+      <c r="B1685" s="56"/>
+      <c r="C1685" s="3"/>
       <c r="D1685" s="3"/>
       <c r="E1685" s="3"/>
-      <c r="F1685" s="8"/>
-      <c r="G1685" s="6"/>
-      <c r="H1685" s="9"/>
+      <c r="F1685" s="3"/>
+      <c r="G1685" s="3"/>
+      <c r="H1685" s="5"/>
       <c r="I1685" s="3"/>
-      <c r="J1685" s="8"/>
+      <c r="J1685" s="3"/>
     </row>
     <row r="1686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1686" s="3"/>
@@ -46064,27 +46054,27 @@
     </row>
     <row r="1688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1688" s="3"/>
-      <c r="B1688" s="53"/>
-      <c r="C1688" s="8"/>
+      <c r="B1688" s="56"/>
+      <c r="C1688" s="3"/>
       <c r="D1688" s="3"/>
       <c r="E1688" s="3"/>
-      <c r="F1688" s="8"/>
-      <c r="G1688" s="6"/>
-      <c r="H1688" s="9"/>
+      <c r="F1688" s="3"/>
+      <c r="G1688" s="3"/>
+      <c r="H1688" s="5"/>
       <c r="I1688" s="3"/>
-      <c r="J1688" s="8"/>
+      <c r="J1688" s="3"/>
     </row>
     <row r="1689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1689" s="3"/>
-      <c r="B1689" s="53"/>
-      <c r="C1689" s="8"/>
+      <c r="B1689" s="56"/>
+      <c r="C1689" s="3"/>
       <c r="D1689" s="3"/>
       <c r="E1689" s="3"/>
-      <c r="F1689" s="8"/>
-      <c r="G1689" s="6"/>
-      <c r="H1689" s="9"/>
+      <c r="F1689" s="3"/>
+      <c r="G1689" s="3"/>
+      <c r="H1689" s="5"/>
       <c r="I1689" s="3"/>
-      <c r="J1689" s="8"/>
+      <c r="J1689" s="3"/>
     </row>
     <row r="1690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1690" s="3"/>
@@ -46244,27 +46234,27 @@
     </row>
     <row r="1703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1703" s="3"/>
-      <c r="B1703" s="53"/>
-      <c r="C1703" s="8"/>
+      <c r="B1703" s="56"/>
+      <c r="C1703" s="3"/>
       <c r="D1703" s="3"/>
       <c r="E1703" s="3"/>
-      <c r="F1703" s="8"/>
-      <c r="G1703" s="6"/>
-      <c r="H1703" s="9"/>
+      <c r="F1703" s="3"/>
+      <c r="G1703" s="3"/>
+      <c r="H1703" s="5"/>
       <c r="I1703" s="3"/>
-      <c r="J1703" s="8"/>
+      <c r="J1703" s="3"/>
     </row>
     <row r="1704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1704" s="3"/>
-      <c r="B1704" s="53"/>
-      <c r="C1704" s="8"/>
+      <c r="B1704" s="56"/>
+      <c r="C1704" s="3"/>
       <c r="D1704" s="3"/>
       <c r="E1704" s="3"/>
-      <c r="F1704" s="8"/>
-      <c r="G1704" s="6"/>
-      <c r="H1704" s="9"/>
+      <c r="F1704" s="3"/>
+      <c r="G1704" s="3"/>
+      <c r="H1704" s="5"/>
       <c r="I1704" s="3"/>
-      <c r="J1704" s="8"/>
+      <c r="J1704" s="3"/>
     </row>
     <row r="1705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1705" s="3"/>
@@ -46352,51 +46342,51 @@
     </row>
     <row r="1712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1712" s="3"/>
-      <c r="B1712" s="53"/>
-      <c r="C1712" s="8"/>
+      <c r="B1712" s="56"/>
+      <c r="C1712" s="3"/>
       <c r="D1712" s="3"/>
       <c r="E1712" s="3"/>
-      <c r="F1712" s="8"/>
-      <c r="G1712" s="6"/>
-      <c r="H1712" s="9"/>
+      <c r="F1712" s="3"/>
+      <c r="G1712" s="3"/>
+      <c r="H1712" s="5"/>
       <c r="I1712" s="3"/>
-      <c r="J1712" s="8"/>
+      <c r="J1712" s="3"/>
     </row>
     <row r="1713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1713" s="3"/>
-      <c r="B1713" s="53"/>
-      <c r="C1713" s="8"/>
+      <c r="B1713" s="56"/>
+      <c r="C1713" s="3"/>
       <c r="D1713" s="3"/>
       <c r="E1713" s="3"/>
-      <c r="F1713" s="8"/>
-      <c r="G1713" s="6"/>
-      <c r="H1713" s="9"/>
+      <c r="F1713" s="3"/>
+      <c r="G1713" s="3"/>
+      <c r="H1713" s="5"/>
       <c r="I1713" s="3"/>
-      <c r="J1713" s="8"/>
+      <c r="J1713" s="3"/>
     </row>
     <row r="1714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1714" s="3"/>
-      <c r="B1714" s="53"/>
-      <c r="C1714" s="8"/>
+      <c r="B1714" s="56"/>
+      <c r="C1714" s="3"/>
       <c r="D1714" s="3"/>
       <c r="E1714" s="3"/>
-      <c r="F1714" s="8"/>
-      <c r="G1714" s="6"/>
-      <c r="H1714" s="9"/>
+      <c r="F1714" s="3"/>
+      <c r="G1714" s="3"/>
+      <c r="H1714" s="5"/>
       <c r="I1714" s="3"/>
-      <c r="J1714" s="8"/>
+      <c r="J1714" s="3"/>
     </row>
     <row r="1715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1715" s="3"/>
-      <c r="B1715" s="53"/>
-      <c r="C1715" s="8"/>
+      <c r="B1715" s="56"/>
+      <c r="C1715" s="3"/>
       <c r="D1715" s="3"/>
       <c r="E1715" s="3"/>
-      <c r="F1715" s="8"/>
-      <c r="G1715" s="6"/>
-      <c r="H1715" s="9"/>
+      <c r="F1715" s="3"/>
+      <c r="G1715" s="3"/>
+      <c r="H1715" s="5"/>
       <c r="I1715" s="3"/>
-      <c r="J1715" s="8"/>
+      <c r="J1715" s="3"/>
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1716" s="3"/>
@@ -46628,414 +46618,242 @@
     </row>
     <row r="1735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1735" s="3"/>
-      <c r="B1735" s="56"/>
-      <c r="C1735" s="3"/>
-      <c r="D1735" s="3"/>
-      <c r="E1735" s="3"/>
-      <c r="F1735" s="3"/>
-      <c r="G1735" s="3"/>
-      <c r="H1735" s="5"/>
-      <c r="I1735" s="3"/>
-      <c r="J1735" s="3"/>
-    </row>
-    <row r="1736" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1736" s="3"/>
-      <c r="B1736" s="53"/>
-      <c r="C1736" s="3"/>
-      <c r="D1736" s="3"/>
-      <c r="E1736" s="3"/>
-      <c r="F1736" s="3"/>
-      <c r="G1736" s="6"/>
-      <c r="H1736" s="5"/>
-      <c r="I1736" s="3"/>
-      <c r="J1736" s="3"/>
     </row>
     <row r="1737" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1737" s="3"/>
-      <c r="B1737" s="56"/>
-      <c r="C1737" s="3"/>
-      <c r="D1737" s="3"/>
-      <c r="E1737" s="3"/>
-      <c r="F1737" s="3"/>
-      <c r="G1737" s="3"/>
-      <c r="H1737" s="5"/>
-      <c r="I1737" s="3"/>
-      <c r="J1737" s="3"/>
+      <c r="B1737" s="110"/>
+      <c r="C1737" s="20"/>
+      <c r="D1737" s="20"/>
+      <c r="E1737" s="20"/>
+      <c r="F1737" s="20"/>
+      <c r="G1737" s="20"/>
+      <c r="H1737" s="21"/>
+      <c r="I1737" s="20"/>
+      <c r="J1737" s="20"/>
     </row>
     <row r="1738" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1738" s="3"/>
-      <c r="B1738" s="56"/>
-      <c r="C1738" s="3"/>
-      <c r="D1738" s="3"/>
-      <c r="E1738" s="3"/>
-      <c r="F1738" s="3"/>
-      <c r="G1738" s="3"/>
-      <c r="H1738" s="5"/>
-      <c r="I1738" s="3"/>
-      <c r="J1738" s="3"/>
+      <c r="A1738" s="20"/>
+      <c r="B1738" s="110"/>
+      <c r="C1738" s="20"/>
+      <c r="D1738" s="20"/>
+      <c r="E1738" s="20"/>
+      <c r="F1738" s="20"/>
+      <c r="G1738" s="20"/>
+      <c r="H1738" s="21"/>
+      <c r="I1738" s="20"/>
+      <c r="J1738" s="20"/>
     </row>
     <row r="1739" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1739" s="3"/>
-      <c r="B1739" s="56"/>
-      <c r="C1739" s="3"/>
-      <c r="D1739" s="3"/>
-      <c r="E1739" s="3"/>
-      <c r="F1739" s="3"/>
-      <c r="G1739" s="3"/>
-      <c r="H1739" s="5"/>
-      <c r="I1739" s="3"/>
-      <c r="J1739" s="3"/>
+      <c r="A1739" s="20"/>
+      <c r="B1739" s="110"/>
+      <c r="C1739" s="20"/>
+      <c r="D1739" s="20"/>
+      <c r="E1739" s="20"/>
+      <c r="F1739" s="20"/>
+      <c r="G1739" s="20"/>
+      <c r="H1739" s="21"/>
+      <c r="I1739" s="20"/>
+      <c r="J1739" s="20"/>
     </row>
     <row r="1740" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1740" s="3"/>
-      <c r="B1740" s="56"/>
-      <c r="C1740" s="3"/>
-      <c r="D1740" s="3"/>
-      <c r="E1740" s="3"/>
-      <c r="F1740" s="3"/>
-      <c r="G1740" s="3"/>
-      <c r="H1740" s="5"/>
-      <c r="I1740" s="3"/>
-      <c r="J1740" s="3"/>
+      <c r="A1740" s="20"/>
+      <c r="B1740" s="110"/>
+      <c r="C1740" s="20"/>
+      <c r="D1740" s="20"/>
+      <c r="E1740" s="20"/>
+      <c r="F1740" s="20"/>
+      <c r="G1740" s="20"/>
+      <c r="H1740" s="21"/>
+      <c r="I1740" s="20"/>
+      <c r="J1740" s="20"/>
     </row>
     <row r="1741" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1741" s="3"/>
-      <c r="B1741" s="56"/>
-      <c r="C1741" s="3"/>
-      <c r="D1741" s="3"/>
-      <c r="E1741" s="3"/>
-      <c r="F1741" s="3"/>
-      <c r="G1741" s="3"/>
-      <c r="H1741" s="5"/>
-      <c r="I1741" s="3"/>
-      <c r="J1741" s="3"/>
+      <c r="A1741" s="20"/>
+      <c r="B1741" s="110"/>
+      <c r="C1741" s="20"/>
+      <c r="D1741" s="20"/>
+      <c r="E1741" s="20"/>
+      <c r="F1741" s="20"/>
+      <c r="G1741" s="20"/>
+      <c r="H1741" s="21"/>
+      <c r="I1741" s="20"/>
+      <c r="J1741" s="20"/>
     </row>
     <row r="1742" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1742" s="3"/>
-      <c r="B1742" s="56"/>
-      <c r="C1742" s="3"/>
-      <c r="D1742" s="3"/>
-      <c r="E1742" s="3"/>
-      <c r="F1742" s="3"/>
-      <c r="G1742" s="3"/>
-      <c r="H1742" s="5"/>
-      <c r="I1742" s="3"/>
-      <c r="J1742" s="3"/>
-    </row>
-    <row r="1743" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1743" s="3"/>
-      <c r="B1743" s="56"/>
-      <c r="C1743" s="3"/>
-      <c r="D1743" s="3"/>
-      <c r="E1743" s="3"/>
-      <c r="F1743" s="3"/>
-      <c r="G1743" s="3"/>
-      <c r="H1743" s="5"/>
-      <c r="I1743" s="3"/>
-      <c r="J1743" s="3"/>
-    </row>
-    <row r="1744" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1744" s="3"/>
-      <c r="B1744" s="56"/>
-      <c r="C1744" s="3"/>
-      <c r="D1744" s="3"/>
-      <c r="E1744" s="3"/>
-      <c r="F1744" s="3"/>
-      <c r="G1744" s="3"/>
-      <c r="H1744" s="5"/>
-      <c r="I1744" s="3"/>
-      <c r="J1744" s="3"/>
-    </row>
-    <row r="1745" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1745" s="3"/>
-      <c r="B1745" s="56"/>
-      <c r="C1745" s="3"/>
-      <c r="D1745" s="3"/>
-      <c r="E1745" s="3"/>
-      <c r="F1745" s="3"/>
-      <c r="G1745" s="3"/>
-      <c r="H1745" s="5"/>
-      <c r="I1745" s="3"/>
-      <c r="J1745" s="3"/>
-    </row>
-    <row r="1746" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1746" s="3"/>
-      <c r="B1746" s="56"/>
-      <c r="C1746" s="3"/>
-      <c r="D1746" s="3"/>
-      <c r="E1746" s="3"/>
-      <c r="F1746" s="3"/>
-      <c r="G1746" s="3"/>
-      <c r="H1746" s="5"/>
-      <c r="I1746" s="3"/>
-      <c r="J1746" s="3"/>
+      <c r="A1742" s="20"/>
     </row>
     <row r="1747" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1747" s="3"/>
-      <c r="B1747" s="56"/>
-      <c r="C1747" s="3"/>
-      <c r="D1747" s="3"/>
-      <c r="E1747" s="3"/>
-      <c r="F1747" s="3"/>
-      <c r="G1747" s="3"/>
-      <c r="H1747" s="5"/>
-      <c r="I1747" s="3"/>
-      <c r="J1747" s="3"/>
+      <c r="B1747" s="110"/>
+      <c r="C1747" s="20"/>
+      <c r="D1747" s="20"/>
+      <c r="E1747" s="20"/>
+      <c r="F1747" s="20"/>
+      <c r="G1747" s="20"/>
+      <c r="H1747" s="21"/>
+      <c r="I1747" s="20"/>
+      <c r="J1747" s="20"/>
     </row>
     <row r="1748" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1748" s="3"/>
-      <c r="B1748" s="53"/>
-      <c r="C1748" s="3"/>
-      <c r="D1748" s="3"/>
-      <c r="E1748" s="3"/>
-      <c r="F1748" s="3"/>
-      <c r="G1748" s="6"/>
-      <c r="H1748" s="5"/>
-      <c r="I1748" s="3"/>
-      <c r="J1748" s="3"/>
+      <c r="A1748" s="20"/>
+      <c r="B1748" s="110"/>
+      <c r="C1748" s="20"/>
+      <c r="D1748" s="20"/>
+      <c r="E1748" s="20"/>
+      <c r="F1748" s="20"/>
+      <c r="G1748" s="20"/>
+      <c r="H1748" s="21"/>
+      <c r="I1748" s="20"/>
+      <c r="J1748" s="20"/>
     </row>
     <row r="1749" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1749" s="3"/>
-      <c r="B1749" s="56"/>
-      <c r="C1749" s="3"/>
-      <c r="D1749" s="3"/>
-      <c r="E1749" s="3"/>
-      <c r="F1749" s="3"/>
-      <c r="G1749" s="3"/>
-      <c r="H1749" s="5"/>
-      <c r="I1749" s="3"/>
-      <c r="J1749" s="3"/>
+      <c r="A1749" s="20"/>
+      <c r="B1749" s="110"/>
+      <c r="C1749" s="20"/>
+      <c r="D1749" s="20"/>
+      <c r="E1749" s="20"/>
+      <c r="F1749" s="20"/>
+      <c r="G1749" s="20"/>
+      <c r="H1749" s="21"/>
+      <c r="I1749" s="20"/>
+      <c r="J1749" s="20"/>
     </row>
     <row r="1750" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1750" s="3"/>
-      <c r="B1750" s="56"/>
-      <c r="C1750" s="3"/>
-      <c r="D1750" s="3"/>
-      <c r="E1750" s="3"/>
-      <c r="F1750" s="3"/>
-      <c r="G1750" s="3"/>
-      <c r="H1750" s="5"/>
-      <c r="I1750" s="3"/>
-      <c r="J1750" s="3"/>
+      <c r="A1750" s="20"/>
+      <c r="B1750" s="110"/>
+      <c r="C1750" s="20"/>
+      <c r="D1750" s="20"/>
+      <c r="E1750" s="20"/>
+      <c r="F1750" s="20"/>
+      <c r="G1750" s="20"/>
+      <c r="H1750" s="21"/>
+      <c r="I1750" s="20"/>
+      <c r="J1750" s="20"/>
     </row>
     <row r="1751" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1751" s="3"/>
-      <c r="B1751" s="56"/>
-      <c r="C1751" s="3"/>
-      <c r="D1751" s="3"/>
-      <c r="E1751" s="3"/>
-      <c r="F1751" s="3"/>
-      <c r="G1751" s="3"/>
-      <c r="H1751" s="5"/>
-      <c r="I1751" s="3"/>
-      <c r="J1751" s="3"/>
-    </row>
-    <row r="1752" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1752" s="3"/>
-      <c r="B1752" s="56"/>
-      <c r="C1752" s="3"/>
-      <c r="D1752" s="3"/>
-      <c r="E1752" s="3"/>
-      <c r="F1752" s="3"/>
-      <c r="G1752" s="3"/>
-      <c r="H1752" s="5"/>
-      <c r="I1752" s="3"/>
-      <c r="J1752" s="3"/>
-    </row>
-    <row r="1753" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1753" s="3"/>
-      <c r="B1753" s="56"/>
-      <c r="C1753" s="3"/>
-      <c r="D1753" s="3"/>
-      <c r="E1753" s="3"/>
-      <c r="F1753" s="3"/>
-      <c r="G1753" s="3"/>
-      <c r="H1753" s="5"/>
-      <c r="I1753" s="3"/>
-      <c r="J1753" s="3"/>
-    </row>
-    <row r="1754" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1754" s="3"/>
-      <c r="B1754" s="56"/>
-      <c r="C1754" s="3"/>
-      <c r="D1754" s="3"/>
-      <c r="E1754" s="3"/>
-      <c r="F1754" s="3"/>
-      <c r="G1754" s="3"/>
-      <c r="H1754" s="5"/>
-      <c r="I1754" s="3"/>
-      <c r="J1754" s="3"/>
-    </row>
-    <row r="1755" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1755" s="3"/>
-      <c r="B1755" s="56"/>
-      <c r="C1755" s="3"/>
-      <c r="D1755" s="3"/>
-      <c r="E1755" s="3"/>
-      <c r="F1755" s="3"/>
-      <c r="G1755" s="3"/>
-      <c r="H1755" s="5"/>
-      <c r="I1755" s="3"/>
-      <c r="J1755" s="3"/>
+      <c r="A1751" s="20"/>
     </row>
     <row r="1756" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1756" s="3"/>
-      <c r="B1756" s="56"/>
-      <c r="C1756" s="3"/>
-      <c r="D1756" s="3"/>
-      <c r="E1756" s="3"/>
-      <c r="F1756" s="3"/>
-      <c r="G1756" s="3"/>
-      <c r="H1756" s="5"/>
-      <c r="I1756" s="3"/>
-      <c r="J1756" s="3"/>
+      <c r="B1756" s="110"/>
+      <c r="C1756" s="20"/>
+      <c r="D1756" s="20"/>
+      <c r="E1756" s="20"/>
+      <c r="F1756" s="20"/>
+      <c r="G1756" s="20"/>
+      <c r="H1756" s="21"/>
+      <c r="I1756" s="20"/>
+      <c r="J1756" s="20"/>
     </row>
     <row r="1757" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1757" s="3"/>
-      <c r="B1757" s="56"/>
-      <c r="C1757" s="3"/>
-      <c r="D1757" s="3"/>
-      <c r="E1757" s="3"/>
-      <c r="F1757" s="3"/>
-      <c r="G1757" s="3"/>
-      <c r="H1757" s="5"/>
-      <c r="I1757" s="3"/>
-      <c r="J1757" s="3"/>
+      <c r="A1757" s="20"/>
+      <c r="B1757" s="110"/>
+      <c r="C1757" s="20"/>
+      <c r="D1757" s="20"/>
+      <c r="E1757" s="20"/>
+      <c r="F1757" s="20"/>
+      <c r="G1757" s="20"/>
+      <c r="H1757" s="21"/>
+      <c r="I1757" s="20"/>
+      <c r="J1757" s="20"/>
     </row>
     <row r="1758" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1758" s="3"/>
-      <c r="B1758" s="56"/>
-      <c r="C1758" s="3"/>
-      <c r="D1758" s="3"/>
-      <c r="E1758" s="3"/>
-      <c r="F1758" s="3"/>
-      <c r="G1758" s="3"/>
-      <c r="H1758" s="5"/>
-      <c r="I1758" s="3"/>
-      <c r="J1758" s="3"/>
+      <c r="A1758" s="20"/>
+      <c r="B1758" s="110"/>
+      <c r="C1758" s="20"/>
+      <c r="D1758" s="20"/>
+      <c r="E1758" s="20"/>
+      <c r="F1758" s="20"/>
+      <c r="G1758" s="20"/>
+      <c r="H1758" s="21"/>
+      <c r="I1758" s="20"/>
+      <c r="J1758" s="20"/>
     </row>
     <row r="1759" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1759" s="3"/>
-      <c r="B1759" s="56"/>
-      <c r="C1759" s="3"/>
-      <c r="D1759" s="3"/>
-      <c r="E1759" s="3"/>
-      <c r="F1759" s="3"/>
-      <c r="G1759" s="3"/>
-      <c r="H1759" s="5"/>
-      <c r="I1759" s="3"/>
-      <c r="J1759" s="3"/>
+      <c r="A1759" s="20"/>
+      <c r="B1759" s="110"/>
+      <c r="C1759" s="20"/>
+      <c r="D1759" s="20"/>
+      <c r="E1759" s="20"/>
+      <c r="F1759" s="20"/>
+      <c r="G1759" s="20"/>
+      <c r="H1759" s="21"/>
+      <c r="I1759" s="20"/>
+      <c r="J1759" s="20"/>
     </row>
     <row r="1760" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1760" s="3"/>
-      <c r="B1760" s="56"/>
-      <c r="C1760" s="3"/>
-      <c r="D1760" s="3"/>
-      <c r="E1760" s="3"/>
-      <c r="F1760" s="3"/>
-      <c r="G1760" s="3"/>
-      <c r="H1760" s="5"/>
-      <c r="I1760" s="3"/>
-      <c r="J1760" s="3"/>
+      <c r="A1760" s="20"/>
+      <c r="B1760" s="110"/>
+      <c r="C1760" s="20"/>
+      <c r="D1760" s="20"/>
+      <c r="E1760" s="20"/>
+      <c r="F1760" s="20"/>
+      <c r="G1760" s="20"/>
+      <c r="H1760" s="21"/>
+      <c r="I1760" s="20"/>
+      <c r="J1760" s="20"/>
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1761" s="3"/>
-      <c r="B1761" s="56"/>
-      <c r="C1761" s="3"/>
-      <c r="D1761" s="3"/>
-      <c r="E1761" s="3"/>
-      <c r="F1761" s="3"/>
-      <c r="G1761" s="3"/>
-      <c r="H1761" s="5"/>
-      <c r="I1761" s="3"/>
-      <c r="J1761" s="3"/>
+      <c r="A1761" s="20"/>
+      <c r="B1761" s="110"/>
+      <c r="C1761" s="20"/>
+      <c r="D1761" s="20"/>
+      <c r="E1761" s="20"/>
+      <c r="F1761" s="20"/>
+      <c r="G1761" s="20"/>
+      <c r="H1761" s="21"/>
+      <c r="I1761" s="20"/>
+      <c r="J1761" s="20"/>
     </row>
     <row r="1762" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1762" s="3"/>
-      <c r="B1762" s="56"/>
-      <c r="C1762" s="3"/>
-      <c r="D1762" s="3"/>
-      <c r="E1762" s="3"/>
-      <c r="F1762" s="3"/>
-      <c r="G1762" s="3"/>
-      <c r="H1762" s="5"/>
-      <c r="I1762" s="3"/>
-      <c r="J1762" s="3"/>
+      <c r="A1762" s="20"/>
+      <c r="B1762" s="110"/>
+      <c r="C1762" s="20"/>
+      <c r="D1762" s="20"/>
+      <c r="E1762" s="20"/>
+      <c r="F1762" s="20"/>
+      <c r="G1762" s="20"/>
+      <c r="H1762" s="21"/>
+      <c r="I1762" s="20"/>
+      <c r="J1762" s="20"/>
     </row>
     <row r="1763" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1763" s="3"/>
-      <c r="B1763" s="53"/>
-      <c r="C1763" s="3"/>
-      <c r="D1763" s="3"/>
-      <c r="E1763" s="3"/>
-      <c r="F1763" s="3"/>
-      <c r="G1763" s="6"/>
-      <c r="H1763" s="5"/>
-      <c r="I1763" s="3"/>
-      <c r="J1763" s="3"/>
+      <c r="A1763" s="20"/>
+      <c r="B1763" s="110"/>
+      <c r="C1763" s="20"/>
+      <c r="D1763" s="20"/>
+      <c r="E1763" s="20"/>
+      <c r="F1763" s="20"/>
+      <c r="G1763" s="20"/>
+      <c r="H1763" s="21"/>
+      <c r="I1763" s="20"/>
+      <c r="J1763" s="20"/>
     </row>
     <row r="1764" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1764" s="3"/>
-      <c r="B1764" s="56"/>
-      <c r="C1764" s="3"/>
-      <c r="D1764" s="3"/>
-      <c r="E1764" s="3"/>
-      <c r="F1764" s="3"/>
-      <c r="G1764" s="3"/>
-      <c r="H1764" s="5"/>
-      <c r="I1764" s="3"/>
-      <c r="J1764" s="3"/>
+      <c r="A1764" s="20"/>
+      <c r="B1764" s="110"/>
+      <c r="C1764" s="20"/>
+      <c r="D1764" s="20"/>
+      <c r="E1764" s="20"/>
+      <c r="F1764" s="20"/>
+      <c r="G1764" s="20"/>
+      <c r="H1764" s="21"/>
+      <c r="I1764" s="20"/>
+      <c r="J1764" s="20"/>
     </row>
     <row r="1765" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1765" s="3"/>
-      <c r="B1765" s="56"/>
-      <c r="C1765" s="3"/>
-      <c r="D1765" s="3"/>
-      <c r="E1765" s="3"/>
-      <c r="F1765" s="3"/>
-      <c r="G1765" s="3"/>
-      <c r="H1765" s="5"/>
-      <c r="I1765" s="3"/>
-      <c r="J1765" s="3"/>
+      <c r="A1765" s="20"/>
+      <c r="B1765" s="110"/>
+      <c r="C1765" s="20"/>
+      <c r="D1765" s="20"/>
+      <c r="E1765" s="20"/>
+      <c r="F1765" s="20"/>
+      <c r="G1765" s="20"/>
+      <c r="H1765" s="21"/>
+      <c r="I1765" s="20"/>
+      <c r="J1765" s="20"/>
     </row>
     <row r="1766" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1766" s="3"/>
-      <c r="B1766" s="56"/>
-      <c r="C1766" s="3"/>
-      <c r="D1766" s="3"/>
-      <c r="E1766" s="3"/>
-      <c r="F1766" s="3"/>
-      <c r="G1766" s="3"/>
-      <c r="H1766" s="5"/>
-      <c r="I1766" s="3"/>
-      <c r="J1766" s="3"/>
-    </row>
-    <row r="1767" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1767" s="3"/>
-      <c r="B1767" s="56"/>
-      <c r="C1767" s="3"/>
-      <c r="D1767" s="3"/>
-      <c r="E1767" s="3"/>
-      <c r="F1767" s="3"/>
-      <c r="G1767" s="3"/>
-      <c r="H1767" s="5"/>
-      <c r="I1767" s="3"/>
-      <c r="J1767" s="3"/>
-    </row>
-    <row r="1768" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1768" s="3"/>
-      <c r="B1768" s="56"/>
-      <c r="C1768" s="3"/>
-      <c r="D1768" s="3"/>
-      <c r="E1768" s="3"/>
-      <c r="F1768" s="3"/>
-      <c r="G1768" s="3"/>
-      <c r="H1768" s="5"/>
-      <c r="I1768" s="3"/>
-      <c r="J1768" s="3"/>
+      <c r="A1766" s="20"/>
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1769" s="3"/>
       <c r="B1769" s="56"/>
       <c r="C1769" s="3"/>
       <c r="D1769" s="3"/>
@@ -47084,171 +46902,171 @@
     </row>
     <row r="1773" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1773" s="3"/>
-      <c r="B1773" s="56"/>
+      <c r="B1773" s="53"/>
       <c r="C1773" s="3"/>
-      <c r="D1773" s="3"/>
-      <c r="E1773" s="3"/>
-      <c r="F1773" s="3"/>
-      <c r="G1773" s="3"/>
+      <c r="D1773" s="8"/>
+      <c r="E1773" s="8"/>
+      <c r="F1773" s="8"/>
+      <c r="G1773" s="8"/>
       <c r="H1773" s="5"/>
       <c r="I1773" s="3"/>
       <c r="J1773" s="3"/>
     </row>
     <row r="1774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1774" s="3"/>
-      <c r="B1774" s="56"/>
+      <c r="B1774" s="53"/>
       <c r="C1774" s="3"/>
-      <c r="D1774" s="3"/>
-      <c r="E1774" s="3"/>
-      <c r="F1774" s="3"/>
-      <c r="G1774" s="3"/>
+      <c r="D1774" s="8"/>
+      <c r="E1774" s="8"/>
+      <c r="F1774" s="8"/>
+      <c r="G1774" s="8"/>
       <c r="H1774" s="5"/>
       <c r="I1774" s="3"/>
       <c r="J1774" s="3"/>
     </row>
     <row r="1775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1775" s="3"/>
-      <c r="B1775" s="56"/>
+      <c r="B1775" s="53"/>
       <c r="C1775" s="3"/>
-      <c r="D1775" s="3"/>
-      <c r="E1775" s="3"/>
-      <c r="F1775" s="3"/>
-      <c r="G1775" s="3"/>
+      <c r="D1775" s="8"/>
+      <c r="E1775" s="8"/>
+      <c r="F1775" s="8"/>
+      <c r="G1775" s="8"/>
       <c r="H1775" s="5"/>
       <c r="I1775" s="3"/>
       <c r="J1775" s="3"/>
     </row>
     <row r="1776" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1776" s="3"/>
-      <c r="B1776" s="56"/>
+      <c r="B1776" s="53"/>
       <c r="C1776" s="3"/>
-      <c r="D1776" s="3"/>
-      <c r="E1776" s="3"/>
-      <c r="F1776" s="3"/>
-      <c r="G1776" s="3"/>
+      <c r="D1776" s="8"/>
+      <c r="E1776" s="8"/>
+      <c r="F1776" s="8"/>
+      <c r="G1776" s="8"/>
       <c r="H1776" s="5"/>
       <c r="I1776" s="3"/>
       <c r="J1776" s="3"/>
     </row>
     <row r="1777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1777" s="3"/>
-      <c r="B1777" s="56"/>
+      <c r="B1777" s="53"/>
       <c r="C1777" s="3"/>
-      <c r="D1777" s="3"/>
-      <c r="E1777" s="3"/>
-      <c r="F1777" s="3"/>
-      <c r="G1777" s="3"/>
+      <c r="D1777" s="8"/>
+      <c r="E1777" s="8"/>
+      <c r="F1777" s="8"/>
+      <c r="G1777" s="8"/>
       <c r="H1777" s="5"/>
       <c r="I1777" s="3"/>
       <c r="J1777" s="3"/>
     </row>
     <row r="1778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1778" s="3"/>
-      <c r="B1778" s="56"/>
+      <c r="B1778" s="53"/>
       <c r="C1778" s="3"/>
       <c r="D1778" s="3"/>
       <c r="E1778" s="3"/>
       <c r="F1778" s="3"/>
-      <c r="G1778" s="3"/>
+      <c r="G1778" s="6"/>
       <c r="H1778" s="5"/>
       <c r="I1778" s="3"/>
       <c r="J1778" s="3"/>
     </row>
     <row r="1779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1779" s="3"/>
-      <c r="B1779" s="56"/>
+      <c r="B1779" s="53"/>
       <c r="C1779" s="3"/>
       <c r="D1779" s="3"/>
       <c r="E1779" s="3"/>
       <c r="F1779" s="3"/>
-      <c r="G1779" s="3"/>
+      <c r="G1779" s="6"/>
       <c r="H1779" s="5"/>
       <c r="I1779" s="3"/>
       <c r="J1779" s="3"/>
     </row>
     <row r="1780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1780" s="3"/>
-      <c r="B1780" s="56"/>
+      <c r="B1780" s="53"/>
       <c r="C1780" s="3"/>
       <c r="D1780" s="3"/>
       <c r="E1780" s="3"/>
       <c r="F1780" s="3"/>
-      <c r="G1780" s="3"/>
+      <c r="G1780" s="6"/>
       <c r="H1780" s="5"/>
       <c r="I1780" s="3"/>
       <c r="J1780" s="3"/>
     </row>
     <row r="1781" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1781" s="3"/>
-      <c r="B1781" s="56"/>
+      <c r="B1781" s="53"/>
       <c r="C1781" s="3"/>
-      <c r="D1781" s="3"/>
-      <c r="E1781" s="3"/>
-      <c r="F1781" s="3"/>
-      <c r="G1781" s="3"/>
+      <c r="D1781" s="8"/>
+      <c r="E1781" s="8"/>
+      <c r="F1781" s="8"/>
+      <c r="G1781" s="8"/>
       <c r="H1781" s="5"/>
-      <c r="I1781" s="3"/>
-      <c r="J1781" s="3"/>
+      <c r="I1781" s="8"/>
+      <c r="J1781" s="8"/>
     </row>
     <row r="1782" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1782" s="3"/>
-      <c r="B1782" s="56"/>
+      <c r="B1782" s="53"/>
       <c r="C1782" s="3"/>
-      <c r="D1782" s="3"/>
-      <c r="E1782" s="3"/>
-      <c r="F1782" s="3"/>
-      <c r="G1782" s="3"/>
+      <c r="D1782" s="8"/>
+      <c r="E1782" s="8"/>
+      <c r="F1782" s="8"/>
+      <c r="G1782" s="8"/>
       <c r="H1782" s="5"/>
-      <c r="I1782" s="3"/>
-      <c r="J1782" s="3"/>
+      <c r="I1782" s="8"/>
+      <c r="J1782" s="8"/>
     </row>
     <row r="1783" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1783" s="3"/>
-      <c r="B1783" s="56"/>
+      <c r="B1783" s="53"/>
       <c r="C1783" s="3"/>
-      <c r="D1783" s="3"/>
-      <c r="E1783" s="3"/>
-      <c r="F1783" s="3"/>
-      <c r="G1783" s="3"/>
+      <c r="D1783" s="8"/>
+      <c r="E1783" s="8"/>
+      <c r="F1783" s="8"/>
+      <c r="G1783" s="8"/>
       <c r="H1783" s="5"/>
-      <c r="I1783" s="3"/>
-      <c r="J1783" s="3"/>
+      <c r="I1783" s="8"/>
+      <c r="J1783" s="8"/>
     </row>
     <row r="1784" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1784" s="3"/>
-      <c r="B1784" s="56"/>
+      <c r="B1784" s="53"/>
       <c r="C1784" s="3"/>
-      <c r="D1784" s="3"/>
-      <c r="E1784" s="3"/>
-      <c r="F1784" s="3"/>
-      <c r="G1784" s="3"/>
+      <c r="D1784" s="8"/>
+      <c r="E1784" s="8"/>
+      <c r="F1784" s="8"/>
+      <c r="G1784" s="8"/>
       <c r="H1784" s="5"/>
-      <c r="I1784" s="3"/>
-      <c r="J1784" s="3"/>
+      <c r="I1784" s="8"/>
+      <c r="J1784" s="8"/>
     </row>
     <row r="1785" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1785" s="3"/>
-      <c r="B1785" s="56"/>
+      <c r="B1785" s="53"/>
       <c r="C1785" s="3"/>
-      <c r="D1785" s="3"/>
-      <c r="E1785" s="3"/>
-      <c r="F1785" s="3"/>
-      <c r="G1785" s="3"/>
+      <c r="D1785" s="8"/>
+      <c r="E1785" s="8"/>
+      <c r="F1785" s="8"/>
+      <c r="G1785" s="8"/>
       <c r="H1785" s="5"/>
-      <c r="I1785" s="3"/>
-      <c r="J1785" s="3"/>
+      <c r="I1785" s="8"/>
+      <c r="J1785" s="8"/>
     </row>
     <row r="1786" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1786" s="3"/>
-      <c r="B1786" s="56"/>
+      <c r="B1786" s="53"/>
       <c r="C1786" s="3"/>
-      <c r="D1786" s="3"/>
-      <c r="E1786" s="3"/>
-      <c r="F1786" s="3"/>
-      <c r="G1786" s="3"/>
+      <c r="D1786" s="8"/>
+      <c r="E1786" s="8"/>
+      <c r="F1786" s="8"/>
+      <c r="G1786" s="8"/>
       <c r="H1786" s="5"/>
-      <c r="I1786" s="3"/>
-      <c r="J1786" s="3"/>
+      <c r="I1786" s="8"/>
+      <c r="J1786" s="8"/>
     </row>
     <row r="1787" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1787" s="3"/>
@@ -47352,7 +47170,6 @@
       <c r="C1795" s="3"/>
       <c r="D1795" s="3"/>
       <c r="E1795" s="3"/>
-      <c r="F1795" s="3"/>
       <c r="G1795" s="3"/>
       <c r="H1795" s="5"/>
       <c r="I1795" s="3"/>
@@ -47360,54 +47177,54 @@
     </row>
     <row r="1796" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1796" s="3"/>
-      <c r="B1796" s="56"/>
+      <c r="B1796" s="53"/>
       <c r="C1796" s="3"/>
-      <c r="D1796" s="3"/>
-      <c r="E1796" s="3"/>
-      <c r="F1796" s="3"/>
-      <c r="G1796" s="3"/>
+      <c r="D1796" s="8"/>
+      <c r="E1796" s="8"/>
+      <c r="F1796" s="37"/>
+      <c r="G1796" s="8"/>
       <c r="H1796" s="5"/>
-      <c r="I1796" s="3"/>
-      <c r="J1796" s="3"/>
+      <c r="I1796" s="8"/>
+      <c r="J1796" s="8"/>
     </row>
     <row r="1797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1797" s="3"/>
-      <c r="B1797" s="56"/>
+      <c r="B1797" s="53"/>
       <c r="C1797" s="3"/>
-      <c r="D1797" s="3"/>
-      <c r="E1797" s="3"/>
-      <c r="F1797" s="3"/>
-      <c r="G1797" s="3"/>
+      <c r="D1797" s="8"/>
+      <c r="E1797" s="8"/>
+      <c r="F1797" s="37"/>
+      <c r="G1797" s="8"/>
       <c r="H1797" s="5"/>
-      <c r="I1797" s="3"/>
-      <c r="J1797" s="3"/>
+      <c r="I1797" s="8"/>
+      <c r="J1797" s="8"/>
     </row>
     <row r="1798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1798" s="3"/>
-      <c r="B1798" s="56"/>
+      <c r="B1798" s="53"/>
       <c r="C1798" s="3"/>
-      <c r="D1798" s="3"/>
-      <c r="E1798" s="3"/>
-      <c r="F1798" s="3"/>
-      <c r="G1798" s="3"/>
+      <c r="D1798" s="8"/>
+      <c r="E1798" s="8"/>
+      <c r="F1798" s="8"/>
+      <c r="G1798" s="8"/>
       <c r="H1798" s="5"/>
-      <c r="I1798" s="3"/>
-      <c r="J1798" s="3"/>
+      <c r="I1798" s="8"/>
+      <c r="J1798" s="8"/>
     </row>
     <row r="1799" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1799" s="3"/>
-      <c r="B1799" s="56"/>
+      <c r="B1799" s="53"/>
       <c r="C1799" s="3"/>
-      <c r="D1799" s="3"/>
-      <c r="E1799" s="3"/>
-      <c r="F1799" s="3"/>
-      <c r="G1799" s="3"/>
+      <c r="D1799" s="8"/>
+      <c r="E1799" s="8"/>
+      <c r="F1799" s="8"/>
+      <c r="G1799" s="8"/>
       <c r="H1799" s="5"/>
-      <c r="I1799" s="3"/>
-      <c r="J1799" s="3"/>
+      <c r="I1799" s="8"/>
+      <c r="J1799" s="8"/>
     </row>
     <row r="1800" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1800" s="3"/>
+      <c r="A1800" s="8"/>
       <c r="B1800" s="56"/>
       <c r="C1800" s="3"/>
       <c r="D1800" s="3"/>
@@ -47456,1639 +47273,1812 @@
     </row>
     <row r="1804" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1804" s="3"/>
-      <c r="B1804" s="56"/>
-      <c r="C1804" s="3"/>
-      <c r="D1804" s="3"/>
-      <c r="E1804" s="3"/>
-      <c r="F1804" s="3"/>
-      <c r="G1804" s="3"/>
-      <c r="H1804" s="5"/>
-      <c r="I1804" s="3"/>
-      <c r="J1804" s="3"/>
+      <c r="E1804" s="33"/>
     </row>
     <row r="1805" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1805" s="3"/>
-      <c r="B1805" s="56"/>
-      <c r="C1805" s="3"/>
-      <c r="D1805" s="3"/>
-      <c r="E1805" s="3"/>
-      <c r="F1805" s="3"/>
-      <c r="G1805" s="3"/>
-      <c r="H1805" s="5"/>
-      <c r="I1805" s="3"/>
-      <c r="J1805" s="3"/>
-    </row>
-    <row r="1806" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1806" s="3"/>
-      <c r="B1806" s="56"/>
-      <c r="C1806" s="3"/>
-      <c r="D1806" s="3"/>
-      <c r="E1806" s="3"/>
-      <c r="F1806" s="3"/>
-      <c r="G1806" s="3"/>
-      <c r="H1806" s="5"/>
-      <c r="I1806" s="3"/>
-      <c r="J1806" s="3"/>
+      <c r="E1805" s="33"/>
     </row>
     <row r="1807" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1807" s="3"/>
-      <c r="B1807" s="56"/>
-      <c r="C1807" s="3"/>
-      <c r="D1807" s="3"/>
-      <c r="E1807" s="3"/>
-      <c r="F1807" s="3"/>
-      <c r="G1807" s="3"/>
-      <c r="H1807" s="5"/>
-      <c r="I1807" s="3"/>
-      <c r="J1807" s="3"/>
+      <c r="B1807" s="111"/>
+      <c r="C1807" s="20"/>
+      <c r="D1807" s="14"/>
+      <c r="E1807" s="14"/>
+      <c r="F1807" s="14"/>
+      <c r="G1807" s="14"/>
+      <c r="H1807" s="21"/>
+      <c r="I1807" s="14"/>
+      <c r="J1807" s="14"/>
     </row>
     <row r="1808" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1808" s="3"/>
-      <c r="B1808" s="56"/>
-      <c r="C1808" s="3"/>
-      <c r="D1808" s="3"/>
-      <c r="E1808" s="3"/>
-      <c r="F1808" s="3"/>
-      <c r="G1808" s="3"/>
-      <c r="H1808" s="5"/>
-      <c r="I1808" s="3"/>
-      <c r="J1808" s="3"/>
+      <c r="A1808" s="14"/>
+      <c r="B1808" s="111"/>
+      <c r="C1808" s="20"/>
+      <c r="D1808" s="14"/>
+      <c r="E1808" s="14"/>
+      <c r="F1808" s="14"/>
+      <c r="G1808" s="14"/>
+      <c r="H1808" s="21"/>
+      <c r="I1808" s="14"/>
+      <c r="J1808" s="14"/>
     </row>
     <row r="1809" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1809" s="3"/>
-      <c r="B1809" s="56"/>
-      <c r="C1809" s="3"/>
-      <c r="D1809" s="3"/>
-      <c r="E1809" s="3"/>
-      <c r="F1809" s="3"/>
-      <c r="G1809" s="3"/>
-      <c r="H1809" s="5"/>
-      <c r="I1809" s="3"/>
-      <c r="J1809" s="3"/>
+      <c r="A1809" s="14"/>
+      <c r="B1809" s="111"/>
+      <c r="C1809" s="20"/>
+      <c r="D1809" s="14"/>
+      <c r="E1809" s="14"/>
+      <c r="F1809" s="14"/>
+      <c r="G1809" s="14"/>
+      <c r="H1809" s="21"/>
+      <c r="I1809" s="14"/>
+      <c r="J1809" s="14"/>
     </row>
     <row r="1810" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1810" s="3"/>
-      <c r="B1810" s="56"/>
-      <c r="C1810" s="3"/>
-      <c r="D1810" s="3"/>
-      <c r="E1810" s="3"/>
-      <c r="F1810" s="3"/>
-      <c r="G1810" s="3"/>
-      <c r="H1810" s="5"/>
-      <c r="I1810" s="3"/>
-      <c r="J1810" s="3"/>
+      <c r="A1810" s="14"/>
+      <c r="B1810" s="111"/>
+      <c r="C1810" s="20"/>
+      <c r="D1810" s="14"/>
+      <c r="E1810" s="14"/>
+      <c r="F1810" s="14"/>
+      <c r="G1810" s="14"/>
+      <c r="H1810" s="21"/>
+      <c r="I1810" s="14"/>
+      <c r="J1810" s="14"/>
     </row>
     <row r="1811" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1811" s="3"/>
-      <c r="B1811" s="56"/>
-      <c r="C1811" s="3"/>
-      <c r="D1811" s="3"/>
-      <c r="E1811" s="3"/>
-      <c r="F1811" s="3"/>
-      <c r="G1811" s="3"/>
-      <c r="H1811" s="5"/>
-      <c r="I1811" s="3"/>
-      <c r="J1811" s="3"/>
+      <c r="A1811" s="14"/>
+      <c r="B1811" s="111"/>
+      <c r="C1811" s="20"/>
+      <c r="D1811" s="14"/>
+      <c r="E1811" s="14"/>
+      <c r="F1811" s="18"/>
+      <c r="G1811" s="14"/>
+      <c r="H1811" s="21"/>
+      <c r="I1811" s="14"/>
+      <c r="J1811" s="14"/>
     </row>
     <row r="1812" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1812" s="3"/>
-      <c r="B1812" s="56"/>
-      <c r="C1812" s="3"/>
-      <c r="D1812" s="3"/>
-      <c r="E1812" s="3"/>
-      <c r="F1812" s="3"/>
-      <c r="G1812" s="3"/>
-      <c r="H1812" s="5"/>
-      <c r="I1812" s="3"/>
-      <c r="J1812" s="3"/>
+      <c r="A1812" s="14"/>
+      <c r="B1812" s="111"/>
+      <c r="C1812" s="20"/>
+      <c r="D1812" s="14"/>
+      <c r="E1812" s="14"/>
+      <c r="F1812" s="36"/>
+      <c r="G1812" s="14"/>
+      <c r="H1812" s="21"/>
+      <c r="I1812" s="14"/>
+      <c r="J1812" s="14"/>
     </row>
     <row r="1813" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1813" s="3"/>
-      <c r="B1813" s="56"/>
-      <c r="C1813" s="3"/>
-      <c r="D1813" s="3"/>
-      <c r="E1813" s="3"/>
-      <c r="F1813" s="3"/>
-      <c r="G1813" s="3"/>
-      <c r="H1813" s="5"/>
-      <c r="I1813" s="3"/>
-      <c r="J1813" s="3"/>
+      <c r="A1813" s="14"/>
+      <c r="B1813" s="111"/>
+      <c r="C1813" s="20"/>
+      <c r="D1813" s="14"/>
+      <c r="E1813" s="14"/>
+      <c r="F1813" s="36"/>
+      <c r="G1813" s="14"/>
+      <c r="H1813" s="21"/>
+      <c r="I1813" s="14"/>
+      <c r="J1813" s="14"/>
     </row>
     <row r="1814" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1814" s="3"/>
-      <c r="B1814" s="56"/>
-      <c r="C1814" s="3"/>
-      <c r="D1814" s="3"/>
-      <c r="E1814" s="3"/>
-      <c r="F1814" s="3"/>
-      <c r="G1814" s="3"/>
-      <c r="H1814" s="5"/>
-      <c r="I1814" s="3"/>
-      <c r="J1814" s="3"/>
+      <c r="A1814" s="14"/>
+      <c r="B1814" s="111"/>
+      <c r="C1814" s="20"/>
+      <c r="D1814" s="14"/>
+      <c r="E1814" s="14"/>
+      <c r="F1814" s="14"/>
+      <c r="G1814" s="14"/>
+      <c r="H1814" s="21"/>
+      <c r="I1814" s="14"/>
+      <c r="J1814" s="14"/>
     </row>
     <row r="1815" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1815" s="3"/>
-      <c r="B1815" s="56"/>
-      <c r="C1815" s="3"/>
-      <c r="D1815" s="3"/>
-      <c r="E1815" s="3"/>
-      <c r="F1815" s="3"/>
-      <c r="G1815" s="3"/>
-      <c r="H1815" s="5"/>
-      <c r="I1815" s="3"/>
-      <c r="J1815" s="3"/>
-    </row>
-    <row r="1816" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1816" s="3"/>
-      <c r="B1816" s="56"/>
-      <c r="C1816" s="3"/>
-      <c r="D1816" s="3"/>
-      <c r="E1816" s="3"/>
-      <c r="F1816" s="3"/>
-      <c r="G1816" s="3"/>
-      <c r="H1816" s="5"/>
-      <c r="I1816" s="3"/>
-      <c r="J1816" s="3"/>
-    </row>
-    <row r="1817" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1817" s="3"/>
-      <c r="B1817" s="56"/>
-      <c r="C1817" s="3"/>
-      <c r="D1817" s="3"/>
-      <c r="E1817" s="3"/>
-      <c r="F1817" s="3"/>
-      <c r="G1817" s="3"/>
-      <c r="H1817" s="5"/>
-      <c r="I1817" s="3"/>
-      <c r="J1817" s="3"/>
-    </row>
-    <row r="1818" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1818" s="3"/>
-      <c r="B1818" s="56"/>
-      <c r="C1818" s="3"/>
-      <c r="D1818" s="3"/>
-      <c r="E1818" s="3"/>
-      <c r="F1818" s="3"/>
-      <c r="G1818" s="3"/>
-      <c r="H1818" s="5"/>
-      <c r="I1818" s="3"/>
-      <c r="J1818" s="3"/>
-    </row>
-    <row r="1819" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1819" s="3"/>
-      <c r="B1819" s="56"/>
-      <c r="C1819" s="3"/>
-      <c r="D1819" s="3"/>
-      <c r="E1819" s="3"/>
-      <c r="F1819" s="3"/>
-      <c r="G1819" s="3"/>
-      <c r="H1819" s="5"/>
-      <c r="I1819" s="3"/>
-      <c r="J1819" s="3"/>
-    </row>
-    <row r="1820" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1820" s="3"/>
-      <c r="B1820" s="56"/>
-      <c r="C1820" s="3"/>
-      <c r="D1820" s="3"/>
-      <c r="E1820" s="3"/>
-      <c r="F1820" s="3"/>
-      <c r="G1820" s="3"/>
-      <c r="H1820" s="5"/>
-      <c r="I1820" s="3"/>
-      <c r="J1820" s="3"/>
+      <c r="A1815" s="14"/>
     </row>
     <row r="1821" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1821" s="3"/>
-      <c r="B1821" s="56"/>
-      <c r="C1821" s="3"/>
-      <c r="D1821" s="3"/>
-      <c r="E1821" s="3"/>
-      <c r="F1821" s="3"/>
-      <c r="G1821" s="3"/>
-      <c r="H1821" s="5"/>
-      <c r="I1821" s="3"/>
-      <c r="J1821" s="3"/>
+      <c r="B1821" s="111"/>
+      <c r="C1821" s="20"/>
+      <c r="D1821" s="14"/>
+      <c r="E1821" s="14"/>
+      <c r="F1821" s="14"/>
+      <c r="G1821" s="14"/>
+      <c r="H1821" s="21"/>
+      <c r="I1821" s="14"/>
+      <c r="J1821" s="14"/>
     </row>
     <row r="1822" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1822" s="3"/>
-      <c r="B1822" s="56"/>
-      <c r="C1822" s="3"/>
-      <c r="D1822" s="3"/>
-      <c r="E1822" s="3"/>
-      <c r="F1822" s="3"/>
-      <c r="G1822" s="3"/>
-      <c r="H1822" s="5"/>
-      <c r="I1822" s="3"/>
-      <c r="J1822" s="3"/>
+      <c r="A1822" s="14"/>
+      <c r="B1822" s="111"/>
+      <c r="C1822" s="20"/>
+      <c r="D1822" s="14"/>
+      <c r="E1822" s="14"/>
+      <c r="F1822" s="14"/>
+      <c r="G1822" s="14"/>
+      <c r="H1822" s="21"/>
+      <c r="I1822" s="14"/>
+      <c r="J1822" s="14"/>
     </row>
     <row r="1823" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1823" s="3"/>
-      <c r="B1823" s="56"/>
-      <c r="C1823" s="3"/>
-      <c r="D1823" s="3"/>
-      <c r="E1823" s="3"/>
-      <c r="F1823" s="3"/>
-      <c r="G1823" s="3"/>
-      <c r="H1823" s="5"/>
-      <c r="I1823" s="3"/>
-      <c r="J1823" s="3"/>
+      <c r="A1823" s="14"/>
+      <c r="B1823" s="111"/>
+      <c r="C1823" s="14"/>
+      <c r="D1823" s="14"/>
+      <c r="E1823" s="14"/>
+      <c r="F1823" s="14"/>
+      <c r="G1823" s="14"/>
+      <c r="H1823" s="21"/>
+      <c r="I1823" s="14"/>
+      <c r="J1823" s="14"/>
     </row>
     <row r="1824" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1824" s="3"/>
-      <c r="B1824" s="56"/>
-      <c r="C1824" s="3"/>
-      <c r="D1824" s="3"/>
-      <c r="E1824" s="3"/>
-      <c r="F1824" s="3"/>
-      <c r="G1824" s="3"/>
-      <c r="H1824" s="5"/>
-      <c r="I1824" s="3"/>
-      <c r="J1824" s="3"/>
+      <c r="A1824" s="14"/>
+      <c r="B1824" s="111"/>
+      <c r="C1824" s="14"/>
+      <c r="D1824" s="14"/>
+      <c r="E1824" s="14"/>
+      <c r="F1824" s="14"/>
+      <c r="G1824" s="14"/>
+      <c r="H1824" s="21"/>
+      <c r="I1824" s="14"/>
+      <c r="J1824" s="14"/>
     </row>
     <row r="1825" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1825" s="3"/>
-      <c r="B1825" s="56"/>
-      <c r="C1825" s="3"/>
-      <c r="D1825" s="3"/>
-      <c r="E1825" s="3"/>
-      <c r="F1825" s="3"/>
-      <c r="G1825" s="3"/>
-      <c r="H1825" s="5"/>
-      <c r="I1825" s="3"/>
-      <c r="J1825" s="3"/>
-    </row>
-    <row r="1826" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1826" s="3"/>
-      <c r="B1826" s="56"/>
-      <c r="C1826" s="3"/>
-      <c r="D1826" s="3"/>
-      <c r="E1826" s="3"/>
-      <c r="F1826" s="3"/>
-      <c r="G1826" s="3"/>
-      <c r="H1826" s="5"/>
-      <c r="I1826" s="3"/>
-      <c r="J1826" s="3"/>
-    </row>
-    <row r="1827" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1827" s="3"/>
-      <c r="B1827" s="56"/>
-      <c r="C1827" s="3"/>
-      <c r="D1827" s="3"/>
-      <c r="E1827" s="3"/>
-      <c r="F1827" s="3"/>
-      <c r="G1827" s="3"/>
-      <c r="H1827" s="5"/>
-      <c r="I1827" s="3"/>
-      <c r="J1827" s="3"/>
-    </row>
-    <row r="1828" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1828" s="3"/>
-      <c r="B1828" s="56"/>
-      <c r="C1828" s="3"/>
-      <c r="D1828" s="3"/>
-      <c r="E1828" s="3"/>
-      <c r="F1828" s="3"/>
-      <c r="G1828" s="3"/>
-      <c r="H1828" s="5"/>
-      <c r="I1828" s="3"/>
-      <c r="J1828" s="3"/>
-    </row>
-    <row r="1829" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1829" s="3"/>
-      <c r="B1829" s="56"/>
-      <c r="C1829" s="3"/>
-      <c r="D1829" s="3"/>
-      <c r="E1829" s="3"/>
-      <c r="F1829" s="3"/>
-      <c r="G1829" s="3"/>
-      <c r="H1829" s="5"/>
-      <c r="I1829" s="3"/>
-      <c r="J1829" s="3"/>
-    </row>
-    <row r="1830" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1830" s="3"/>
-      <c r="B1830" s="56"/>
-      <c r="C1830" s="3"/>
-      <c r="D1830" s="3"/>
-      <c r="E1830" s="3"/>
-      <c r="F1830" s="3"/>
-      <c r="G1830" s="3"/>
-      <c r="H1830" s="5"/>
-      <c r="I1830" s="3"/>
-      <c r="J1830" s="3"/>
-    </row>
-    <row r="1831" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1831" s="3"/>
-      <c r="B1831" s="56"/>
-      <c r="C1831" s="3"/>
-      <c r="D1831" s="3"/>
-      <c r="E1831" s="3"/>
-      <c r="F1831" s="3"/>
-      <c r="G1831" s="3"/>
-      <c r="H1831" s="5"/>
-      <c r="I1831" s="3"/>
-      <c r="J1831" s="3"/>
-    </row>
-    <row r="1832" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1832" s="3"/>
-      <c r="B1832" s="56"/>
-      <c r="C1832" s="3"/>
-      <c r="D1832" s="3"/>
-      <c r="E1832" s="3"/>
-      <c r="F1832" s="3"/>
-      <c r="G1832" s="3"/>
-      <c r="H1832" s="5"/>
-      <c r="I1832" s="3"/>
-      <c r="J1832" s="3"/>
-    </row>
-    <row r="1833" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1833" s="3"/>
-      <c r="B1833" s="56"/>
-      <c r="C1833" s="3"/>
-      <c r="D1833" s="3"/>
-      <c r="E1833" s="3"/>
-      <c r="F1833" s="3"/>
-      <c r="G1833" s="3"/>
-      <c r="H1833" s="5"/>
-      <c r="I1833" s="3"/>
-      <c r="J1833" s="3"/>
-    </row>
-    <row r="1834" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1834" s="3"/>
-      <c r="B1834" s="56"/>
-      <c r="C1834" s="3"/>
-      <c r="D1834" s="3"/>
-      <c r="E1834" s="3"/>
-      <c r="F1834" s="3"/>
-      <c r="G1834" s="3"/>
-      <c r="H1834" s="5"/>
-      <c r="I1834" s="3"/>
-      <c r="J1834" s="3"/>
+      <c r="A1825" s="14"/>
     </row>
     <row r="1835" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1835" s="3"/>
-    </row>
-    <row r="1837" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1837" s="110"/>
-      <c r="C1837" s="20"/>
-      <c r="D1837" s="20"/>
-      <c r="E1837" s="20"/>
-      <c r="F1837" s="20"/>
-      <c r="G1837" s="20"/>
-      <c r="H1837" s="21"/>
-      <c r="I1837" s="20"/>
-      <c r="J1837" s="20"/>
-    </row>
-    <row r="1838" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1838" s="20"/>
-      <c r="B1838" s="110"/>
-      <c r="C1838" s="20"/>
-      <c r="D1838" s="20"/>
-      <c r="E1838" s="20"/>
-      <c r="F1838" s="20"/>
-      <c r="G1838" s="20"/>
-      <c r="H1838" s="21"/>
-      <c r="I1838" s="20"/>
-      <c r="J1838" s="20"/>
-    </row>
-    <row r="1839" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1839" s="20"/>
-      <c r="B1839" s="110"/>
-      <c r="C1839" s="20"/>
-      <c r="D1839" s="20"/>
-      <c r="E1839" s="20"/>
-      <c r="F1839" s="20"/>
-      <c r="G1839" s="20"/>
-      <c r="H1839" s="21"/>
-      <c r="I1839" s="20"/>
-      <c r="J1839" s="20"/>
-    </row>
-    <row r="1840" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1840" s="20"/>
-      <c r="B1840" s="110"/>
-      <c r="C1840" s="20"/>
-      <c r="D1840" s="20"/>
-      <c r="E1840" s="20"/>
-      <c r="F1840" s="20"/>
-      <c r="G1840" s="20"/>
-      <c r="H1840" s="21"/>
-      <c r="I1840" s="20"/>
-      <c r="J1840" s="20"/>
-    </row>
-    <row r="1841" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1841" s="20"/>
-      <c r="B1841" s="110"/>
-      <c r="C1841" s="20"/>
-      <c r="D1841" s="20"/>
-      <c r="E1841" s="20"/>
-      <c r="F1841" s="20"/>
-      <c r="G1841" s="20"/>
-      <c r="H1841" s="21"/>
-      <c r="I1841" s="20"/>
-      <c r="J1841" s="20"/>
-    </row>
-    <row r="1842" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1842" s="20"/>
-    </row>
-    <row r="1847" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1847" s="110"/>
-      <c r="C1847" s="20"/>
-      <c r="D1847" s="20"/>
-      <c r="E1847" s="20"/>
-      <c r="F1847" s="20"/>
-      <c r="G1847" s="20"/>
-      <c r="H1847" s="21"/>
-      <c r="I1847" s="20"/>
-      <c r="J1847" s="20"/>
-    </row>
-    <row r="1848" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1848" s="20"/>
-      <c r="B1848" s="110"/>
-      <c r="C1848" s="20"/>
-      <c r="D1848" s="20"/>
-      <c r="E1848" s="20"/>
-      <c r="F1848" s="20"/>
-      <c r="G1848" s="20"/>
-      <c r="H1848" s="21"/>
-      <c r="I1848" s="20"/>
-      <c r="J1848" s="20"/>
-    </row>
-    <row r="1849" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1849" s="20"/>
-      <c r="B1849" s="110"/>
-      <c r="C1849" s="20"/>
-      <c r="D1849" s="20"/>
-      <c r="E1849" s="20"/>
-      <c r="F1849" s="20"/>
-      <c r="G1849" s="20"/>
-      <c r="H1849" s="21"/>
-      <c r="I1849" s="20"/>
-      <c r="J1849" s="20"/>
-    </row>
-    <row r="1850" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1850" s="20"/>
-      <c r="B1850" s="110"/>
-      <c r="C1850" s="20"/>
-      <c r="D1850" s="20"/>
-      <c r="E1850" s="20"/>
-      <c r="F1850" s="20"/>
-      <c r="G1850" s="20"/>
-      <c r="H1850" s="21"/>
-      <c r="I1850" s="20"/>
-      <c r="J1850" s="20"/>
-    </row>
-    <row r="1851" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1851" s="20"/>
-    </row>
-    <row r="1856" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1856" s="110"/>
-      <c r="C1856" s="20"/>
-      <c r="D1856" s="20"/>
-      <c r="E1856" s="20"/>
-      <c r="F1856" s="20"/>
-      <c r="G1856" s="20"/>
-      <c r="H1856" s="21"/>
-      <c r="I1856" s="20"/>
-      <c r="J1856" s="20"/>
-    </row>
-    <row r="1857" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1857" s="20"/>
-      <c r="B1857" s="110"/>
-      <c r="C1857" s="20"/>
-      <c r="D1857" s="20"/>
-      <c r="E1857" s="20"/>
-      <c r="F1857" s="20"/>
-      <c r="G1857" s="20"/>
-      <c r="H1857" s="21"/>
-      <c r="I1857" s="20"/>
-      <c r="J1857" s="20"/>
-    </row>
-    <row r="1858" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1858" s="20"/>
-      <c r="B1858" s="110"/>
-      <c r="C1858" s="20"/>
-      <c r="D1858" s="20"/>
-      <c r="E1858" s="20"/>
-      <c r="F1858" s="20"/>
-      <c r="G1858" s="20"/>
-      <c r="H1858" s="21"/>
-      <c r="I1858" s="20"/>
-      <c r="J1858" s="20"/>
-    </row>
-    <row r="1859" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1859" s="20"/>
-      <c r="B1859" s="110"/>
-      <c r="C1859" s="20"/>
-      <c r="D1859" s="20"/>
-      <c r="E1859" s="20"/>
-      <c r="F1859" s="20"/>
-      <c r="G1859" s="20"/>
-      <c r="H1859" s="21"/>
-      <c r="I1859" s="20"/>
-      <c r="J1859" s="20"/>
-    </row>
-    <row r="1860" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1860" s="20"/>
-      <c r="B1860" s="110"/>
-      <c r="C1860" s="20"/>
-      <c r="D1860" s="20"/>
-      <c r="E1860" s="20"/>
-      <c r="F1860" s="20"/>
-      <c r="G1860" s="20"/>
-      <c r="H1860" s="21"/>
-      <c r="I1860" s="20"/>
-      <c r="J1860" s="20"/>
-    </row>
-    <row r="1861" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1861" s="20"/>
-      <c r="B1861" s="110"/>
-      <c r="C1861" s="20"/>
-      <c r="D1861" s="20"/>
-      <c r="E1861" s="20"/>
-      <c r="F1861" s="20"/>
-      <c r="G1861" s="20"/>
-      <c r="H1861" s="21"/>
-      <c r="I1861" s="20"/>
-      <c r="J1861" s="20"/>
-    </row>
-    <row r="1862" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1862" s="20"/>
-      <c r="B1862" s="110"/>
-      <c r="C1862" s="20"/>
-      <c r="D1862" s="20"/>
-      <c r="E1862" s="20"/>
-      <c r="F1862" s="20"/>
-      <c r="G1862" s="20"/>
-      <c r="H1862" s="21"/>
-      <c r="I1862" s="20"/>
-      <c r="J1862" s="20"/>
-    </row>
-    <row r="1863" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1863" s="20"/>
-      <c r="B1863" s="110"/>
-      <c r="C1863" s="20"/>
-      <c r="D1863" s="20"/>
-      <c r="E1863" s="20"/>
-      <c r="F1863" s="20"/>
-      <c r="G1863" s="20"/>
-      <c r="H1863" s="21"/>
-      <c r="I1863" s="20"/>
-      <c r="J1863" s="20"/>
-    </row>
-    <row r="1864" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1864" s="20"/>
-      <c r="B1864" s="110"/>
-      <c r="C1864" s="20"/>
-      <c r="D1864" s="20"/>
-      <c r="E1864" s="20"/>
-      <c r="F1864" s="20"/>
-      <c r="G1864" s="20"/>
-      <c r="H1864" s="21"/>
-      <c r="I1864" s="20"/>
-      <c r="J1864" s="20"/>
-    </row>
-    <row r="1865" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1865" s="20"/>
-      <c r="B1865" s="110"/>
-      <c r="C1865" s="20"/>
-      <c r="D1865" s="20"/>
-      <c r="E1865" s="20"/>
-      <c r="F1865" s="20"/>
-      <c r="G1865" s="20"/>
-      <c r="H1865" s="21"/>
-      <c r="I1865" s="20"/>
-      <c r="J1865" s="20"/>
-    </row>
-    <row r="1866" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1866" s="20"/>
-    </row>
-    <row r="1869" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1869" s="56"/>
-      <c r="C1869" s="3"/>
-      <c r="D1869" s="3"/>
-      <c r="E1869" s="3"/>
-      <c r="F1869" s="3"/>
-      <c r="G1869" s="3"/>
-      <c r="H1869" s="5"/>
-      <c r="I1869" s="3"/>
-      <c r="J1869" s="3"/>
-    </row>
-    <row r="1870" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1870" s="3"/>
-      <c r="B1870" s="56"/>
-      <c r="C1870" s="3"/>
-      <c r="D1870" s="3"/>
-      <c r="E1870" s="3"/>
-      <c r="F1870" s="3"/>
-      <c r="G1870" s="3"/>
-      <c r="H1870" s="5"/>
-      <c r="I1870" s="3"/>
-      <c r="J1870" s="3"/>
-    </row>
-    <row r="1871" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1871" s="3"/>
-      <c r="B1871" s="56"/>
-      <c r="C1871" s="3"/>
-      <c r="D1871" s="3"/>
-      <c r="E1871" s="3"/>
-      <c r="F1871" s="3"/>
-      <c r="G1871" s="3"/>
-      <c r="H1871" s="5"/>
-      <c r="I1871" s="3"/>
-      <c r="J1871" s="3"/>
-    </row>
-    <row r="1872" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1872" s="3"/>
-      <c r="B1872" s="56"/>
-      <c r="C1872" s="3"/>
-      <c r="D1872" s="3"/>
-      <c r="E1872" s="3"/>
-      <c r="F1872" s="3"/>
-      <c r="G1872" s="3"/>
-      <c r="H1872" s="5"/>
-      <c r="I1872" s="3"/>
-      <c r="J1872" s="3"/>
-    </row>
-    <row r="1873" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1873" s="3"/>
-      <c r="B1873" s="53"/>
-      <c r="C1873" s="3"/>
-      <c r="D1873" s="8"/>
-      <c r="E1873" s="8"/>
-      <c r="F1873" s="8"/>
-      <c r="G1873" s="8"/>
-      <c r="H1873" s="5"/>
-      <c r="I1873" s="3"/>
-      <c r="J1873" s="3"/>
-    </row>
-    <row r="1874" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1874" s="3"/>
-      <c r="B1874" s="53"/>
-      <c r="C1874" s="3"/>
-      <c r="D1874" s="8"/>
-      <c r="E1874" s="8"/>
-      <c r="F1874" s="8"/>
-      <c r="G1874" s="8"/>
-      <c r="H1874" s="5"/>
-      <c r="I1874" s="3"/>
-      <c r="J1874" s="3"/>
-    </row>
-    <row r="1875" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1875" s="3"/>
-      <c r="B1875" s="53"/>
-      <c r="C1875" s="3"/>
-      <c r="D1875" s="8"/>
-      <c r="E1875" s="8"/>
-      <c r="F1875" s="8"/>
-      <c r="G1875" s="8"/>
-      <c r="H1875" s="5"/>
-      <c r="I1875" s="3"/>
-      <c r="J1875" s="3"/>
-    </row>
-    <row r="1876" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1876" s="3"/>
-      <c r="B1876" s="53"/>
-      <c r="C1876" s="3"/>
-      <c r="D1876" s="8"/>
-      <c r="E1876" s="8"/>
-      <c r="F1876" s="8"/>
-      <c r="G1876" s="8"/>
-      <c r="H1876" s="5"/>
-      <c r="I1876" s="3"/>
-      <c r="J1876" s="3"/>
-    </row>
-    <row r="1877" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1877" s="3"/>
-      <c r="B1877" s="53"/>
-      <c r="C1877" s="3"/>
-      <c r="D1877" s="8"/>
-      <c r="E1877" s="8"/>
-      <c r="F1877" s="8"/>
-      <c r="G1877" s="8"/>
-      <c r="H1877" s="5"/>
-      <c r="I1877" s="3"/>
-      <c r="J1877" s="3"/>
-    </row>
-    <row r="1878" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1878" s="3"/>
-      <c r="B1878" s="53"/>
-      <c r="C1878" s="3"/>
-      <c r="D1878" s="3"/>
-      <c r="E1878" s="3"/>
-      <c r="F1878" s="3"/>
-      <c r="G1878" s="6"/>
-      <c r="H1878" s="5"/>
-      <c r="I1878" s="3"/>
-      <c r="J1878" s="3"/>
-    </row>
-    <row r="1879" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1879" s="3"/>
-      <c r="B1879" s="53"/>
-      <c r="C1879" s="3"/>
-      <c r="D1879" s="3"/>
-      <c r="E1879" s="3"/>
-      <c r="F1879" s="3"/>
-      <c r="G1879" s="6"/>
-      <c r="H1879" s="5"/>
-      <c r="I1879" s="3"/>
-      <c r="J1879" s="3"/>
-    </row>
-    <row r="1880" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1880" s="3"/>
-      <c r="B1880" s="53"/>
-      <c r="C1880" s="3"/>
-      <c r="D1880" s="3"/>
-      <c r="E1880" s="3"/>
-      <c r="F1880" s="3"/>
-      <c r="G1880" s="6"/>
-      <c r="H1880" s="5"/>
-      <c r="I1880" s="3"/>
-      <c r="J1880" s="3"/>
-    </row>
-    <row r="1881" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1881" s="3"/>
-      <c r="B1881" s="53"/>
-      <c r="C1881" s="3"/>
-      <c r="D1881" s="8"/>
-      <c r="E1881" s="8"/>
-      <c r="F1881" s="8"/>
-      <c r="G1881" s="8"/>
-      <c r="H1881" s="5"/>
-      <c r="I1881" s="8"/>
-      <c r="J1881" s="8"/>
-    </row>
-    <row r="1882" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1882" s="3"/>
-      <c r="B1882" s="53"/>
-      <c r="C1882" s="3"/>
-      <c r="D1882" s="8"/>
-      <c r="E1882" s="8"/>
-      <c r="F1882" s="8"/>
-      <c r="G1882" s="8"/>
-      <c r="H1882" s="5"/>
-      <c r="I1882" s="8"/>
-      <c r="J1882" s="8"/>
-    </row>
-    <row r="1883" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1883" s="3"/>
-      <c r="B1883" s="53"/>
-      <c r="C1883" s="3"/>
-      <c r="D1883" s="8"/>
-      <c r="E1883" s="8"/>
-      <c r="F1883" s="8"/>
-      <c r="G1883" s="8"/>
-      <c r="H1883" s="5"/>
-      <c r="I1883" s="8"/>
-      <c r="J1883" s="8"/>
-    </row>
-    <row r="1884" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1884" s="3"/>
-      <c r="B1884" s="53"/>
-      <c r="C1884" s="3"/>
-      <c r="D1884" s="8"/>
-      <c r="E1884" s="8"/>
-      <c r="F1884" s="8"/>
-      <c r="G1884" s="8"/>
-      <c r="H1884" s="5"/>
-      <c r="I1884" s="8"/>
-      <c r="J1884" s="8"/>
-    </row>
-    <row r="1885" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1885" s="3"/>
-      <c r="B1885" s="53"/>
-      <c r="C1885" s="3"/>
-      <c r="D1885" s="8"/>
-      <c r="E1885" s="8"/>
-      <c r="F1885" s="8"/>
-      <c r="G1885" s="8"/>
-      <c r="H1885" s="5"/>
-      <c r="I1885" s="8"/>
-      <c r="J1885" s="8"/>
-    </row>
-    <row r="1886" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1886" s="3"/>
-      <c r="B1886" s="53"/>
-      <c r="C1886" s="3"/>
-      <c r="D1886" s="8"/>
-      <c r="E1886" s="8"/>
-      <c r="F1886" s="8"/>
-      <c r="G1886" s="8"/>
-      <c r="H1886" s="5"/>
-      <c r="I1886" s="8"/>
-      <c r="J1886" s="8"/>
-    </row>
-    <row r="1887" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1887" s="3"/>
-      <c r="B1887" s="56"/>
-      <c r="C1887" s="3"/>
-      <c r="D1887" s="3"/>
-      <c r="E1887" s="3"/>
-      <c r="F1887" s="3"/>
-      <c r="G1887" s="3"/>
-      <c r="H1887" s="5"/>
-      <c r="I1887" s="3"/>
-      <c r="J1887" s="3"/>
-    </row>
-    <row r="1888" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1888" s="3"/>
-      <c r="B1888" s="56"/>
-      <c r="C1888" s="3"/>
-      <c r="D1888" s="3"/>
-      <c r="E1888" s="3"/>
-      <c r="F1888" s="3"/>
-      <c r="G1888" s="3"/>
-      <c r="H1888" s="5"/>
-      <c r="I1888" s="3"/>
-      <c r="J1888" s="3"/>
-    </row>
-    <row r="1889" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1889" s="3"/>
-      <c r="B1889" s="56"/>
-      <c r="C1889" s="3"/>
-      <c r="D1889" s="3"/>
-      <c r="E1889" s="3"/>
-      <c r="F1889" s="3"/>
-      <c r="G1889" s="3"/>
-      <c r="H1889" s="5"/>
-      <c r="I1889" s="3"/>
-      <c r="J1889" s="3"/>
-    </row>
-    <row r="1890" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1890" s="3"/>
-      <c r="B1890" s="56"/>
-      <c r="C1890" s="3"/>
-      <c r="D1890" s="3"/>
-      <c r="E1890" s="3"/>
-      <c r="F1890" s="3"/>
-      <c r="G1890" s="3"/>
-      <c r="H1890" s="5"/>
-      <c r="I1890" s="3"/>
-      <c r="J1890" s="3"/>
-    </row>
-    <row r="1891" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1891" s="3"/>
-      <c r="B1891" s="56"/>
-      <c r="C1891" s="3"/>
-      <c r="D1891" s="3"/>
-      <c r="E1891" s="3"/>
-      <c r="F1891" s="3"/>
-      <c r="G1891" s="3"/>
-      <c r="H1891" s="5"/>
-      <c r="I1891" s="3"/>
-      <c r="J1891" s="3"/>
-    </row>
-    <row r="1892" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1892" s="3"/>
-      <c r="B1892" s="56"/>
-      <c r="C1892" s="3"/>
-      <c r="D1892" s="3"/>
-      <c r="E1892" s="3"/>
-      <c r="F1892" s="3"/>
-      <c r="G1892" s="3"/>
-      <c r="H1892" s="5"/>
-      <c r="I1892" s="3"/>
-      <c r="J1892" s="3"/>
-    </row>
-    <row r="1893" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1893" s="3"/>
-      <c r="B1893" s="56"/>
-      <c r="C1893" s="3"/>
-      <c r="D1893" s="3"/>
-      <c r="E1893" s="3"/>
-      <c r="F1893" s="3"/>
-      <c r="G1893" s="3"/>
-      <c r="H1893" s="5"/>
-      <c r="I1893" s="3"/>
-      <c r="J1893" s="3"/>
-    </row>
-    <row r="1894" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1894" s="3"/>
-      <c r="B1894" s="56"/>
-      <c r="C1894" s="3"/>
-      <c r="D1894" s="3"/>
-      <c r="E1894" s="3"/>
-      <c r="F1894" s="3"/>
-      <c r="G1894" s="3"/>
-      <c r="H1894" s="5"/>
-      <c r="I1894" s="3"/>
-      <c r="J1894" s="3"/>
-    </row>
-    <row r="1895" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1895" s="3"/>
-      <c r="B1895" s="56"/>
-      <c r="C1895" s="3"/>
-      <c r="D1895" s="3"/>
-      <c r="E1895" s="3"/>
-      <c r="G1895" s="3"/>
-      <c r="H1895" s="5"/>
-      <c r="I1895" s="3"/>
-      <c r="J1895" s="3"/>
-    </row>
-    <row r="1896" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1896" s="3"/>
-      <c r="B1896" s="53"/>
-      <c r="C1896" s="3"/>
-      <c r="D1896" s="8"/>
-      <c r="E1896" s="8"/>
-      <c r="F1896" s="37"/>
-      <c r="G1896" s="8"/>
-      <c r="H1896" s="5"/>
-      <c r="I1896" s="8"/>
-      <c r="J1896" s="8"/>
-    </row>
-    <row r="1897" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1897" s="3"/>
-      <c r="B1897" s="53"/>
-      <c r="C1897" s="3"/>
-      <c r="D1897" s="8"/>
-      <c r="E1897" s="8"/>
-      <c r="F1897" s="37"/>
-      <c r="G1897" s="8"/>
-      <c r="H1897" s="5"/>
-      <c r="I1897" s="8"/>
-      <c r="J1897" s="8"/>
-    </row>
-    <row r="1898" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1898" s="3"/>
-      <c r="B1898" s="53"/>
-      <c r="C1898" s="3"/>
-      <c r="D1898" s="8"/>
-      <c r="E1898" s="8"/>
-      <c r="F1898" s="8"/>
-      <c r="G1898" s="8"/>
-      <c r="H1898" s="5"/>
-      <c r="I1898" s="8"/>
-      <c r="J1898" s="8"/>
-    </row>
-    <row r="1899" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1899" s="3"/>
-      <c r="B1899" s="53"/>
-      <c r="C1899" s="3"/>
-      <c r="D1899" s="8"/>
-      <c r="E1899" s="8"/>
-      <c r="F1899" s="8"/>
-      <c r="G1899" s="8"/>
-      <c r="H1899" s="5"/>
-      <c r="I1899" s="8"/>
-      <c r="J1899" s="8"/>
-    </row>
-    <row r="1900" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1900" s="8"/>
-      <c r="B1900" s="56"/>
-      <c r="C1900" s="3"/>
-      <c r="D1900" s="3"/>
-      <c r="E1900" s="3"/>
-      <c r="F1900" s="3"/>
-      <c r="G1900" s="3"/>
-      <c r="H1900" s="5"/>
-      <c r="I1900" s="3"/>
-      <c r="J1900" s="3"/>
-    </row>
-    <row r="1901" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1901" s="3"/>
-      <c r="B1901" s="56"/>
-      <c r="C1901" s="3"/>
-      <c r="D1901" s="3"/>
-      <c r="E1901" s="3"/>
-      <c r="F1901" s="3"/>
-      <c r="G1901" s="3"/>
-      <c r="H1901" s="5"/>
-      <c r="I1901" s="3"/>
-      <c r="J1901" s="3"/>
-    </row>
-    <row r="1902" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1902" s="3"/>
-      <c r="B1902" s="56"/>
-      <c r="C1902" s="3"/>
-      <c r="D1902" s="3"/>
-      <c r="E1902" s="3"/>
-      <c r="F1902" s="3"/>
-      <c r="G1902" s="3"/>
-      <c r="H1902" s="5"/>
-      <c r="I1902" s="3"/>
-      <c r="J1902" s="3"/>
-    </row>
-    <row r="1903" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1903" s="3"/>
-      <c r="B1903" s="56"/>
-      <c r="C1903" s="3"/>
-      <c r="D1903" s="3"/>
-      <c r="E1903" s="3"/>
-      <c r="F1903" s="3"/>
-      <c r="G1903" s="3"/>
-      <c r="H1903" s="5"/>
-      <c r="I1903" s="3"/>
-      <c r="J1903" s="3"/>
-    </row>
-    <row r="1904" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1904" s="3"/>
-      <c r="E1904" s="33"/>
-    </row>
-    <row r="1905" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E1905" s="33"/>
-    </row>
-    <row r="1907" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1907" s="111"/>
-      <c r="C1907" s="20"/>
-      <c r="D1907" s="14"/>
-      <c r="E1907" s="14"/>
-      <c r="F1907" s="14"/>
-      <c r="G1907" s="14"/>
-      <c r="H1907" s="21"/>
-      <c r="I1907" s="14"/>
-      <c r="J1907" s="14"/>
-    </row>
-    <row r="1908" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1908" s="14"/>
-      <c r="B1908" s="111"/>
-      <c r="C1908" s="20"/>
-      <c r="D1908" s="14"/>
-      <c r="E1908" s="14"/>
-      <c r="F1908" s="14"/>
-      <c r="G1908" s="14"/>
-      <c r="H1908" s="21"/>
-      <c r="I1908" s="14"/>
-      <c r="J1908" s="14"/>
-    </row>
-    <row r="1909" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1909" s="14"/>
-      <c r="B1909" s="111"/>
-      <c r="C1909" s="20"/>
-      <c r="D1909" s="14"/>
-      <c r="E1909" s="14"/>
-      <c r="F1909" s="14"/>
-      <c r="G1909" s="14"/>
-      <c r="H1909" s="21"/>
-      <c r="I1909" s="14"/>
-      <c r="J1909" s="14"/>
-    </row>
-    <row r="1910" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1910" s="14"/>
-      <c r="B1910" s="111"/>
-      <c r="C1910" s="20"/>
-      <c r="D1910" s="14"/>
-      <c r="E1910" s="14"/>
-      <c r="F1910" s="14"/>
-      <c r="G1910" s="14"/>
-      <c r="H1910" s="21"/>
-      <c r="I1910" s="14"/>
-      <c r="J1910" s="14"/>
-    </row>
-    <row r="1911" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1911" s="14"/>
-      <c r="B1911" s="111"/>
-      <c r="C1911" s="20"/>
-      <c r="D1911" s="14"/>
-      <c r="E1911" s="14"/>
-      <c r="F1911" s="18"/>
-      <c r="G1911" s="14"/>
-      <c r="H1911" s="21"/>
-      <c r="I1911" s="14"/>
-      <c r="J1911" s="14"/>
-    </row>
-    <row r="1912" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1912" s="14"/>
-      <c r="B1912" s="111"/>
-      <c r="C1912" s="20"/>
-      <c r="D1912" s="14"/>
-      <c r="E1912" s="14"/>
-      <c r="F1912" s="36"/>
-      <c r="G1912" s="14"/>
-      <c r="H1912" s="21"/>
-      <c r="I1912" s="14"/>
-      <c r="J1912" s="14"/>
-    </row>
-    <row r="1913" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1913" s="14"/>
-      <c r="B1913" s="111"/>
-      <c r="C1913" s="20"/>
-      <c r="D1913" s="14"/>
-      <c r="E1913" s="14"/>
-      <c r="F1913" s="36"/>
-      <c r="G1913" s="14"/>
-      <c r="H1913" s="21"/>
-      <c r="I1913" s="14"/>
-      <c r="J1913" s="14"/>
-    </row>
-    <row r="1914" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1914" s="14"/>
-      <c r="B1914" s="111"/>
-      <c r="C1914" s="20"/>
-      <c r="D1914" s="14"/>
-      <c r="E1914" s="14"/>
-      <c r="F1914" s="14"/>
-      <c r="G1914" s="14"/>
-      <c r="H1914" s="21"/>
-      <c r="I1914" s="14"/>
-      <c r="J1914" s="14"/>
-    </row>
-    <row r="1915" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1915" s="14"/>
-    </row>
-    <row r="1921" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1921" s="111"/>
-      <c r="C1921" s="20"/>
-      <c r="D1921" s="14"/>
-      <c r="E1921" s="14"/>
-      <c r="F1921" s="14"/>
-      <c r="G1921" s="14"/>
-      <c r="H1921" s="21"/>
-      <c r="I1921" s="14"/>
-      <c r="J1921" s="14"/>
-    </row>
-    <row r="1922" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1922" s="14"/>
-      <c r="B1922" s="111"/>
-      <c r="C1922" s="20"/>
-      <c r="D1922" s="14"/>
-      <c r="E1922" s="14"/>
-      <c r="F1922" s="14"/>
-      <c r="G1922" s="14"/>
-      <c r="H1922" s="21"/>
-      <c r="I1922" s="14"/>
-      <c r="J1922" s="14"/>
-    </row>
-    <row r="1923" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1923" s="14"/>
-      <c r="B1923" s="111"/>
-      <c r="C1923" s="14"/>
-      <c r="D1923" s="14"/>
-      <c r="E1923" s="14"/>
-      <c r="F1923" s="14"/>
-      <c r="G1923" s="14"/>
-      <c r="H1923" s="21"/>
-      <c r="I1923" s="14"/>
-      <c r="J1923" s="14"/>
-    </row>
-    <row r="1924" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1924" s="14"/>
-      <c r="B1924" s="111"/>
-      <c r="C1924" s="14"/>
-      <c r="D1924" s="14"/>
-      <c r="E1924" s="14"/>
-      <c r="F1924" s="14"/>
-      <c r="G1924" s="14"/>
-      <c r="H1924" s="21"/>
-      <c r="I1924" s="14"/>
-      <c r="J1924" s="14"/>
-    </row>
-    <row r="1925" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1925" s="14"/>
-    </row>
-    <row r="1935" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1935" s="111"/>
-      <c r="C1935" s="20"/>
-      <c r="D1935" s="14"/>
-      <c r="E1935" s="14"/>
-      <c r="F1935" s="14"/>
-      <c r="G1935" s="14"/>
-      <c r="H1935" s="21"/>
-      <c r="I1935" s="14"/>
-      <c r="J1935" s="14"/>
-    </row>
-    <row r="1936" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1936" s="14"/>
-    </row>
-    <row r="1972" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1972" s="34"/>
-    </row>
-    <row r="1998" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1998" s="34"/>
-    </row>
-    <row r="2165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2165" s="111"/>
-      <c r="C2165" s="14"/>
-      <c r="D2165" s="14"/>
-      <c r="E2165" s="14"/>
-      <c r="F2165" s="14"/>
-      <c r="G2165" s="14"/>
-      <c r="H2165" s="21"/>
-      <c r="I2165" s="20"/>
-      <c r="J2165" s="20"/>
-    </row>
-    <row r="2166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2166" s="20"/>
-    </row>
-    <row r="2173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2173" s="111"/>
-      <c r="C2173" s="14"/>
-      <c r="D2173" s="14"/>
-      <c r="E2173" s="14"/>
-      <c r="F2173" s="14"/>
-      <c r="G2173" s="14"/>
-      <c r="H2173" s="21"/>
-      <c r="I2173" s="20"/>
-      <c r="J2173" s="20"/>
-    </row>
-    <row r="2174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2174" s="20"/>
-    </row>
-    <row r="2184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2184" s="111"/>
-      <c r="C2184" s="14"/>
-      <c r="D2184" s="14"/>
-      <c r="E2184" s="14"/>
-      <c r="F2184" s="14"/>
-      <c r="G2184" s="14"/>
-      <c r="H2184" s="21"/>
-      <c r="I2184" s="20"/>
-      <c r="J2184" s="20"/>
-    </row>
-    <row r="2185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2185" s="20"/>
-      <c r="B2185" s="111"/>
-      <c r="C2185" s="14"/>
-      <c r="D2185" s="14"/>
-      <c r="E2185" s="14"/>
-      <c r="F2185" s="14"/>
-      <c r="G2185" s="14"/>
-      <c r="H2185" s="21"/>
-      <c r="I2185" s="20"/>
-      <c r="J2185" s="20"/>
-    </row>
-    <row r="2186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2186" s="20"/>
-      <c r="B2186" s="111"/>
-      <c r="C2186" s="14"/>
-      <c r="D2186" s="14"/>
-      <c r="E2186" s="14"/>
-      <c r="F2186" s="14"/>
-      <c r="G2186" s="14"/>
-      <c r="H2186" s="21"/>
-      <c r="I2186" s="20"/>
-      <c r="J2186" s="20"/>
-    </row>
-    <row r="2187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2187" s="20"/>
-    </row>
-    <row r="2188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2188" s="111"/>
-      <c r="C2188" s="14"/>
-      <c r="D2188" s="14"/>
-      <c r="E2188" s="14"/>
-      <c r="F2188" s="14"/>
-      <c r="G2188" s="14"/>
-      <c r="H2188" s="21"/>
-      <c r="I2188" s="20"/>
-      <c r="J2188" s="20"/>
-    </row>
-    <row r="2189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2189" s="20"/>
-      <c r="B2189" s="111"/>
-      <c r="C2189" s="20"/>
-      <c r="D2189" s="14"/>
-      <c r="E2189" s="14"/>
-      <c r="F2189" s="14"/>
-      <c r="G2189" s="14"/>
-      <c r="H2189" s="21"/>
-      <c r="I2189" s="20"/>
-      <c r="J2189" s="20"/>
-    </row>
-    <row r="2190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2190" s="20"/>
-      <c r="B2190" s="111"/>
-      <c r="C2190" s="20"/>
-      <c r="D2190" s="14"/>
-      <c r="E2190" s="14"/>
-      <c r="F2190" s="14"/>
-      <c r="G2190" s="14"/>
-      <c r="H2190" s="21"/>
-      <c r="I2190" s="20"/>
-      <c r="J2190" s="20"/>
-    </row>
-    <row r="2191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2191" s="20"/>
-      <c r="B2191" s="111"/>
-      <c r="C2191" s="20"/>
-      <c r="D2191" s="14"/>
-      <c r="E2191" s="14"/>
-      <c r="F2191" s="14"/>
-      <c r="G2191" s="14"/>
-      <c r="H2191" s="21"/>
-      <c r="I2191" s="20"/>
-      <c r="J2191" s="20"/>
-    </row>
-    <row r="2192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2192" s="20"/>
-    </row>
-    <row r="2194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2194" s="111"/>
-      <c r="C2194" s="20"/>
-      <c r="D2194" s="20"/>
-      <c r="E2194" s="20"/>
-      <c r="F2194" s="20"/>
-      <c r="G2194" s="22"/>
-      <c r="H2194" s="21"/>
-      <c r="I2194" s="20"/>
-      <c r="J2194" s="20"/>
-    </row>
-    <row r="2195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2195" s="20"/>
-      <c r="B2195" s="111"/>
-      <c r="C2195" s="20"/>
-      <c r="D2195" s="14"/>
-      <c r="E2195" s="14"/>
-      <c r="F2195" s="14"/>
-      <c r="G2195" s="14"/>
-      <c r="H2195" s="21"/>
-      <c r="I2195" s="20"/>
-      <c r="J2195" s="20"/>
-    </row>
-    <row r="2196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2196" s="20"/>
-      <c r="B2196" s="111"/>
-      <c r="C2196" s="20"/>
-      <c r="D2196" s="20"/>
-      <c r="E2196" s="20"/>
-      <c r="F2196" s="20"/>
-      <c r="G2196" s="22"/>
-      <c r="H2196" s="21"/>
-      <c r="I2196" s="20"/>
-      <c r="J2196" s="20"/>
-    </row>
-    <row r="2197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2197" s="20"/>
-    </row>
-    <row r="2254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2254" s="112"/>
-    </row>
-    <row r="2255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2255" s="112"/>
-    </row>
-    <row r="2256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2256" s="112"/>
-    </row>
-    <row r="2257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2257" s="112"/>
-    </row>
-    <row r="2258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2258" s="112"/>
-    </row>
-    <row r="2263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2263" s="113"/>
-    </row>
-    <row r="2264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2264" s="113"/>
-    </row>
-    <row r="2265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2265" s="113"/>
-    </row>
-    <row r="2273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2273" s="113"/>
-    </row>
-    <row r="2274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2274" s="113"/>
-    </row>
-    <row r="2275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2275" s="113"/>
-    </row>
-    <row r="2280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2280" s="113"/>
-    </row>
-    <row r="2281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2281" s="113"/>
-    </row>
-    <row r="2282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2282" s="113"/>
-    </row>
-    <row r="2283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2283" s="113"/>
-    </row>
-    <row r="2286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2286" s="113"/>
-    </row>
-    <row r="2287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2287" s="113"/>
-    </row>
-    <row r="2457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2457" s="113"/>
-    </row>
-    <row r="2469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2469" s="113"/>
-    </row>
-    <row r="2470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2470" s="113"/>
-    </row>
-    <row r="2824" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2824" s="56"/>
-    </row>
-    <row r="2825" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2825" s="56"/>
-    </row>
-    <row r="2826" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2826" s="56"/>
-    </row>
-    <row r="2827" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2827" s="56"/>
-    </row>
-    <row r="2828" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2828" s="56"/>
-    </row>
-    <row r="3170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3170" s="53"/>
-      <c r="C3170" s="51"/>
-      <c r="D3170" s="51"/>
-      <c r="E3170" s="51"/>
-      <c r="F3170" s="51"/>
-      <c r="G3170" s="51"/>
-      <c r="H3170" s="52"/>
-      <c r="I3170" s="51"/>
-      <c r="J3170" s="53"/>
-    </row>
-    <row r="3171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3171" s="51"/>
-      <c r="B3171" s="53"/>
-      <c r="C3171" s="51"/>
-      <c r="D3171" s="51"/>
-      <c r="E3171" s="51"/>
-      <c r="F3171" s="51"/>
-      <c r="G3171" s="51"/>
-      <c r="H3171" s="52"/>
-      <c r="I3171" s="51"/>
-      <c r="J3171" s="53"/>
-    </row>
-    <row r="3172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3172" s="51"/>
-      <c r="B3172" s="53"/>
-      <c r="C3172" s="51"/>
-      <c r="D3172" s="51"/>
-      <c r="E3172" s="51"/>
-      <c r="F3172" s="51"/>
-      <c r="G3172" s="51"/>
-      <c r="H3172" s="52"/>
-      <c r="I3172" s="51"/>
-      <c r="J3172" s="53"/>
-    </row>
-    <row r="3173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3173" s="51"/>
-      <c r="B3173" s="53"/>
-      <c r="C3173" s="51"/>
-      <c r="D3173" s="51"/>
-      <c r="E3173" s="51"/>
-      <c r="F3173" s="51"/>
-      <c r="G3173" s="51"/>
-      <c r="H3173" s="52"/>
-      <c r="I3173" s="51"/>
-      <c r="J3173" s="53"/>
-    </row>
-    <row r="3174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3174" s="51"/>
-      <c r="B3174" s="53"/>
-      <c r="C3174" s="51"/>
-      <c r="D3174" s="51"/>
-      <c r="E3174" s="51"/>
-      <c r="F3174" s="55"/>
-      <c r="G3174" s="51"/>
-      <c r="H3174" s="52"/>
-      <c r="I3174" s="51"/>
-      <c r="J3174" s="53"/>
-    </row>
-    <row r="3175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3175" s="51"/>
-      <c r="B3175" s="53"/>
-      <c r="C3175" s="51"/>
-      <c r="D3175" s="51"/>
-      <c r="E3175" s="51"/>
-      <c r="F3175" s="55"/>
-      <c r="G3175" s="51"/>
-      <c r="H3175" s="52"/>
-      <c r="I3175" s="51"/>
-      <c r="J3175" s="53"/>
-    </row>
-    <row r="3176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3176" s="51"/>
-      <c r="B3176" s="53"/>
-      <c r="C3176" s="51"/>
-      <c r="D3176" s="51"/>
-      <c r="E3176" s="51"/>
-      <c r="F3176" s="51"/>
-      <c r="G3176" s="51"/>
-      <c r="H3176" s="52"/>
-      <c r="I3176" s="51"/>
-      <c r="J3176" s="53"/>
-    </row>
-    <row r="3177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3177" s="51"/>
-      <c r="B3177" s="53"/>
-      <c r="C3177" s="51"/>
-      <c r="D3177" s="51"/>
-      <c r="E3177" s="51"/>
-      <c r="F3177" s="51"/>
-      <c r="G3177" s="51"/>
-      <c r="H3177" s="52"/>
-      <c r="I3177" s="51"/>
-      <c r="J3177" s="53"/>
-    </row>
-    <row r="3178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3178" s="51"/>
-      <c r="B3178" s="53"/>
-      <c r="C3178" s="51"/>
-      <c r="D3178" s="51"/>
-      <c r="E3178" s="51"/>
-      <c r="F3178" s="54"/>
-      <c r="G3178" s="51"/>
-      <c r="H3178" s="52"/>
-      <c r="I3178" s="51"/>
-      <c r="J3178" s="53"/>
-    </row>
-    <row r="3179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3179" s="51"/>
-      <c r="B3179" s="53"/>
-      <c r="C3179" s="51"/>
-      <c r="D3179" s="51"/>
-      <c r="E3179" s="51"/>
-      <c r="F3179" s="54"/>
-      <c r="G3179" s="51"/>
-      <c r="H3179" s="52"/>
-      <c r="I3179" s="51"/>
-      <c r="J3179" s="53"/>
-    </row>
-    <row r="3180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3180" s="51"/>
-      <c r="B3180" s="53"/>
-      <c r="C3180" s="51"/>
-      <c r="D3180" s="51"/>
-      <c r="E3180" s="51"/>
-      <c r="F3180" s="54"/>
-      <c r="G3180" s="51"/>
-      <c r="H3180" s="52"/>
-      <c r="I3180" s="51"/>
-      <c r="J3180" s="53"/>
-    </row>
-    <row r="3181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3181" s="51"/>
-      <c r="B3181" s="53"/>
-      <c r="C3181" s="51"/>
-      <c r="D3181" s="51"/>
-      <c r="E3181" s="51"/>
-      <c r="F3181" s="54"/>
-      <c r="G3181" s="51"/>
-      <c r="H3181" s="52"/>
-      <c r="I3181" s="51"/>
-      <c r="J3181" s="53"/>
-    </row>
-    <row r="3182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3182" s="51"/>
-      <c r="B3182" s="53"/>
-      <c r="C3182" s="51"/>
-      <c r="D3182" s="51"/>
-      <c r="E3182" s="51"/>
-      <c r="F3182" s="54"/>
-      <c r="G3182" s="51"/>
-      <c r="H3182" s="52"/>
-      <c r="I3182" s="51"/>
-      <c r="J3182" s="53"/>
-    </row>
-    <row r="3183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3183" s="51"/>
-      <c r="B3183" s="53"/>
-      <c r="C3183" s="51"/>
-      <c r="D3183" s="51"/>
-      <c r="E3183" s="51"/>
-      <c r="F3183" s="54"/>
-      <c r="G3183" s="51"/>
-      <c r="H3183" s="52"/>
-      <c r="I3183" s="51"/>
-      <c r="J3183" s="53"/>
-    </row>
-    <row r="3184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3184" s="51"/>
-      <c r="B3184" s="53"/>
-      <c r="C3184" s="51"/>
-      <c r="D3184" s="51"/>
-      <c r="E3184" s="51"/>
-      <c r="F3184" s="54"/>
-      <c r="G3184" s="51"/>
-      <c r="H3184" s="52"/>
-      <c r="I3184" s="51"/>
-      <c r="J3184" s="53"/>
-    </row>
-    <row r="3185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3185" s="51"/>
-      <c r="B3185" s="53"/>
-      <c r="C3185" s="51"/>
-      <c r="D3185" s="51"/>
-      <c r="E3185" s="51"/>
-      <c r="F3185" s="51"/>
-      <c r="G3185" s="51"/>
-      <c r="H3185" s="52"/>
-      <c r="I3185" s="51"/>
-      <c r="J3185" s="53"/>
-    </row>
-    <row r="3186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3186" s="51"/>
-    </row>
-    <row r="3413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3413" s="49"/>
-      <c r="D3413" s="49"/>
-      <c r="E3413" s="49"/>
-      <c r="F3413" s="49"/>
-    </row>
-    <row r="3414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3414" s="49"/>
+      <c r="B1835" s="111"/>
+      <c r="C1835" s="20"/>
+      <c r="D1835" s="14"/>
+      <c r="E1835" s="14"/>
+      <c r="F1835" s="14"/>
+      <c r="G1835" s="14"/>
+      <c r="H1835" s="21"/>
+      <c r="I1835" s="14"/>
+      <c r="J1835" s="14"/>
+    </row>
+    <row r="1836" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1836" s="14"/>
+    </row>
+    <row r="1872" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1872" s="34"/>
+    </row>
+    <row r="1898" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1898" s="34"/>
+    </row>
+    <row r="2065" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2065" s="111"/>
+      <c r="C2065" s="14"/>
+      <c r="D2065" s="14"/>
+      <c r="E2065" s="14"/>
+      <c r="F2065" s="14"/>
+      <c r="G2065" s="14"/>
+      <c r="H2065" s="21"/>
+      <c r="I2065" s="20"/>
+      <c r="J2065" s="20"/>
+    </row>
+    <row r="2066" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2066" s="20"/>
+    </row>
+    <row r="2073" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2073" s="111"/>
+      <c r="C2073" s="14"/>
+      <c r="D2073" s="14"/>
+      <c r="E2073" s="14"/>
+      <c r="F2073" s="14"/>
+      <c r="G2073" s="14"/>
+      <c r="H2073" s="21"/>
+      <c r="I2073" s="20"/>
+      <c r="J2073" s="20"/>
+    </row>
+    <row r="2074" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2074" s="20"/>
+    </row>
+    <row r="2084" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2084" s="111"/>
+      <c r="C2084" s="14"/>
+      <c r="D2084" s="14"/>
+      <c r="E2084" s="14"/>
+      <c r="F2084" s="14"/>
+      <c r="G2084" s="14"/>
+      <c r="H2084" s="21"/>
+      <c r="I2084" s="20"/>
+      <c r="J2084" s="20"/>
+    </row>
+    <row r="2085" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2085" s="20"/>
+      <c r="B2085" s="111"/>
+      <c r="C2085" s="14"/>
+      <c r="D2085" s="14"/>
+      <c r="E2085" s="14"/>
+      <c r="F2085" s="14"/>
+      <c r="G2085" s="14"/>
+      <c r="H2085" s="21"/>
+      <c r="I2085" s="20"/>
+      <c r="J2085" s="20"/>
+    </row>
+    <row r="2086" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2086" s="20"/>
+      <c r="B2086" s="111"/>
+      <c r="C2086" s="14"/>
+      <c r="D2086" s="14"/>
+      <c r="E2086" s="14"/>
+      <c r="F2086" s="14"/>
+      <c r="G2086" s="14"/>
+      <c r="H2086" s="21"/>
+      <c r="I2086" s="20"/>
+      <c r="J2086" s="20"/>
+    </row>
+    <row r="2087" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2087" s="20"/>
+    </row>
+    <row r="2088" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2088" s="111"/>
+      <c r="C2088" s="14"/>
+      <c r="D2088" s="14"/>
+      <c r="E2088" s="14"/>
+      <c r="F2088" s="14"/>
+      <c r="G2088" s="14"/>
+      <c r="H2088" s="21"/>
+      <c r="I2088" s="20"/>
+      <c r="J2088" s="20"/>
+    </row>
+    <row r="2089" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2089" s="20"/>
+      <c r="B2089" s="111"/>
+      <c r="C2089" s="20"/>
+      <c r="D2089" s="14"/>
+      <c r="E2089" s="14"/>
+      <c r="F2089" s="14"/>
+      <c r="G2089" s="14"/>
+      <c r="H2089" s="21"/>
+      <c r="I2089" s="20"/>
+      <c r="J2089" s="20"/>
+    </row>
+    <row r="2090" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2090" s="20"/>
+      <c r="B2090" s="111"/>
+      <c r="C2090" s="20"/>
+      <c r="D2090" s="14"/>
+      <c r="E2090" s="14"/>
+      <c r="F2090" s="14"/>
+      <c r="G2090" s="14"/>
+      <c r="H2090" s="21"/>
+      <c r="I2090" s="20"/>
+      <c r="J2090" s="20"/>
+    </row>
+    <row r="2091" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2091" s="20"/>
+      <c r="B2091" s="111"/>
+      <c r="C2091" s="20"/>
+      <c r="D2091" s="14"/>
+      <c r="E2091" s="14"/>
+      <c r="F2091" s="14"/>
+      <c r="G2091" s="14"/>
+      <c r="H2091" s="21"/>
+      <c r="I2091" s="20"/>
+      <c r="J2091" s="20"/>
+    </row>
+    <row r="2092" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2092" s="20"/>
+    </row>
+    <row r="2094" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2094" s="111"/>
+      <c r="C2094" s="20"/>
+      <c r="D2094" s="20"/>
+      <c r="E2094" s="20"/>
+      <c r="F2094" s="20"/>
+      <c r="G2094" s="22"/>
+      <c r="H2094" s="21"/>
+      <c r="I2094" s="20"/>
+      <c r="J2094" s="20"/>
+    </row>
+    <row r="2095" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2095" s="20"/>
+      <c r="B2095" s="111"/>
+      <c r="C2095" s="20"/>
+      <c r="D2095" s="14"/>
+      <c r="E2095" s="14"/>
+      <c r="F2095" s="14"/>
+      <c r="G2095" s="14"/>
+      <c r="H2095" s="21"/>
+      <c r="I2095" s="20"/>
+      <c r="J2095" s="20"/>
+    </row>
+    <row r="2096" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2096" s="20"/>
+      <c r="B2096" s="111"/>
+      <c r="C2096" s="20"/>
+      <c r="D2096" s="20"/>
+      <c r="E2096" s="20"/>
+      <c r="F2096" s="20"/>
+      <c r="G2096" s="22"/>
+      <c r="H2096" s="21"/>
+      <c r="I2096" s="20"/>
+      <c r="J2096" s="20"/>
+    </row>
+    <row r="2097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2097" s="20"/>
+    </row>
+    <row r="2154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2154" s="112"/>
+    </row>
+    <row r="2155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2155" s="112"/>
+    </row>
+    <row r="2156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2156" s="112"/>
+    </row>
+    <row r="2157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2157" s="112"/>
+    </row>
+    <row r="2158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2158" s="112"/>
+    </row>
+    <row r="2163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2163" s="113"/>
+    </row>
+    <row r="2164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2164" s="113"/>
+    </row>
+    <row r="2165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2165" s="113"/>
+    </row>
+    <row r="2173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2173" s="113"/>
+    </row>
+    <row r="2174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2174" s="113"/>
+    </row>
+    <row r="2175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2175" s="113"/>
+    </row>
+    <row r="2180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2180" s="113"/>
+    </row>
+    <row r="2181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2181" s="113"/>
+    </row>
+    <row r="2182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2182" s="113"/>
+    </row>
+    <row r="2183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2183" s="113"/>
+    </row>
+    <row r="2186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2186" s="113"/>
+    </row>
+    <row r="2187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2187" s="113"/>
+    </row>
+    <row r="2357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2357" s="113"/>
+    </row>
+    <row r="2369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2369" s="113"/>
+    </row>
+    <row r="2370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2370" s="113"/>
+    </row>
+    <row r="2724" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2724" s="56"/>
+    </row>
+    <row r="2725" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2725" s="56"/>
+    </row>
+    <row r="2726" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2726" s="56"/>
+    </row>
+    <row r="2727" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2727" s="56"/>
+    </row>
+    <row r="2728" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2728" s="56"/>
+    </row>
+    <row r="3070" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3070" s="53"/>
+      <c r="C3070" s="51"/>
+      <c r="D3070" s="51"/>
+      <c r="E3070" s="51"/>
+      <c r="F3070" s="51"/>
+      <c r="G3070" s="51"/>
+      <c r="H3070" s="52"/>
+      <c r="I3070" s="51"/>
+      <c r="J3070" s="53"/>
+    </row>
+    <row r="3071" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3071" s="51"/>
+      <c r="B3071" s="53"/>
+      <c r="C3071" s="51"/>
+      <c r="D3071" s="51"/>
+      <c r="E3071" s="51"/>
+      <c r="F3071" s="51"/>
+      <c r="G3071" s="51"/>
+      <c r="H3071" s="52"/>
+      <c r="I3071" s="51"/>
+      <c r="J3071" s="53"/>
+    </row>
+    <row r="3072" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3072" s="51"/>
+      <c r="B3072" s="53"/>
+      <c r="C3072" s="51"/>
+      <c r="D3072" s="51"/>
+      <c r="E3072" s="51"/>
+      <c r="F3072" s="51"/>
+      <c r="G3072" s="51"/>
+      <c r="H3072" s="52"/>
+      <c r="I3072" s="51"/>
+      <c r="J3072" s="53"/>
+    </row>
+    <row r="3073" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3073" s="51"/>
+      <c r="B3073" s="53"/>
+      <c r="C3073" s="51"/>
+      <c r="D3073" s="51"/>
+      <c r="E3073" s="51"/>
+      <c r="F3073" s="51"/>
+      <c r="G3073" s="51"/>
+      <c r="H3073" s="52"/>
+      <c r="I3073" s="51"/>
+      <c r="J3073" s="53"/>
+    </row>
+    <row r="3074" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3074" s="51"/>
+      <c r="B3074" s="53"/>
+      <c r="C3074" s="51"/>
+      <c r="D3074" s="51"/>
+      <c r="E3074" s="51"/>
+      <c r="F3074" s="55"/>
+      <c r="G3074" s="51"/>
+      <c r="H3074" s="52"/>
+      <c r="I3074" s="51"/>
+      <c r="J3074" s="53"/>
+    </row>
+    <row r="3075" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3075" s="51"/>
+      <c r="B3075" s="53"/>
+      <c r="C3075" s="51"/>
+      <c r="D3075" s="51"/>
+      <c r="E3075" s="51"/>
+      <c r="F3075" s="55"/>
+      <c r="G3075" s="51"/>
+      <c r="H3075" s="52"/>
+      <c r="I3075" s="51"/>
+      <c r="J3075" s="53"/>
+    </row>
+    <row r="3076" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3076" s="51"/>
+      <c r="B3076" s="53"/>
+      <c r="C3076" s="51"/>
+      <c r="D3076" s="51"/>
+      <c r="E3076" s="51"/>
+      <c r="F3076" s="51"/>
+      <c r="G3076" s="51"/>
+      <c r="H3076" s="52"/>
+      <c r="I3076" s="51"/>
+      <c r="J3076" s="53"/>
+    </row>
+    <row r="3077" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3077" s="51"/>
+      <c r="B3077" s="53"/>
+      <c r="C3077" s="51"/>
+      <c r="D3077" s="51"/>
+      <c r="E3077" s="51"/>
+      <c r="F3077" s="51"/>
+      <c r="G3077" s="51"/>
+      <c r="H3077" s="52"/>
+      <c r="I3077" s="51"/>
+      <c r="J3077" s="53"/>
+    </row>
+    <row r="3078" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3078" s="51"/>
+      <c r="B3078" s="53"/>
+      <c r="C3078" s="51"/>
+      <c r="D3078" s="51"/>
+      <c r="E3078" s="51"/>
+      <c r="F3078" s="54"/>
+      <c r="G3078" s="51"/>
+      <c r="H3078" s="52"/>
+      <c r="I3078" s="51"/>
+      <c r="J3078" s="53"/>
+    </row>
+    <row r="3079" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3079" s="51"/>
+      <c r="B3079" s="53"/>
+      <c r="C3079" s="51"/>
+      <c r="D3079" s="51"/>
+      <c r="E3079" s="51"/>
+      <c r="F3079" s="54"/>
+      <c r="G3079" s="51"/>
+      <c r="H3079" s="52"/>
+      <c r="I3079" s="51"/>
+      <c r="J3079" s="53"/>
+    </row>
+    <row r="3080" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3080" s="51"/>
+      <c r="B3080" s="53"/>
+      <c r="C3080" s="51"/>
+      <c r="D3080" s="51"/>
+      <c r="E3080" s="51"/>
+      <c r="F3080" s="54"/>
+      <c r="G3080" s="51"/>
+      <c r="H3080" s="52"/>
+      <c r="I3080" s="51"/>
+      <c r="J3080" s="53"/>
+    </row>
+    <row r="3081" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3081" s="51"/>
+      <c r="B3081" s="53"/>
+      <c r="C3081" s="51"/>
+      <c r="D3081" s="51"/>
+      <c r="E3081" s="51"/>
+      <c r="F3081" s="54"/>
+      <c r="G3081" s="51"/>
+      <c r="H3081" s="52"/>
+      <c r="I3081" s="51"/>
+      <c r="J3081" s="53"/>
+    </row>
+    <row r="3082" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3082" s="51"/>
+      <c r="B3082" s="53"/>
+      <c r="C3082" s="51"/>
+      <c r="D3082" s="51"/>
+      <c r="E3082" s="51"/>
+      <c r="F3082" s="54"/>
+      <c r="G3082" s="51"/>
+      <c r="H3082" s="52"/>
+      <c r="I3082" s="51"/>
+      <c r="J3082" s="53"/>
+    </row>
+    <row r="3083" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3083" s="51"/>
+      <c r="B3083" s="53"/>
+      <c r="C3083" s="51"/>
+      <c r="D3083" s="51"/>
+      <c r="E3083" s="51"/>
+      <c r="F3083" s="54"/>
+      <c r="G3083" s="51"/>
+      <c r="H3083" s="52"/>
+      <c r="I3083" s="51"/>
+      <c r="J3083" s="53"/>
+    </row>
+    <row r="3084" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3084" s="51"/>
+      <c r="B3084" s="53"/>
+      <c r="C3084" s="51"/>
+      <c r="D3084" s="51"/>
+      <c r="E3084" s="51"/>
+      <c r="F3084" s="54"/>
+      <c r="G3084" s="51"/>
+      <c r="H3084" s="52"/>
+      <c r="I3084" s="51"/>
+      <c r="J3084" s="53"/>
+    </row>
+    <row r="3085" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3085" s="51"/>
+      <c r="B3085" s="53"/>
+      <c r="C3085" s="51"/>
+      <c r="D3085" s="51"/>
+      <c r="E3085" s="51"/>
+      <c r="F3085" s="51"/>
+      <c r="G3085" s="51"/>
+      <c r="H3085" s="52"/>
+      <c r="I3085" s="51"/>
+      <c r="J3085" s="53"/>
+    </row>
+    <row r="3086" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3086" s="51"/>
+    </row>
+    <row r="3313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3313" s="49"/>
+      <c r="D3313" s="49"/>
+      <c r="E3313" s="49"/>
+      <c r="F3313" s="49"/>
+    </row>
+    <row r="3314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3314" s="49"/>
+    </row>
+    <row r="3769" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3769" s="56"/>
+      <c r="C3769" s="51"/>
+      <c r="D3769" s="51"/>
+      <c r="E3769" s="51"/>
+      <c r="F3769" s="51"/>
+      <c r="G3769" s="51"/>
+      <c r="H3769" s="52"/>
+      <c r="I3769" s="51"/>
+      <c r="J3769" s="51"/>
+    </row>
+    <row r="3770" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3770" s="51"/>
+      <c r="B3770" s="56"/>
+      <c r="C3770" s="51"/>
+      <c r="D3770" s="51"/>
+      <c r="E3770" s="51"/>
+      <c r="F3770" s="51"/>
+      <c r="G3770" s="51"/>
+      <c r="H3770" s="52"/>
+      <c r="I3770" s="51"/>
+      <c r="J3770" s="51"/>
+    </row>
+    <row r="3771" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3771" s="51"/>
+      <c r="B3771" s="56"/>
+      <c r="C3771" s="51"/>
+      <c r="D3771" s="51"/>
+      <c r="E3771" s="51"/>
+      <c r="F3771" s="51"/>
+      <c r="G3771" s="51"/>
+      <c r="H3771" s="52"/>
+      <c r="I3771" s="51"/>
+      <c r="J3771" s="51"/>
+    </row>
+    <row r="3772" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3772" s="51"/>
+      <c r="B3772" s="56"/>
+      <c r="C3772" s="51"/>
+      <c r="D3772" s="51"/>
+      <c r="E3772" s="51"/>
+      <c r="F3772" s="51"/>
+      <c r="G3772" s="51"/>
+      <c r="H3772" s="52"/>
+      <c r="I3772" s="51"/>
+      <c r="J3772" s="51"/>
+    </row>
+    <row r="3773" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3773" s="51"/>
+      <c r="B3773" s="56"/>
+      <c r="C3773" s="51"/>
+      <c r="D3773" s="51"/>
+      <c r="E3773" s="51"/>
+      <c r="F3773" s="51"/>
+      <c r="G3773" s="51"/>
+      <c r="H3773" s="52"/>
+      <c r="I3773" s="51"/>
+      <c r="J3773" s="51"/>
+    </row>
+    <row r="3774" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3774" s="51"/>
+      <c r="B3774" s="56"/>
+      <c r="C3774" s="51"/>
+      <c r="D3774" s="51"/>
+      <c r="E3774" s="51"/>
+      <c r="F3774" s="51"/>
+      <c r="G3774" s="51"/>
+      <c r="H3774" s="52"/>
+      <c r="I3774" s="51"/>
+      <c r="J3774" s="51"/>
+    </row>
+    <row r="3775" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3775" s="51"/>
+      <c r="B3775" s="56"/>
+      <c r="C3775" s="51"/>
+      <c r="D3775" s="51"/>
+      <c r="E3775" s="51"/>
+      <c r="F3775" s="51"/>
+      <c r="G3775" s="51"/>
+      <c r="H3775" s="52"/>
+      <c r="I3775" s="51"/>
+      <c r="J3775" s="51"/>
+    </row>
+    <row r="3776" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3776" s="51"/>
+      <c r="B3776" s="56"/>
+      <c r="C3776" s="51"/>
+      <c r="D3776" s="51"/>
+      <c r="E3776" s="51"/>
+      <c r="F3776" s="51"/>
+      <c r="G3776" s="51"/>
+      <c r="H3776" s="52"/>
+      <c r="I3776" s="51"/>
+      <c r="J3776" s="51"/>
+    </row>
+    <row r="3777" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3777" s="51"/>
+      <c r="B3777" s="56"/>
+      <c r="C3777" s="51"/>
+      <c r="D3777" s="51"/>
+      <c r="E3777" s="51"/>
+      <c r="F3777" s="51"/>
+      <c r="G3777" s="51"/>
+      <c r="H3777" s="52"/>
+      <c r="I3777" s="51"/>
+      <c r="J3777" s="51"/>
+    </row>
+    <row r="3778" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3778" s="51"/>
+      <c r="B3778" s="56"/>
+      <c r="C3778" s="51"/>
+      <c r="D3778" s="51"/>
+      <c r="E3778" s="51"/>
+      <c r="F3778" s="51"/>
+      <c r="G3778" s="51"/>
+      <c r="H3778" s="52"/>
+      <c r="I3778" s="51"/>
+      <c r="J3778" s="51"/>
+    </row>
+    <row r="3779" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3779" s="51"/>
+      <c r="B3779" s="56"/>
+      <c r="C3779" s="51"/>
+      <c r="D3779" s="51"/>
+      <c r="E3779" s="51"/>
+      <c r="F3779" s="51"/>
+      <c r="G3779" s="51"/>
+      <c r="H3779" s="52"/>
+      <c r="I3779" s="51"/>
+      <c r="J3779" s="51"/>
+    </row>
+    <row r="3780" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3780" s="51"/>
+      <c r="B3780" s="56"/>
+      <c r="C3780" s="51"/>
+      <c r="D3780" s="51"/>
+      <c r="E3780" s="51"/>
+      <c r="F3780" s="51"/>
+      <c r="G3780" s="51"/>
+      <c r="H3780" s="52"/>
+      <c r="I3780" s="51"/>
+      <c r="J3780" s="51"/>
+    </row>
+    <row r="3781" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3781" s="51"/>
+      <c r="B3781" s="56"/>
+      <c r="C3781" s="51"/>
+      <c r="D3781" s="51"/>
+      <c r="E3781" s="51"/>
+      <c r="F3781" s="51"/>
+      <c r="G3781" s="51"/>
+      <c r="H3781" s="52"/>
+      <c r="I3781" s="51"/>
+      <c r="J3781" s="51"/>
+    </row>
+    <row r="3782" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3782" s="51"/>
+      <c r="B3782" s="56"/>
+      <c r="C3782" s="51"/>
+      <c r="D3782" s="51"/>
+      <c r="E3782" s="51"/>
+      <c r="F3782" s="51"/>
+      <c r="G3782" s="51"/>
+      <c r="H3782" s="52"/>
+      <c r="I3782" s="51"/>
+      <c r="J3782" s="51"/>
+    </row>
+    <row r="3783" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3783" s="51"/>
+      <c r="B3783" s="56"/>
+      <c r="C3783" s="51"/>
+      <c r="D3783" s="51"/>
+      <c r="E3783" s="51"/>
+      <c r="F3783" s="51"/>
+      <c r="G3783" s="51"/>
+      <c r="H3783" s="52"/>
+      <c r="I3783" s="51"/>
+      <c r="J3783" s="51"/>
+    </row>
+    <row r="3784" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3784" s="51"/>
+      <c r="B3784" s="56"/>
+      <c r="C3784" s="51"/>
+      <c r="D3784" s="51"/>
+      <c r="E3784" s="51"/>
+      <c r="F3784" s="51"/>
+      <c r="G3784" s="51"/>
+      <c r="H3784" s="52"/>
+      <c r="I3784" s="51"/>
+      <c r="J3784" s="51"/>
+    </row>
+    <row r="3785" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3785" s="51"/>
+      <c r="B3785" s="56"/>
+      <c r="C3785" s="51"/>
+      <c r="D3785" s="51"/>
+      <c r="E3785" s="51"/>
+      <c r="F3785" s="51"/>
+      <c r="G3785" s="51"/>
+      <c r="H3785" s="52"/>
+      <c r="I3785" s="51"/>
+      <c r="J3785" s="51"/>
+    </row>
+    <row r="3786" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3786" s="51"/>
+      <c r="B3786" s="56"/>
+      <c r="C3786" s="51"/>
+      <c r="D3786" s="51"/>
+      <c r="E3786" s="51"/>
+      <c r="F3786" s="51"/>
+      <c r="G3786" s="51"/>
+      <c r="H3786" s="52"/>
+      <c r="I3786" s="51"/>
+      <c r="J3786" s="51"/>
+    </row>
+    <row r="3787" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3787" s="51"/>
+      <c r="B3787" s="56"/>
+      <c r="C3787" s="51"/>
+      <c r="D3787" s="51"/>
+      <c r="E3787" s="51"/>
+      <c r="F3787" s="51"/>
+      <c r="G3787" s="51"/>
+      <c r="H3787" s="52"/>
+      <c r="I3787" s="51"/>
+      <c r="J3787" s="51"/>
+    </row>
+    <row r="3788" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3788" s="51"/>
+      <c r="B3788" s="56"/>
+      <c r="C3788" s="51"/>
+      <c r="D3788" s="51"/>
+      <c r="E3788" s="51"/>
+      <c r="F3788" s="51"/>
+      <c r="G3788" s="51"/>
+      <c r="H3788" s="52"/>
+      <c r="I3788" s="51"/>
+      <c r="J3788" s="51"/>
+    </row>
+    <row r="3789" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3789" s="51"/>
+      <c r="B3789" s="56"/>
+      <c r="C3789" s="51"/>
+      <c r="D3789" s="51"/>
+      <c r="E3789" s="51"/>
+      <c r="F3789" s="51"/>
+      <c r="G3789" s="51"/>
+      <c r="H3789" s="52"/>
+      <c r="I3789" s="51"/>
+      <c r="J3789" s="51"/>
+    </row>
+    <row r="3790" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3790" s="51"/>
+      <c r="B3790" s="56"/>
+      <c r="C3790" s="51"/>
+      <c r="D3790" s="51"/>
+      <c r="E3790" s="51"/>
+      <c r="F3790" s="51"/>
+      <c r="G3790" s="51"/>
+      <c r="H3790" s="52"/>
+      <c r="I3790" s="51"/>
+      <c r="J3790" s="51"/>
+    </row>
+    <row r="3791" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3791" s="51"/>
+      <c r="B3791" s="56"/>
+      <c r="C3791" s="51"/>
+      <c r="D3791" s="51"/>
+      <c r="E3791" s="51"/>
+      <c r="F3791" s="51"/>
+      <c r="G3791" s="51"/>
+      <c r="H3791" s="52"/>
+      <c r="I3791" s="51"/>
+      <c r="J3791" s="51"/>
+    </row>
+    <row r="3792" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3792" s="51"/>
+      <c r="B3792" s="56"/>
+      <c r="C3792" s="51"/>
+      <c r="D3792" s="51"/>
+      <c r="E3792" s="51"/>
+      <c r="F3792" s="51"/>
+      <c r="G3792" s="51"/>
+      <c r="H3792" s="52"/>
+      <c r="I3792" s="51"/>
+      <c r="J3792" s="51"/>
+    </row>
+    <row r="3793" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3793" s="51"/>
+      <c r="B3793" s="56"/>
+      <c r="C3793" s="51"/>
+      <c r="D3793" s="51"/>
+      <c r="E3793" s="51"/>
+      <c r="F3793" s="51"/>
+      <c r="G3793" s="51"/>
+      <c r="H3793" s="52"/>
+      <c r="I3793" s="51"/>
+      <c r="J3793" s="51"/>
+    </row>
+    <row r="3794" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3794" s="51"/>
+      <c r="B3794" s="56"/>
+      <c r="C3794" s="51"/>
+      <c r="D3794" s="51"/>
+      <c r="E3794" s="51"/>
+      <c r="F3794" s="51"/>
+      <c r="G3794" s="51"/>
+      <c r="H3794" s="52"/>
+      <c r="I3794" s="51"/>
+      <c r="J3794" s="51"/>
+    </row>
+    <row r="3795" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3795" s="51"/>
+      <c r="B3795" s="56"/>
+      <c r="C3795" s="51"/>
+      <c r="D3795" s="51"/>
+      <c r="E3795" s="51"/>
+      <c r="F3795" s="51"/>
+      <c r="G3795" s="51"/>
+      <c r="H3795" s="52"/>
+      <c r="I3795" s="51"/>
+      <c r="J3795" s="51"/>
+    </row>
+    <row r="3796" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3796" s="51"/>
+      <c r="B3796" s="56"/>
+      <c r="C3796" s="51"/>
+      <c r="D3796" s="51"/>
+      <c r="E3796" s="51"/>
+      <c r="F3796" s="51"/>
+      <c r="G3796" s="51"/>
+      <c r="H3796" s="52"/>
+      <c r="I3796" s="51"/>
+      <c r="J3796" s="51"/>
+    </row>
+    <row r="3797" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3797" s="51"/>
+      <c r="B3797" s="56"/>
+      <c r="C3797" s="51"/>
+      <c r="D3797" s="51"/>
+      <c r="E3797" s="51"/>
+      <c r="F3797" s="51"/>
+      <c r="G3797" s="51"/>
+      <c r="H3797" s="52"/>
+      <c r="I3797" s="51"/>
+      <c r="J3797" s="51"/>
+    </row>
+    <row r="3798" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3798" s="51"/>
+      <c r="B3798" s="56"/>
+      <c r="C3798" s="51"/>
+      <c r="D3798" s="51"/>
+      <c r="E3798" s="51"/>
+      <c r="F3798" s="51"/>
+      <c r="G3798" s="51"/>
+      <c r="H3798" s="52"/>
+      <c r="I3798" s="51"/>
+      <c r="J3798" s="51"/>
+    </row>
+    <row r="3799" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3799" s="51"/>
+      <c r="B3799" s="56"/>
+      <c r="C3799" s="51"/>
+      <c r="D3799" s="51"/>
+      <c r="E3799" s="51"/>
+      <c r="F3799" s="51"/>
+      <c r="G3799" s="51"/>
+      <c r="H3799" s="52"/>
+      <c r="I3799" s="51"/>
+      <c r="J3799" s="51"/>
+    </row>
+    <row r="3800" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3800" s="51"/>
+      <c r="B3800" s="51"/>
+      <c r="C3800" s="51"/>
+      <c r="D3800" s="51"/>
+      <c r="E3800" s="51"/>
+      <c r="F3800" s="51"/>
+      <c r="G3800" s="51"/>
+      <c r="H3800" s="52"/>
+      <c r="I3800" s="51"/>
+      <c r="J3800" s="51"/>
+    </row>
+    <row r="3801" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3801" s="51"/>
+      <c r="B3801" s="56"/>
+      <c r="C3801" s="51"/>
+      <c r="D3801" s="51"/>
+      <c r="E3801" s="51"/>
+      <c r="F3801" s="51"/>
+      <c r="G3801" s="51"/>
+      <c r="H3801" s="52"/>
+      <c r="I3801" s="51"/>
+      <c r="J3801" s="51"/>
+    </row>
+    <row r="3802" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3802" s="51"/>
+      <c r="B3802" s="56"/>
+      <c r="C3802" s="51"/>
+      <c r="D3802" s="51"/>
+      <c r="E3802" s="51"/>
+      <c r="F3802" s="51"/>
+      <c r="G3802" s="51"/>
+      <c r="H3802" s="52"/>
+      <c r="I3802" s="51"/>
+      <c r="J3802" s="51"/>
+    </row>
+    <row r="3803" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3803" s="51"/>
+      <c r="B3803" s="56"/>
+      <c r="C3803" s="51"/>
+      <c r="D3803" s="51"/>
+      <c r="E3803" s="51"/>
+      <c r="F3803" s="51"/>
+      <c r="G3803" s="51"/>
+      <c r="H3803" s="52"/>
+      <c r="I3803" s="51"/>
+      <c r="J3803" s="51"/>
+    </row>
+    <row r="3804" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3804" s="51"/>
+      <c r="B3804" s="56"/>
+      <c r="C3804" s="51"/>
+      <c r="D3804" s="51"/>
+      <c r="E3804" s="51"/>
+      <c r="F3804" s="51"/>
+      <c r="G3804" s="51"/>
+      <c r="H3804" s="52"/>
+      <c r="I3804" s="51"/>
+      <c r="J3804" s="51"/>
+    </row>
+    <row r="3805" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3805" s="51"/>
+      <c r="B3805" s="56"/>
+      <c r="C3805" s="51"/>
+      <c r="D3805" s="51"/>
+      <c r="E3805" s="51"/>
+      <c r="F3805" s="51"/>
+      <c r="G3805" s="51"/>
+      <c r="H3805" s="52"/>
+      <c r="I3805" s="51"/>
+      <c r="J3805" s="51"/>
+    </row>
+    <row r="3806" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3806" s="51"/>
+      <c r="B3806" s="56"/>
+      <c r="C3806" s="51"/>
+      <c r="D3806" s="51"/>
+      <c r="E3806" s="51"/>
+      <c r="F3806" s="51"/>
+      <c r="G3806" s="51"/>
+      <c r="H3806" s="52"/>
+      <c r="I3806" s="51"/>
+      <c r="J3806" s="51"/>
+    </row>
+    <row r="3807" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3807" s="51"/>
+      <c r="B3807" s="56"/>
+      <c r="C3807" s="51"/>
+      <c r="D3807" s="51"/>
+      <c r="E3807" s="51"/>
+      <c r="F3807" s="51"/>
+      <c r="G3807" s="51"/>
+      <c r="H3807" s="52"/>
+      <c r="I3807" s="51"/>
+      <c r="J3807" s="51"/>
+    </row>
+    <row r="3808" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3808" s="51"/>
+      <c r="B3808" s="56"/>
+      <c r="C3808" s="51"/>
+      <c r="D3808" s="51"/>
+      <c r="E3808" s="51"/>
+      <c r="F3808" s="51"/>
+      <c r="G3808" s="51"/>
+      <c r="H3808" s="52"/>
+      <c r="I3808" s="51"/>
+      <c r="J3808" s="51"/>
+    </row>
+    <row r="3809" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3809" s="51"/>
+      <c r="B3809" s="56"/>
+      <c r="C3809" s="51"/>
+      <c r="D3809" s="51"/>
+      <c r="E3809" s="51"/>
+      <c r="F3809" s="51"/>
+      <c r="G3809" s="51"/>
+      <c r="H3809" s="52"/>
+      <c r="I3809" s="51"/>
+      <c r="J3809" s="51"/>
+    </row>
+    <row r="3810" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3810" s="51"/>
+      <c r="B3810" s="56"/>
+      <c r="C3810" s="51"/>
+      <c r="D3810" s="51"/>
+      <c r="E3810" s="51"/>
+      <c r="F3810" s="51"/>
+      <c r="G3810" s="51"/>
+      <c r="H3810" s="52"/>
+      <c r="I3810" s="51"/>
+      <c r="J3810" s="51"/>
+    </row>
+    <row r="3811" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3811" s="51"/>
+      <c r="B3811" s="56"/>
+      <c r="C3811" s="51"/>
+      <c r="D3811" s="51"/>
+      <c r="E3811" s="51"/>
+      <c r="F3811" s="51"/>
+      <c r="G3811" s="51"/>
+      <c r="H3811" s="52"/>
+      <c r="I3811" s="51"/>
+      <c r="J3811" s="51"/>
+    </row>
+    <row r="3812" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3812" s="51"/>
+      <c r="B3812" s="56"/>
+      <c r="C3812" s="51"/>
+      <c r="D3812" s="51"/>
+      <c r="E3812" s="51"/>
+      <c r="F3812" s="51"/>
+      <c r="G3812" s="51"/>
+      <c r="H3812" s="52"/>
+      <c r="I3812" s="51"/>
+      <c r="J3812" s="51"/>
+    </row>
+    <row r="3813" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3813" s="51"/>
+      <c r="B3813" s="56"/>
+      <c r="C3813" s="51"/>
+      <c r="D3813" s="51"/>
+      <c r="E3813" s="51"/>
+      <c r="F3813" s="51"/>
+      <c r="G3813" s="51"/>
+      <c r="H3813" s="52"/>
+      <c r="I3813" s="51"/>
+      <c r="J3813" s="51"/>
+    </row>
+    <row r="3814" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3814" s="51"/>
+      <c r="B3814" s="56"/>
+      <c r="C3814" s="51"/>
+      <c r="D3814" s="51"/>
+      <c r="E3814" s="51"/>
+      <c r="F3814" s="51"/>
+      <c r="G3814" s="51"/>
+      <c r="H3814" s="52"/>
+      <c r="I3814" s="51"/>
+      <c r="J3814" s="51"/>
+    </row>
+    <row r="3815" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3815" s="51"/>
+      <c r="B3815" s="56"/>
+      <c r="C3815" s="51"/>
+      <c r="D3815" s="51"/>
+      <c r="E3815" s="51"/>
+      <c r="F3815" s="51"/>
+      <c r="G3815" s="51"/>
+      <c r="H3815" s="52"/>
+      <c r="I3815" s="51"/>
+      <c r="J3815" s="51"/>
+    </row>
+    <row r="3816" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3816" s="51"/>
+      <c r="B3816" s="56"/>
+      <c r="C3816" s="51"/>
+      <c r="D3816" s="51"/>
+      <c r="E3816" s="51"/>
+      <c r="F3816" s="51"/>
+      <c r="G3816" s="51"/>
+      <c r="H3816" s="52"/>
+      <c r="I3816" s="51"/>
+      <c r="J3816" s="51"/>
+    </row>
+    <row r="3817" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3817" s="51"/>
+      <c r="B3817" s="56"/>
+      <c r="C3817" s="51"/>
+      <c r="D3817" s="51"/>
+      <c r="E3817" s="51"/>
+      <c r="F3817" s="51"/>
+      <c r="G3817" s="51"/>
+      <c r="H3817" s="52"/>
+      <c r="I3817" s="51"/>
+      <c r="J3817" s="51"/>
+    </row>
+    <row r="3818" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3818" s="51"/>
+      <c r="B3818" s="56"/>
+      <c r="C3818" s="51"/>
+      <c r="D3818" s="51"/>
+      <c r="E3818" s="51"/>
+      <c r="F3818" s="51"/>
+      <c r="G3818" s="51"/>
+      <c r="H3818" s="52"/>
+      <c r="I3818" s="51"/>
+      <c r="J3818" s="51"/>
+    </row>
+    <row r="3819" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3819" s="51"/>
+      <c r="B3819" s="56"/>
+      <c r="C3819" s="51"/>
+      <c r="D3819" s="51"/>
+      <c r="E3819" s="51"/>
+      <c r="F3819" s="51"/>
+      <c r="G3819" s="51"/>
+      <c r="H3819" s="52"/>
+      <c r="I3819" s="51"/>
+      <c r="J3819" s="51"/>
+    </row>
+    <row r="3820" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3820" s="51"/>
+      <c r="B3820" s="56"/>
+      <c r="C3820" s="51"/>
+      <c r="D3820" s="51"/>
+      <c r="E3820" s="51"/>
+      <c r="F3820" s="51"/>
+      <c r="G3820" s="51"/>
+      <c r="H3820" s="52"/>
+      <c r="I3820" s="51"/>
+      <c r="J3820" s="51"/>
+    </row>
+    <row r="3821" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3821" s="51"/>
+      <c r="B3821" s="56"/>
+      <c r="C3821" s="51"/>
+      <c r="D3821" s="51"/>
+      <c r="E3821" s="51"/>
+      <c r="F3821" s="51"/>
+      <c r="G3821" s="51"/>
+      <c r="H3821" s="52"/>
+      <c r="I3821" s="51"/>
+      <c r="J3821" s="51"/>
+    </row>
+    <row r="3822" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3822" s="51"/>
+      <c r="B3822" s="56"/>
+      <c r="C3822" s="51"/>
+      <c r="D3822" s="51"/>
+      <c r="E3822" s="51"/>
+      <c r="F3822" s="51"/>
+      <c r="G3822" s="51"/>
+      <c r="H3822" s="52"/>
+      <c r="I3822" s="51"/>
+      <c r="J3822" s="51"/>
+    </row>
+    <row r="3823" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3823" s="51"/>
+      <c r="B3823" s="56"/>
+      <c r="C3823" s="51"/>
+      <c r="D3823" s="51"/>
+      <c r="E3823" s="51"/>
+      <c r="F3823" s="51"/>
+      <c r="G3823" s="51"/>
+      <c r="H3823" s="52"/>
+      <c r="I3823" s="51"/>
+      <c r="J3823" s="51"/>
+    </row>
+    <row r="3824" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3824" s="51"/>
+      <c r="B3824" s="56"/>
+      <c r="C3824" s="51"/>
+      <c r="D3824" s="51"/>
+      <c r="E3824" s="51"/>
+      <c r="F3824" s="51"/>
+      <c r="G3824" s="51"/>
+      <c r="H3824" s="52"/>
+      <c r="I3824" s="51"/>
+      <c r="J3824" s="51"/>
+    </row>
+    <row r="3825" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3825" s="51"/>
+      <c r="B3825" s="56"/>
+      <c r="C3825" s="51"/>
+      <c r="D3825" s="51"/>
+      <c r="E3825" s="51"/>
+      <c r="F3825" s="51"/>
+      <c r="G3825" s="51"/>
+      <c r="H3825" s="52"/>
+      <c r="I3825" s="51"/>
+      <c r="J3825" s="51"/>
+    </row>
+    <row r="3826" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3826" s="51"/>
+      <c r="B3826" s="56"/>
+      <c r="C3826" s="51"/>
+      <c r="D3826" s="51"/>
+      <c r="E3826" s="51"/>
+      <c r="F3826" s="51"/>
+      <c r="G3826" s="51"/>
+      <c r="H3826" s="52"/>
+      <c r="I3826" s="51"/>
+      <c r="J3826" s="51"/>
+    </row>
+    <row r="3827" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3827" s="51"/>
+      <c r="B3827" s="56"/>
+      <c r="C3827" s="51"/>
+      <c r="D3827" s="51"/>
+      <c r="E3827" s="51"/>
+      <c r="F3827" s="51"/>
+      <c r="G3827" s="51"/>
+      <c r="H3827" s="52"/>
+      <c r="I3827" s="51"/>
+      <c r="J3827" s="51"/>
+    </row>
+    <row r="3828" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3828" s="51"/>
+      <c r="B3828" s="56"/>
+      <c r="C3828" s="51"/>
+      <c r="D3828" s="51"/>
+      <c r="E3828" s="51"/>
+      <c r="F3828" s="51"/>
+      <c r="G3828" s="51"/>
+      <c r="H3828" s="52"/>
+      <c r="I3828" s="51"/>
+      <c r="J3828" s="51"/>
+    </row>
+    <row r="3829" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3829" s="51"/>
+      <c r="B3829" s="56"/>
+      <c r="C3829" s="51"/>
+      <c r="D3829" s="51"/>
+      <c r="E3829" s="51"/>
+      <c r="F3829" s="51"/>
+      <c r="G3829" s="51"/>
+      <c r="H3829" s="52"/>
+      <c r="I3829" s="51"/>
+      <c r="J3829" s="51"/>
+    </row>
+    <row r="3830" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3830" s="51"/>
+      <c r="B3830" s="56"/>
+      <c r="C3830" s="51"/>
+      <c r="D3830" s="51"/>
+      <c r="E3830" s="51"/>
+      <c r="F3830" s="51"/>
+      <c r="G3830" s="51"/>
+      <c r="H3830" s="52"/>
+      <c r="I3830" s="51"/>
+      <c r="J3830" s="51"/>
+    </row>
+    <row r="3831" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3831" s="51"/>
+      <c r="B3831" s="56"/>
+      <c r="C3831" s="51"/>
+      <c r="D3831" s="51"/>
+      <c r="E3831" s="51"/>
+      <c r="F3831" s="51"/>
+      <c r="G3831" s="51"/>
+      <c r="H3831" s="52"/>
+      <c r="I3831" s="51"/>
+      <c r="J3831" s="51"/>
+    </row>
+    <row r="3832" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3832" s="51"/>
+      <c r="B3832" s="56"/>
+      <c r="C3832" s="51"/>
+      <c r="D3832" s="51"/>
+      <c r="E3832" s="51"/>
+      <c r="F3832" s="51"/>
+      <c r="G3832" s="51"/>
+      <c r="H3832" s="52"/>
+      <c r="I3832" s="51"/>
+      <c r="J3832" s="51"/>
+    </row>
+    <row r="3833" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3833" s="51"/>
+      <c r="B3833" s="56"/>
+      <c r="C3833" s="51"/>
+      <c r="D3833" s="51"/>
+      <c r="E3833" s="51"/>
+      <c r="F3833" s="51"/>
+      <c r="G3833" s="51"/>
+      <c r="H3833" s="52"/>
+      <c r="I3833" s="51"/>
+      <c r="J3833" s="51"/>
+    </row>
+    <row r="3834" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3834" s="51"/>
+      <c r="B3834" s="56"/>
+      <c r="C3834" s="51"/>
+      <c r="D3834" s="51"/>
+      <c r="E3834" s="51"/>
+      <c r="F3834" s="51"/>
+      <c r="G3834" s="51"/>
+      <c r="H3834" s="52"/>
+      <c r="I3834" s="51"/>
+      <c r="J3834" s="51"/>
+    </row>
+    <row r="3835" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3835" s="51"/>
+      <c r="B3835" s="56"/>
+      <c r="C3835" s="51"/>
+      <c r="D3835" s="51"/>
+      <c r="E3835" s="51"/>
+      <c r="F3835" s="51"/>
+      <c r="G3835" s="51"/>
+      <c r="H3835" s="52"/>
+      <c r="I3835" s="51"/>
+      <c r="J3835" s="51"/>
+    </row>
+    <row r="3836" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3836" s="51"/>
+      <c r="B3836" s="56"/>
+      <c r="C3836" s="51"/>
+      <c r="D3836" s="51"/>
+      <c r="E3836" s="51"/>
+      <c r="F3836" s="51"/>
+      <c r="G3836" s="51"/>
+      <c r="H3836" s="52"/>
+      <c r="I3836" s="51"/>
+      <c r="J3836" s="51"/>
+    </row>
+    <row r="3837" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3837" s="51"/>
+      <c r="B3837" s="56"/>
+      <c r="C3837" s="51"/>
+      <c r="D3837" s="51"/>
+      <c r="E3837" s="51"/>
+      <c r="F3837" s="51"/>
+      <c r="G3837" s="51"/>
+      <c r="H3837" s="52"/>
+      <c r="I3837" s="51"/>
+      <c r="J3837" s="51"/>
+    </row>
+    <row r="3838" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3838" s="51"/>
+      <c r="B3838" s="56"/>
+      <c r="C3838" s="51"/>
+      <c r="D3838" s="51"/>
+      <c r="E3838" s="51"/>
+      <c r="F3838" s="51"/>
+      <c r="G3838" s="51"/>
+      <c r="H3838" s="52"/>
+      <c r="I3838" s="51"/>
+      <c r="J3838" s="51"/>
+    </row>
+    <row r="3839" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3839" s="51"/>
+      <c r="B3839" s="56"/>
+      <c r="C3839" s="51"/>
+      <c r="D3839" s="51"/>
+      <c r="E3839" s="51"/>
+      <c r="F3839" s="51"/>
+      <c r="G3839" s="51"/>
+      <c r="H3839" s="52"/>
+      <c r="I3839" s="51"/>
+      <c r="J3839" s="51"/>
+    </row>
+    <row r="3840" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3840" s="51"/>
+      <c r="B3840" s="56"/>
+      <c r="C3840" s="51"/>
+      <c r="D3840" s="51"/>
+      <c r="E3840" s="51"/>
+      <c r="F3840" s="51"/>
+      <c r="G3840" s="51"/>
+      <c r="H3840" s="52"/>
+      <c r="I3840" s="51"/>
+      <c r="J3840" s="51"/>
+    </row>
+    <row r="3841" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3841" s="51"/>
+      <c r="B3841" s="56"/>
+      <c r="C3841" s="51"/>
+      <c r="D3841" s="51"/>
+      <c r="E3841" s="51"/>
+      <c r="F3841" s="51"/>
+      <c r="G3841" s="51"/>
+      <c r="H3841" s="52"/>
+      <c r="I3841" s="51"/>
+      <c r="J3841" s="51"/>
+    </row>
+    <row r="3842" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3842" s="51"/>
+      <c r="B3842" s="56"/>
+      <c r="C3842" s="51"/>
+      <c r="D3842" s="51"/>
+      <c r="E3842" s="51"/>
+      <c r="F3842" s="51"/>
+      <c r="G3842" s="51"/>
+      <c r="H3842" s="52"/>
+      <c r="I3842" s="51"/>
+      <c r="J3842" s="51"/>
+    </row>
+    <row r="3843" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3843" s="51"/>
+      <c r="B3843" s="56"/>
+      <c r="C3843" s="51"/>
+      <c r="D3843" s="51"/>
+      <c r="E3843" s="51"/>
+      <c r="F3843" s="51"/>
+      <c r="G3843" s="51"/>
+      <c r="H3843" s="52"/>
+      <c r="I3843" s="51"/>
+      <c r="J3843" s="51"/>
+    </row>
+    <row r="3844" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3844" s="51"/>
+      <c r="B3844" s="56"/>
+      <c r="C3844" s="51"/>
+      <c r="D3844" s="51"/>
+      <c r="E3844" s="51"/>
+      <c r="F3844" s="51"/>
+      <c r="G3844" s="51"/>
+      <c r="H3844" s="52"/>
+      <c r="I3844" s="51"/>
+      <c r="J3844" s="51"/>
+    </row>
+    <row r="3845" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3845" s="51"/>
+      <c r="B3845" s="56"/>
+      <c r="C3845" s="51"/>
+      <c r="D3845" s="51"/>
+      <c r="E3845" s="51"/>
+      <c r="F3845" s="51"/>
+      <c r="G3845" s="51"/>
+      <c r="H3845" s="52"/>
+      <c r="I3845" s="51"/>
+      <c r="J3845" s="51"/>
+    </row>
+    <row r="3846" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3846" s="51"/>
+      <c r="B3846" s="56"/>
+      <c r="C3846" s="51"/>
+      <c r="D3846" s="51"/>
+      <c r="E3846" s="51"/>
+      <c r="F3846" s="51"/>
+      <c r="G3846" s="51"/>
+      <c r="H3846" s="52"/>
+      <c r="I3846" s="51"/>
+      <c r="J3846" s="51"/>
+    </row>
+    <row r="3847" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3847" s="51"/>
+      <c r="B3847" s="56"/>
+      <c r="C3847" s="51"/>
+      <c r="D3847" s="51"/>
+      <c r="E3847" s="51"/>
+      <c r="F3847" s="51"/>
+      <c r="G3847" s="51"/>
+      <c r="H3847" s="52"/>
+      <c r="I3847" s="51"/>
+      <c r="J3847" s="51"/>
+    </row>
+    <row r="3848" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3848" s="51"/>
+      <c r="B3848" s="56"/>
+      <c r="C3848" s="51"/>
+      <c r="D3848" s="51"/>
+      <c r="E3848" s="51"/>
+      <c r="F3848" s="51"/>
+      <c r="G3848" s="51"/>
+      <c r="H3848" s="52"/>
+      <c r="I3848" s="51"/>
+      <c r="J3848" s="51"/>
+    </row>
+    <row r="3849" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3849" s="51"/>
+      <c r="B3849" s="56"/>
+      <c r="C3849" s="51"/>
+      <c r="D3849" s="51"/>
+      <c r="E3849" s="51"/>
+      <c r="F3849" s="51"/>
+      <c r="G3849" s="51"/>
+      <c r="H3849" s="52"/>
+      <c r="I3849" s="51"/>
+      <c r="J3849" s="51"/>
+    </row>
+    <row r="3850" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3850" s="51"/>
+      <c r="B3850" s="56"/>
+      <c r="C3850" s="51"/>
+      <c r="D3850" s="51"/>
+      <c r="E3850" s="51"/>
+      <c r="F3850" s="51"/>
+      <c r="G3850" s="51"/>
+      <c r="H3850" s="52"/>
+      <c r="I3850" s="51"/>
+      <c r="J3850" s="51"/>
+    </row>
+    <row r="3851" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3851" s="51"/>
+      <c r="B3851" s="56"/>
+      <c r="C3851" s="51"/>
+      <c r="D3851" s="51"/>
+      <c r="E3851" s="51"/>
+      <c r="F3851" s="51"/>
+      <c r="G3851" s="51"/>
+      <c r="H3851" s="52"/>
+      <c r="I3851" s="51"/>
+      <c r="J3851" s="51"/>
+    </row>
+    <row r="3852" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3852" s="51"/>
+      <c r="B3852" s="56"/>
+      <c r="C3852" s="51"/>
+      <c r="D3852" s="51"/>
+      <c r="E3852" s="51"/>
+      <c r="F3852" s="51"/>
+      <c r="G3852" s="51"/>
+      <c r="H3852" s="52"/>
+      <c r="I3852" s="51"/>
+      <c r="J3852" s="51"/>
+    </row>
+    <row r="3853" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3853" s="51"/>
+      <c r="B3853" s="56"/>
+      <c r="C3853" s="51"/>
+      <c r="D3853" s="51"/>
+      <c r="E3853" s="51"/>
+      <c r="F3853" s="51"/>
+      <c r="G3853" s="51"/>
+      <c r="H3853" s="52"/>
+      <c r="I3853" s="51"/>
+      <c r="J3853" s="51"/>
+    </row>
+    <row r="3854" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3854" s="51"/>
+      <c r="B3854" s="56"/>
+      <c r="C3854" s="51"/>
+      <c r="D3854" s="51"/>
+      <c r="E3854" s="51"/>
+      <c r="F3854" s="51"/>
+      <c r="G3854" s="51"/>
+      <c r="H3854" s="52"/>
+      <c r="I3854" s="51"/>
+      <c r="J3854" s="51"/>
+    </row>
+    <row r="3855" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3855" s="51"/>
+      <c r="B3855" s="56"/>
+      <c r="C3855" s="51"/>
+      <c r="D3855" s="51"/>
+      <c r="E3855" s="51"/>
+      <c r="F3855" s="51"/>
+      <c r="G3855" s="51"/>
+      <c r="H3855" s="52"/>
+      <c r="I3855" s="51"/>
+      <c r="J3855" s="51"/>
+    </row>
+    <row r="3856" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3856" s="51"/>
+      <c r="B3856" s="56"/>
+      <c r="C3856" s="51"/>
+      <c r="D3856" s="51"/>
+      <c r="E3856" s="51"/>
+      <c r="F3856" s="51"/>
+      <c r="G3856" s="51"/>
+      <c r="H3856" s="52"/>
+      <c r="I3856" s="51"/>
+      <c r="J3856" s="51"/>
+    </row>
+    <row r="3857" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3857" s="51"/>
+      <c r="B3857" s="56"/>
+      <c r="C3857" s="51"/>
+      <c r="D3857" s="51"/>
+      <c r="E3857" s="51"/>
+      <c r="F3857" s="51"/>
+      <c r="G3857" s="51"/>
+      <c r="H3857" s="52"/>
+      <c r="I3857" s="51"/>
+      <c r="J3857" s="51"/>
+    </row>
+    <row r="3858" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3858" s="51"/>
+      <c r="B3858" s="56"/>
+      <c r="C3858" s="51"/>
+      <c r="D3858" s="51"/>
+      <c r="E3858" s="51"/>
+      <c r="F3858" s="51"/>
+      <c r="G3858" s="51"/>
+      <c r="H3858" s="52"/>
+      <c r="I3858" s="51"/>
+      <c r="J3858" s="51"/>
+    </row>
+    <row r="3859" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3859" s="51"/>
+      <c r="B3859" s="56"/>
+      <c r="C3859" s="51"/>
+      <c r="D3859" s="51"/>
+      <c r="E3859" s="51"/>
+      <c r="F3859" s="51"/>
+      <c r="G3859" s="51"/>
+      <c r="H3859" s="52"/>
+      <c r="I3859" s="51"/>
+      <c r="J3859" s="51"/>
+    </row>
+    <row r="3860" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3860" s="51"/>
+      <c r="B3860" s="56"/>
+      <c r="C3860" s="51"/>
+      <c r="D3860" s="51"/>
+      <c r="E3860" s="51"/>
+      <c r="F3860" s="51"/>
+      <c r="G3860" s="51"/>
+      <c r="H3860" s="52"/>
+      <c r="I3860" s="51"/>
+      <c r="J3860" s="51"/>
+    </row>
+    <row r="3861" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3861" s="51"/>
+      <c r="B3861" s="56"/>
+      <c r="C3861" s="51"/>
+      <c r="D3861" s="51"/>
+      <c r="E3861" s="51"/>
+      <c r="F3861" s="51"/>
+      <c r="G3861" s="51"/>
+      <c r="H3861" s="52"/>
+      <c r="I3861" s="51"/>
+      <c r="J3861" s="51"/>
+    </row>
+    <row r="3862" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3862" s="51"/>
+      <c r="B3862" s="56"/>
+      <c r="C3862" s="51"/>
+      <c r="D3862" s="51"/>
+      <c r="E3862" s="51"/>
+      <c r="F3862" s="51"/>
+      <c r="G3862" s="51"/>
+      <c r="H3862" s="52"/>
+      <c r="I3862" s="51"/>
+      <c r="J3862" s="51"/>
+    </row>
+    <row r="3863" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3863" s="51"/>
+      <c r="B3863" s="56"/>
+      <c r="C3863" s="51"/>
+      <c r="D3863" s="51"/>
+      <c r="E3863" s="51"/>
+      <c r="F3863" s="51"/>
+      <c r="G3863" s="51"/>
+      <c r="H3863" s="52"/>
+      <c r="I3863" s="51"/>
+      <c r="J3863" s="51"/>
+    </row>
+    <row r="3864" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3864" s="51"/>
+      <c r="B3864" s="56"/>
+      <c r="C3864" s="51"/>
+      <c r="D3864" s="51"/>
+      <c r="E3864" s="51"/>
+      <c r="F3864" s="51"/>
+      <c r="G3864" s="51"/>
+      <c r="H3864" s="52"/>
+      <c r="I3864" s="51"/>
+      <c r="J3864" s="51"/>
+    </row>
+    <row r="3865" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3865" s="51"/>
+      <c r="B3865" s="56"/>
+      <c r="C3865" s="51"/>
+      <c r="D3865" s="51"/>
+      <c r="E3865" s="51"/>
+      <c r="F3865" s="51"/>
+      <c r="G3865" s="51"/>
+      <c r="H3865" s="52"/>
+      <c r="I3865" s="51"/>
+      <c r="J3865" s="51"/>
+    </row>
+    <row r="3866" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3866" s="51"/>
+      <c r="B3866" s="56"/>
+      <c r="C3866" s="51"/>
+      <c r="D3866" s="51"/>
+      <c r="E3866" s="51"/>
+      <c r="F3866" s="51"/>
+      <c r="G3866" s="51"/>
+      <c r="H3866" s="52"/>
+      <c r="I3866" s="51"/>
+      <c r="J3866" s="51"/>
+    </row>
+    <row r="3867" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3867" s="51"/>
+      <c r="B3867" s="56"/>
+      <c r="C3867" s="51"/>
+      <c r="D3867" s="51"/>
+      <c r="E3867" s="51"/>
+      <c r="F3867" s="51"/>
+      <c r="G3867" s="51"/>
+      <c r="H3867" s="52"/>
+      <c r="I3867" s="51"/>
+      <c r="J3867" s="51"/>
+    </row>
+    <row r="3868" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3868" s="51"/>
+      <c r="B3868" s="56"/>
+      <c r="C3868" s="51"/>
+      <c r="D3868" s="51"/>
+      <c r="E3868" s="51"/>
+      <c r="F3868" s="51"/>
+      <c r="G3868" s="51"/>
+      <c r="H3868" s="52"/>
+      <c r="I3868" s="51"/>
+      <c r="J3868" s="51"/>
     </row>
     <row r="3869" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3869" s="51"/>
       <c r="B3869" s="56"/>
       <c r="C3869" s="51"/>
       <c r="D3869" s="51"/>
@@ -49150,1366 +49140,166 @@
     <row r="3874" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3874" s="51"/>
       <c r="B3874" s="56"/>
-      <c r="C3874" s="51"/>
-      <c r="D3874" s="51"/>
-      <c r="E3874" s="51"/>
-      <c r="F3874" s="51"/>
-      <c r="G3874" s="51"/>
-      <c r="H3874" s="52"/>
-      <c r="I3874" s="51"/>
-      <c r="J3874" s="51"/>
+      <c r="C3874" s="3"/>
+      <c r="D3874" s="57"/>
+      <c r="E3874" s="57"/>
+      <c r="F3874" s="3"/>
+      <c r="G3874" s="3"/>
+      <c r="H3874" s="5"/>
+      <c r="I3874" s="3"/>
+      <c r="J3874" s="3"/>
     </row>
     <row r="3875" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3875" s="51"/>
+      <c r="A3875" s="3"/>
       <c r="B3875" s="56"/>
-      <c r="C3875" s="51"/>
-      <c r="D3875" s="51"/>
-      <c r="E3875" s="51"/>
-      <c r="F3875" s="51"/>
-      <c r="G3875" s="51"/>
-      <c r="H3875" s="52"/>
-      <c r="I3875" s="51"/>
-      <c r="J3875" s="51"/>
+      <c r="C3875" s="3"/>
+      <c r="D3875" s="57"/>
+      <c r="E3875" s="57"/>
+      <c r="F3875" s="3"/>
+      <c r="G3875" s="3"/>
+      <c r="H3875" s="5"/>
+      <c r="I3875" s="3"/>
+      <c r="J3875" s="3"/>
     </row>
     <row r="3876" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3876" s="51"/>
+      <c r="A3876" s="3"/>
       <c r="B3876" s="56"/>
-      <c r="C3876" s="51"/>
-      <c r="D3876" s="51"/>
-      <c r="E3876" s="51"/>
-      <c r="F3876" s="51"/>
-      <c r="G3876" s="51"/>
-      <c r="H3876" s="52"/>
-      <c r="I3876" s="51"/>
-      <c r="J3876" s="51"/>
+      <c r="C3876" s="3"/>
+      <c r="D3876" s="3"/>
+      <c r="E3876" s="3"/>
+      <c r="F3876" s="3"/>
+      <c r="G3876" s="3"/>
+      <c r="H3876" s="5"/>
+      <c r="I3876" s="3"/>
+      <c r="J3876" s="3"/>
     </row>
     <row r="3877" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3877" s="51"/>
+      <c r="A3877" s="3"/>
       <c r="B3877" s="56"/>
-      <c r="C3877" s="51"/>
-      <c r="D3877" s="51"/>
-      <c r="E3877" s="51"/>
-      <c r="F3877" s="51"/>
-      <c r="G3877" s="51"/>
-      <c r="H3877" s="52"/>
-      <c r="I3877" s="51"/>
-      <c r="J3877" s="51"/>
+      <c r="C3877" s="3"/>
+      <c r="D3877" s="3"/>
+      <c r="E3877" s="3"/>
+      <c r="F3877" s="3"/>
+      <c r="G3877" s="3"/>
+      <c r="H3877" s="5"/>
+      <c r="I3877" s="3"/>
+      <c r="J3877" s="3"/>
     </row>
     <row r="3878" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3878" s="51"/>
+      <c r="A3878" s="3"/>
       <c r="B3878" s="56"/>
-      <c r="C3878" s="51"/>
-      <c r="D3878" s="51"/>
-      <c r="E3878" s="51"/>
-      <c r="F3878" s="51"/>
-      <c r="G3878" s="51"/>
-      <c r="H3878" s="52"/>
-      <c r="I3878" s="51"/>
-      <c r="J3878" s="51"/>
+      <c r="C3878" s="3"/>
+      <c r="D3878" s="3"/>
+      <c r="E3878" s="3"/>
+      <c r="F3878" s="3"/>
+      <c r="G3878" s="3"/>
+      <c r="H3878" s="5"/>
+      <c r="I3878" s="3"/>
+      <c r="J3878" s="3"/>
     </row>
     <row r="3879" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3879" s="51"/>
+      <c r="A3879" s="3"/>
       <c r="B3879" s="56"/>
-      <c r="C3879" s="51"/>
-      <c r="D3879" s="51"/>
-      <c r="E3879" s="51"/>
-      <c r="F3879" s="51"/>
-      <c r="G3879" s="51"/>
-      <c r="H3879" s="52"/>
-      <c r="I3879" s="51"/>
-      <c r="J3879" s="51"/>
+      <c r="C3879" s="3"/>
+      <c r="D3879" s="3"/>
+      <c r="E3879" s="3"/>
+      <c r="F3879" s="3"/>
+      <c r="G3879" s="3"/>
+      <c r="H3879" s="5"/>
+      <c r="I3879" s="3"/>
+      <c r="J3879" s="3"/>
     </row>
     <row r="3880" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3880" s="51"/>
+      <c r="A3880" s="3"/>
       <c r="B3880" s="56"/>
-      <c r="C3880" s="51"/>
-      <c r="D3880" s="51"/>
-      <c r="E3880" s="51"/>
-      <c r="F3880" s="51"/>
-      <c r="G3880" s="51"/>
-      <c r="H3880" s="52"/>
-      <c r="I3880" s="51"/>
-      <c r="J3880" s="51"/>
+      <c r="C3880" s="3"/>
+      <c r="D3880" s="3"/>
+      <c r="E3880" s="3"/>
+      <c r="F3880" s="3"/>
+      <c r="G3880" s="3"/>
+      <c r="H3880" s="5"/>
+      <c r="I3880" s="3"/>
+      <c r="J3880" s="3"/>
     </row>
     <row r="3881" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3881" s="51"/>
+      <c r="A3881" s="3"/>
       <c r="B3881" s="56"/>
-      <c r="C3881" s="51"/>
-      <c r="D3881" s="51"/>
-      <c r="E3881" s="51"/>
-      <c r="F3881" s="51"/>
-      <c r="G3881" s="51"/>
-      <c r="H3881" s="52"/>
-      <c r="I3881" s="51"/>
-      <c r="J3881" s="51"/>
+      <c r="C3881" s="3"/>
+      <c r="D3881" s="3"/>
+      <c r="E3881" s="3"/>
+      <c r="F3881" s="3"/>
+      <c r="G3881" s="3"/>
+      <c r="H3881" s="5"/>
+      <c r="I3881" s="3"/>
+      <c r="J3881" s="3"/>
     </row>
     <row r="3882" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3882" s="51"/>
+      <c r="A3882" s="3"/>
       <c r="B3882" s="56"/>
-      <c r="C3882" s="51"/>
-      <c r="D3882" s="51"/>
-      <c r="E3882" s="51"/>
-      <c r="F3882" s="51"/>
-      <c r="G3882" s="51"/>
-      <c r="H3882" s="52"/>
-      <c r="I3882" s="51"/>
-      <c r="J3882" s="51"/>
+      <c r="C3882" s="3"/>
+      <c r="D3882" s="3"/>
+      <c r="E3882" s="3"/>
+      <c r="F3882" s="3"/>
+      <c r="G3882" s="3"/>
+      <c r="H3882" s="5"/>
+      <c r="I3882" s="3"/>
+      <c r="J3882" s="3"/>
     </row>
     <row r="3883" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3883" s="51"/>
+      <c r="A3883" s="3"/>
       <c r="B3883" s="56"/>
-      <c r="C3883" s="51"/>
-      <c r="D3883" s="51"/>
-      <c r="E3883" s="51"/>
-      <c r="F3883" s="51"/>
-      <c r="G3883" s="51"/>
-      <c r="H3883" s="52"/>
-      <c r="I3883" s="51"/>
-      <c r="J3883" s="51"/>
+      <c r="C3883" s="3"/>
+      <c r="D3883" s="3"/>
+      <c r="E3883" s="3"/>
+      <c r="F3883" s="3"/>
+      <c r="G3883" s="3"/>
+      <c r="H3883" s="5"/>
+      <c r="I3883" s="3"/>
+      <c r="J3883" s="3"/>
     </row>
     <row r="3884" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3884" s="51"/>
+      <c r="A3884" s="3"/>
       <c r="B3884" s="56"/>
-      <c r="C3884" s="51"/>
-      <c r="D3884" s="51"/>
-      <c r="E3884" s="51"/>
-      <c r="F3884" s="51"/>
-      <c r="G3884" s="51"/>
-      <c r="H3884" s="52"/>
-      <c r="I3884" s="51"/>
-      <c r="J3884" s="51"/>
+      <c r="C3884" s="3"/>
+      <c r="D3884" s="3"/>
+      <c r="E3884" s="3"/>
+      <c r="F3884" s="3"/>
+      <c r="G3884" s="3"/>
+      <c r="H3884" s="5"/>
+      <c r="I3884" s="3"/>
+      <c r="J3884" s="3"/>
     </row>
     <row r="3885" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3885" s="51"/>
+      <c r="A3885" s="3"/>
       <c r="B3885" s="56"/>
-      <c r="C3885" s="51"/>
-      <c r="D3885" s="51"/>
-      <c r="E3885" s="51"/>
-      <c r="F3885" s="51"/>
-      <c r="G3885" s="51"/>
-      <c r="H3885" s="52"/>
-      <c r="I3885" s="51"/>
-      <c r="J3885" s="51"/>
+      <c r="C3885" s="3"/>
+      <c r="D3885" s="3"/>
+      <c r="E3885" s="3"/>
+      <c r="F3885" s="3"/>
+      <c r="G3885" s="3"/>
+      <c r="H3885" s="5"/>
+      <c r="I3885" s="3"/>
+      <c r="J3885" s="3"/>
     </row>
     <row r="3886" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3886" s="51"/>
+      <c r="A3886" s="3"/>
       <c r="B3886" s="56"/>
-      <c r="C3886" s="51"/>
-      <c r="D3886" s="51"/>
-      <c r="E3886" s="51"/>
-      <c r="F3886" s="51"/>
-      <c r="G3886" s="51"/>
-      <c r="H3886" s="52"/>
-      <c r="I3886" s="51"/>
-      <c r="J3886" s="51"/>
+      <c r="C3886" s="3"/>
+      <c r="D3886" s="3"/>
+      <c r="E3886" s="3"/>
+      <c r="F3886" s="3"/>
+      <c r="G3886" s="3"/>
+      <c r="H3886" s="5"/>
+      <c r="I3886" s="3"/>
+      <c r="J3886" s="3"/>
     </row>
     <row r="3887" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3887" s="51"/>
-      <c r="B3887" s="56"/>
-      <c r="C3887" s="51"/>
-      <c r="D3887" s="51"/>
-      <c r="E3887" s="51"/>
-      <c r="F3887" s="51"/>
-      <c r="G3887" s="51"/>
-      <c r="H3887" s="52"/>
-      <c r="I3887" s="51"/>
-      <c r="J3887" s="51"/>
-    </row>
-    <row r="3888" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3888" s="51"/>
-      <c r="B3888" s="56"/>
-      <c r="C3888" s="51"/>
-      <c r="D3888" s="51"/>
-      <c r="E3888" s="51"/>
-      <c r="F3888" s="51"/>
-      <c r="G3888" s="51"/>
-      <c r="H3888" s="52"/>
-      <c r="I3888" s="51"/>
-      <c r="J3888" s="51"/>
-    </row>
-    <row r="3889" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3889" s="51"/>
-      <c r="B3889" s="56"/>
-      <c r="C3889" s="51"/>
-      <c r="D3889" s="51"/>
-      <c r="E3889" s="51"/>
-      <c r="F3889" s="51"/>
-      <c r="G3889" s="51"/>
-      <c r="H3889" s="52"/>
-      <c r="I3889" s="51"/>
-      <c r="J3889" s="51"/>
-    </row>
-    <row r="3890" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3890" s="51"/>
-      <c r="B3890" s="56"/>
-      <c r="C3890" s="51"/>
-      <c r="D3890" s="51"/>
-      <c r="E3890" s="51"/>
-      <c r="F3890" s="51"/>
-      <c r="G3890" s="51"/>
-      <c r="H3890" s="52"/>
-      <c r="I3890" s="51"/>
-      <c r="J3890" s="51"/>
-    </row>
-    <row r="3891" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3891" s="51"/>
-      <c r="B3891" s="56"/>
-      <c r="C3891" s="51"/>
-      <c r="D3891" s="51"/>
-      <c r="E3891" s="51"/>
-      <c r="F3891" s="51"/>
-      <c r="G3891" s="51"/>
-      <c r="H3891" s="52"/>
-      <c r="I3891" s="51"/>
-      <c r="J3891" s="51"/>
-    </row>
-    <row r="3892" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3892" s="51"/>
-      <c r="B3892" s="56"/>
-      <c r="C3892" s="51"/>
-      <c r="D3892" s="51"/>
-      <c r="E3892" s="51"/>
-      <c r="F3892" s="51"/>
-      <c r="G3892" s="51"/>
-      <c r="H3892" s="52"/>
-      <c r="I3892" s="51"/>
-      <c r="J3892" s="51"/>
-    </row>
-    <row r="3893" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3893" s="51"/>
-      <c r="B3893" s="56"/>
-      <c r="C3893" s="51"/>
-      <c r="D3893" s="51"/>
-      <c r="E3893" s="51"/>
-      <c r="F3893" s="51"/>
-      <c r="G3893" s="51"/>
-      <c r="H3893" s="52"/>
-      <c r="I3893" s="51"/>
-      <c r="J3893" s="51"/>
-    </row>
-    <row r="3894" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3894" s="51"/>
-      <c r="B3894" s="56"/>
-      <c r="C3894" s="51"/>
-      <c r="D3894" s="51"/>
-      <c r="E3894" s="51"/>
-      <c r="F3894" s="51"/>
-      <c r="G3894" s="51"/>
-      <c r="H3894" s="52"/>
-      <c r="I3894" s="51"/>
-      <c r="J3894" s="51"/>
-    </row>
-    <row r="3895" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3895" s="51"/>
-      <c r="B3895" s="56"/>
-      <c r="C3895" s="51"/>
-      <c r="D3895" s="51"/>
-      <c r="E3895" s="51"/>
-      <c r="F3895" s="51"/>
-      <c r="G3895" s="51"/>
-      <c r="H3895" s="52"/>
-      <c r="I3895" s="51"/>
-      <c r="J3895" s="51"/>
-    </row>
-    <row r="3896" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3896" s="51"/>
-      <c r="B3896" s="56"/>
-      <c r="C3896" s="51"/>
-      <c r="D3896" s="51"/>
-      <c r="E3896" s="51"/>
-      <c r="F3896" s="51"/>
-      <c r="G3896" s="51"/>
-      <c r="H3896" s="52"/>
-      <c r="I3896" s="51"/>
-      <c r="J3896" s="51"/>
-    </row>
-    <row r="3897" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3897" s="51"/>
-      <c r="B3897" s="56"/>
-      <c r="C3897" s="51"/>
-      <c r="D3897" s="51"/>
-      <c r="E3897" s="51"/>
-      <c r="F3897" s="51"/>
-      <c r="G3897" s="51"/>
-      <c r="H3897" s="52"/>
-      <c r="I3897" s="51"/>
-      <c r="J3897" s="51"/>
-    </row>
-    <row r="3898" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3898" s="51"/>
-      <c r="B3898" s="56"/>
-      <c r="C3898" s="51"/>
-      <c r="D3898" s="51"/>
-      <c r="E3898" s="51"/>
-      <c r="F3898" s="51"/>
-      <c r="G3898" s="51"/>
-      <c r="H3898" s="52"/>
-      <c r="I3898" s="51"/>
-      <c r="J3898" s="51"/>
-    </row>
-    <row r="3899" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3899" s="51"/>
-      <c r="B3899" s="56"/>
-      <c r="C3899" s="51"/>
-      <c r="D3899" s="51"/>
-      <c r="E3899" s="51"/>
-      <c r="F3899" s="51"/>
-      <c r="G3899" s="51"/>
-      <c r="H3899" s="52"/>
-      <c r="I3899" s="51"/>
-      <c r="J3899" s="51"/>
-    </row>
-    <row r="3900" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3900" s="51"/>
-      <c r="B3900" s="51"/>
-      <c r="C3900" s="51"/>
-      <c r="D3900" s="51"/>
-      <c r="E3900" s="51"/>
-      <c r="F3900" s="51"/>
-      <c r="G3900" s="51"/>
-      <c r="H3900" s="52"/>
-      <c r="I3900" s="51"/>
-      <c r="J3900" s="51"/>
-    </row>
-    <row r="3901" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3901" s="51"/>
-      <c r="B3901" s="56"/>
-      <c r="C3901" s="51"/>
-      <c r="D3901" s="51"/>
-      <c r="E3901" s="51"/>
-      <c r="F3901" s="51"/>
-      <c r="G3901" s="51"/>
-      <c r="H3901" s="52"/>
-      <c r="I3901" s="51"/>
-      <c r="J3901" s="51"/>
-    </row>
-    <row r="3902" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3902" s="51"/>
-      <c r="B3902" s="56"/>
-      <c r="C3902" s="51"/>
-      <c r="D3902" s="51"/>
-      <c r="E3902" s="51"/>
-      <c r="F3902" s="51"/>
-      <c r="G3902" s="51"/>
-      <c r="H3902" s="52"/>
-      <c r="I3902" s="51"/>
-      <c r="J3902" s="51"/>
-    </row>
-    <row r="3903" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3903" s="51"/>
-      <c r="B3903" s="56"/>
-      <c r="C3903" s="51"/>
-      <c r="D3903" s="51"/>
-      <c r="E3903" s="51"/>
-      <c r="F3903" s="51"/>
-      <c r="G3903" s="51"/>
-      <c r="H3903" s="52"/>
-      <c r="I3903" s="51"/>
-      <c r="J3903" s="51"/>
-    </row>
-    <row r="3904" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3904" s="51"/>
-      <c r="B3904" s="56"/>
-      <c r="C3904" s="51"/>
-      <c r="D3904" s="51"/>
-      <c r="E3904" s="51"/>
-      <c r="F3904" s="51"/>
-      <c r="G3904" s="51"/>
-      <c r="H3904" s="52"/>
-      <c r="I3904" s="51"/>
-      <c r="J3904" s="51"/>
-    </row>
-    <row r="3905" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3905" s="51"/>
-      <c r="B3905" s="56"/>
-      <c r="C3905" s="51"/>
-      <c r="D3905" s="51"/>
-      <c r="E3905" s="51"/>
-      <c r="F3905" s="51"/>
-      <c r="G3905" s="51"/>
-      <c r="H3905" s="52"/>
-      <c r="I3905" s="51"/>
-      <c r="J3905" s="51"/>
-    </row>
-    <row r="3906" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3906" s="51"/>
-      <c r="B3906" s="56"/>
-      <c r="C3906" s="51"/>
-      <c r="D3906" s="51"/>
-      <c r="E3906" s="51"/>
-      <c r="F3906" s="51"/>
-      <c r="G3906" s="51"/>
-      <c r="H3906" s="52"/>
-      <c r="I3906" s="51"/>
-      <c r="J3906" s="51"/>
-    </row>
-    <row r="3907" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3907" s="51"/>
-      <c r="B3907" s="56"/>
-      <c r="C3907" s="51"/>
-      <c r="D3907" s="51"/>
-      <c r="E3907" s="51"/>
-      <c r="F3907" s="51"/>
-      <c r="G3907" s="51"/>
-      <c r="H3907" s="52"/>
-      <c r="I3907" s="51"/>
-      <c r="J3907" s="51"/>
-    </row>
-    <row r="3908" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3908" s="51"/>
-      <c r="B3908" s="56"/>
-      <c r="C3908" s="51"/>
-      <c r="D3908" s="51"/>
-      <c r="E3908" s="51"/>
-      <c r="F3908" s="51"/>
-      <c r="G3908" s="51"/>
-      <c r="H3908" s="52"/>
-      <c r="I3908" s="51"/>
-      <c r="J3908" s="51"/>
-    </row>
-    <row r="3909" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3909" s="51"/>
-      <c r="B3909" s="56"/>
-      <c r="C3909" s="51"/>
-      <c r="D3909" s="51"/>
-      <c r="E3909" s="51"/>
-      <c r="F3909" s="51"/>
-      <c r="G3909" s="51"/>
-      <c r="H3909" s="52"/>
-      <c r="I3909" s="51"/>
-      <c r="J3909" s="51"/>
-    </row>
-    <row r="3910" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3910" s="51"/>
-      <c r="B3910" s="56"/>
-      <c r="C3910" s="51"/>
-      <c r="D3910" s="51"/>
-      <c r="E3910" s="51"/>
-      <c r="F3910" s="51"/>
-      <c r="G3910" s="51"/>
-      <c r="H3910" s="52"/>
-      <c r="I3910" s="51"/>
-      <c r="J3910" s="51"/>
-    </row>
-    <row r="3911" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3911" s="51"/>
-      <c r="B3911" s="56"/>
-      <c r="C3911" s="51"/>
-      <c r="D3911" s="51"/>
-      <c r="E3911" s="51"/>
-      <c r="F3911" s="51"/>
-      <c r="G3911" s="51"/>
-      <c r="H3911" s="52"/>
-      <c r="I3911" s="51"/>
-      <c r="J3911" s="51"/>
-    </row>
-    <row r="3912" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3912" s="51"/>
-      <c r="B3912" s="56"/>
-      <c r="C3912" s="51"/>
-      <c r="D3912" s="51"/>
-      <c r="E3912" s="51"/>
-      <c r="F3912" s="51"/>
-      <c r="G3912" s="51"/>
-      <c r="H3912" s="52"/>
-      <c r="I3912" s="51"/>
-      <c r="J3912" s="51"/>
-    </row>
-    <row r="3913" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3913" s="51"/>
-      <c r="B3913" s="56"/>
-      <c r="C3913" s="51"/>
-      <c r="D3913" s="51"/>
-      <c r="E3913" s="51"/>
-      <c r="F3913" s="51"/>
-      <c r="G3913" s="51"/>
-      <c r="H3913" s="52"/>
-      <c r="I3913" s="51"/>
-      <c r="J3913" s="51"/>
-    </row>
-    <row r="3914" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3914" s="51"/>
-      <c r="B3914" s="56"/>
-      <c r="C3914" s="51"/>
-      <c r="D3914" s="51"/>
-      <c r="E3914" s="51"/>
-      <c r="F3914" s="51"/>
-      <c r="G3914" s="51"/>
-      <c r="H3914" s="52"/>
-      <c r="I3914" s="51"/>
-      <c r="J3914" s="51"/>
-    </row>
-    <row r="3915" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3915" s="51"/>
-      <c r="B3915" s="56"/>
-      <c r="C3915" s="51"/>
-      <c r="D3915" s="51"/>
-      <c r="E3915" s="51"/>
-      <c r="F3915" s="51"/>
-      <c r="G3915" s="51"/>
-      <c r="H3915" s="52"/>
-      <c r="I3915" s="51"/>
-      <c r="J3915" s="51"/>
-    </row>
-    <row r="3916" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3916" s="51"/>
-      <c r="B3916" s="56"/>
-      <c r="C3916" s="51"/>
-      <c r="D3916" s="51"/>
-      <c r="E3916" s="51"/>
-      <c r="F3916" s="51"/>
-      <c r="G3916" s="51"/>
-      <c r="H3916" s="52"/>
-      <c r="I3916" s="51"/>
-      <c r="J3916" s="51"/>
-    </row>
-    <row r="3917" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3917" s="51"/>
-      <c r="B3917" s="56"/>
-      <c r="C3917" s="51"/>
-      <c r="D3917" s="51"/>
-      <c r="E3917" s="51"/>
-      <c r="F3917" s="51"/>
-      <c r="G3917" s="51"/>
-      <c r="H3917" s="52"/>
-      <c r="I3917" s="51"/>
-      <c r="J3917" s="51"/>
-    </row>
-    <row r="3918" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3918" s="51"/>
-      <c r="B3918" s="56"/>
-      <c r="C3918" s="51"/>
-      <c r="D3918" s="51"/>
-      <c r="E3918" s="51"/>
-      <c r="F3918" s="51"/>
-      <c r="G3918" s="51"/>
-      <c r="H3918" s="52"/>
-      <c r="I3918" s="51"/>
-      <c r="J3918" s="51"/>
-    </row>
-    <row r="3919" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3919" s="51"/>
-      <c r="B3919" s="56"/>
-      <c r="C3919" s="51"/>
-      <c r="D3919" s="51"/>
-      <c r="E3919" s="51"/>
-      <c r="F3919" s="51"/>
-      <c r="G3919" s="51"/>
-      <c r="H3919" s="52"/>
-      <c r="I3919" s="51"/>
-      <c r="J3919" s="51"/>
-    </row>
-    <row r="3920" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3920" s="51"/>
-      <c r="B3920" s="56"/>
-      <c r="C3920" s="51"/>
-      <c r="D3920" s="51"/>
-      <c r="E3920" s="51"/>
-      <c r="F3920" s="51"/>
-      <c r="G3920" s="51"/>
-      <c r="H3920" s="52"/>
-      <c r="I3920" s="51"/>
-      <c r="J3920" s="51"/>
-    </row>
-    <row r="3921" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3921" s="51"/>
-      <c r="B3921" s="56"/>
-      <c r="C3921" s="51"/>
-      <c r="D3921" s="51"/>
-      <c r="E3921" s="51"/>
-      <c r="F3921" s="51"/>
-      <c r="G3921" s="51"/>
-      <c r="H3921" s="52"/>
-      <c r="I3921" s="51"/>
-      <c r="J3921" s="51"/>
-    </row>
-    <row r="3922" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3922" s="51"/>
-      <c r="B3922" s="56"/>
-      <c r="C3922" s="51"/>
-      <c r="D3922" s="51"/>
-      <c r="E3922" s="51"/>
-      <c r="F3922" s="51"/>
-      <c r="G3922" s="51"/>
-      <c r="H3922" s="52"/>
-      <c r="I3922" s="51"/>
-      <c r="J3922" s="51"/>
-    </row>
-    <row r="3923" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3923" s="51"/>
-      <c r="B3923" s="56"/>
-      <c r="C3923" s="51"/>
-      <c r="D3923" s="51"/>
-      <c r="E3923" s="51"/>
-      <c r="F3923" s="51"/>
-      <c r="G3923" s="51"/>
-      <c r="H3923" s="52"/>
-      <c r="I3923" s="51"/>
-      <c r="J3923" s="51"/>
-    </row>
-    <row r="3924" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3924" s="51"/>
-      <c r="B3924" s="56"/>
-      <c r="C3924" s="51"/>
-      <c r="D3924" s="51"/>
-      <c r="E3924" s="51"/>
-      <c r="F3924" s="51"/>
-      <c r="G3924" s="51"/>
-      <c r="H3924" s="52"/>
-      <c r="I3924" s="51"/>
-      <c r="J3924" s="51"/>
-    </row>
-    <row r="3925" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3925" s="51"/>
-      <c r="B3925" s="56"/>
-      <c r="C3925" s="51"/>
-      <c r="D3925" s="51"/>
-      <c r="E3925" s="51"/>
-      <c r="F3925" s="51"/>
-      <c r="G3925" s="51"/>
-      <c r="H3925" s="52"/>
-      <c r="I3925" s="51"/>
-      <c r="J3925" s="51"/>
-    </row>
-    <row r="3926" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3926" s="51"/>
-      <c r="B3926" s="56"/>
-      <c r="C3926" s="51"/>
-      <c r="D3926" s="51"/>
-      <c r="E3926" s="51"/>
-      <c r="F3926" s="51"/>
-      <c r="G3926" s="51"/>
-      <c r="H3926" s="52"/>
-      <c r="I3926" s="51"/>
-      <c r="J3926" s="51"/>
-    </row>
-    <row r="3927" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3927" s="51"/>
-      <c r="B3927" s="56"/>
-      <c r="C3927" s="51"/>
-      <c r="D3927" s="51"/>
-      <c r="E3927" s="51"/>
-      <c r="F3927" s="51"/>
-      <c r="G3927" s="51"/>
-      <c r="H3927" s="52"/>
-      <c r="I3927" s="51"/>
-      <c r="J3927" s="51"/>
-    </row>
-    <row r="3928" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3928" s="51"/>
-      <c r="B3928" s="56"/>
-      <c r="C3928" s="51"/>
-      <c r="D3928" s="51"/>
-      <c r="E3928" s="51"/>
-      <c r="F3928" s="51"/>
-      <c r="G3928" s="51"/>
-      <c r="H3928" s="52"/>
-      <c r="I3928" s="51"/>
-      <c r="J3928" s="51"/>
-    </row>
-    <row r="3929" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3929" s="51"/>
-      <c r="B3929" s="56"/>
-      <c r="C3929" s="51"/>
-      <c r="D3929" s="51"/>
-      <c r="E3929" s="51"/>
-      <c r="F3929" s="51"/>
-      <c r="G3929" s="51"/>
-      <c r="H3929" s="52"/>
-      <c r="I3929" s="51"/>
-      <c r="J3929" s="51"/>
-    </row>
-    <row r="3930" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3930" s="51"/>
-      <c r="B3930" s="56"/>
-      <c r="C3930" s="51"/>
-      <c r="D3930" s="51"/>
-      <c r="E3930" s="51"/>
-      <c r="F3930" s="51"/>
-      <c r="G3930" s="51"/>
-      <c r="H3930" s="52"/>
-      <c r="I3930" s="51"/>
-      <c r="J3930" s="51"/>
-    </row>
-    <row r="3931" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3931" s="51"/>
-      <c r="B3931" s="56"/>
-      <c r="C3931" s="51"/>
-      <c r="D3931" s="51"/>
-      <c r="E3931" s="51"/>
-      <c r="F3931" s="51"/>
-      <c r="G3931" s="51"/>
-      <c r="H3931" s="52"/>
-      <c r="I3931" s="51"/>
-      <c r="J3931" s="51"/>
-    </row>
-    <row r="3932" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3932" s="51"/>
-      <c r="B3932" s="56"/>
-      <c r="C3932" s="51"/>
-      <c r="D3932" s="51"/>
-      <c r="E3932" s="51"/>
-      <c r="F3932" s="51"/>
-      <c r="G3932" s="51"/>
-      <c r="H3932" s="52"/>
-      <c r="I3932" s="51"/>
-      <c r="J3932" s="51"/>
-    </row>
-    <row r="3933" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3933" s="51"/>
-      <c r="B3933" s="56"/>
-      <c r="C3933" s="51"/>
-      <c r="D3933" s="51"/>
-      <c r="E3933" s="51"/>
-      <c r="F3933" s="51"/>
-      <c r="G3933" s="51"/>
-      <c r="H3933" s="52"/>
-      <c r="I3933" s="51"/>
-      <c r="J3933" s="51"/>
-    </row>
-    <row r="3934" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3934" s="51"/>
-      <c r="B3934" s="56"/>
-      <c r="C3934" s="51"/>
-      <c r="D3934" s="51"/>
-      <c r="E3934" s="51"/>
-      <c r="F3934" s="51"/>
-      <c r="G3934" s="51"/>
-      <c r="H3934" s="52"/>
-      <c r="I3934" s="51"/>
-      <c r="J3934" s="51"/>
-    </row>
-    <row r="3935" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3935" s="51"/>
-      <c r="B3935" s="56"/>
-      <c r="C3935" s="51"/>
-      <c r="D3935" s="51"/>
-      <c r="E3935" s="51"/>
-      <c r="F3935" s="51"/>
-      <c r="G3935" s="51"/>
-      <c r="H3935" s="52"/>
-      <c r="I3935" s="51"/>
-      <c r="J3935" s="51"/>
-    </row>
-    <row r="3936" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3936" s="51"/>
-      <c r="B3936" s="56"/>
-      <c r="C3936" s="51"/>
-      <c r="D3936" s="51"/>
-      <c r="E3936" s="51"/>
-      <c r="F3936" s="51"/>
-      <c r="G3936" s="51"/>
-      <c r="H3936" s="52"/>
-      <c r="I3936" s="51"/>
-      <c r="J3936" s="51"/>
-    </row>
-    <row r="3937" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3937" s="51"/>
-      <c r="B3937" s="56"/>
-      <c r="C3937" s="51"/>
-      <c r="D3937" s="51"/>
-      <c r="E3937" s="51"/>
-      <c r="F3937" s="51"/>
-      <c r="G3937" s="51"/>
-      <c r="H3937" s="52"/>
-      <c r="I3937" s="51"/>
-      <c r="J3937" s="51"/>
-    </row>
-    <row r="3938" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3938" s="51"/>
-      <c r="B3938" s="56"/>
-      <c r="C3938" s="51"/>
-      <c r="D3938" s="51"/>
-      <c r="E3938" s="51"/>
-      <c r="F3938" s="51"/>
-      <c r="G3938" s="51"/>
-      <c r="H3938" s="52"/>
-      <c r="I3938" s="51"/>
-      <c r="J3938" s="51"/>
-    </row>
-    <row r="3939" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3939" s="51"/>
-      <c r="B3939" s="56"/>
-      <c r="C3939" s="51"/>
-      <c r="D3939" s="51"/>
-      <c r="E3939" s="51"/>
-      <c r="F3939" s="51"/>
-      <c r="G3939" s="51"/>
-      <c r="H3939" s="52"/>
-      <c r="I3939" s="51"/>
-      <c r="J3939" s="51"/>
-    </row>
-    <row r="3940" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3940" s="51"/>
-      <c r="B3940" s="56"/>
-      <c r="C3940" s="51"/>
-      <c r="D3940" s="51"/>
-      <c r="E3940" s="51"/>
-      <c r="F3940" s="51"/>
-      <c r="G3940" s="51"/>
-      <c r="H3940" s="52"/>
-      <c r="I3940" s="51"/>
-      <c r="J3940" s="51"/>
-    </row>
-    <row r="3941" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3941" s="51"/>
-      <c r="B3941" s="56"/>
-      <c r="C3941" s="51"/>
-      <c r="D3941" s="51"/>
-      <c r="E3941" s="51"/>
-      <c r="F3941" s="51"/>
-      <c r="G3941" s="51"/>
-      <c r="H3941" s="52"/>
-      <c r="I3941" s="51"/>
-      <c r="J3941" s="51"/>
-    </row>
-    <row r="3942" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3942" s="51"/>
-      <c r="B3942" s="56"/>
-      <c r="C3942" s="51"/>
-      <c r="D3942" s="51"/>
-      <c r="E3942" s="51"/>
-      <c r="F3942" s="51"/>
-      <c r="G3942" s="51"/>
-      <c r="H3942" s="52"/>
-      <c r="I3942" s="51"/>
-      <c r="J3942" s="51"/>
-    </row>
-    <row r="3943" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3943" s="51"/>
-      <c r="B3943" s="56"/>
-      <c r="C3943" s="51"/>
-      <c r="D3943" s="51"/>
-      <c r="E3943" s="51"/>
-      <c r="F3943" s="51"/>
-      <c r="G3943" s="51"/>
-      <c r="H3943" s="52"/>
-      <c r="I3943" s="51"/>
-      <c r="J3943" s="51"/>
-    </row>
-    <row r="3944" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3944" s="51"/>
-      <c r="B3944" s="56"/>
-      <c r="C3944" s="51"/>
-      <c r="D3944" s="51"/>
-      <c r="E3944" s="51"/>
-      <c r="F3944" s="51"/>
-      <c r="G3944" s="51"/>
-      <c r="H3944" s="52"/>
-      <c r="I3944" s="51"/>
-      <c r="J3944" s="51"/>
-    </row>
-    <row r="3945" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3945" s="51"/>
-      <c r="B3945" s="56"/>
-      <c r="C3945" s="51"/>
-      <c r="D3945" s="51"/>
-      <c r="E3945" s="51"/>
-      <c r="F3945" s="51"/>
-      <c r="G3945" s="51"/>
-      <c r="H3945" s="52"/>
-      <c r="I3945" s="51"/>
-      <c r="J3945" s="51"/>
-    </row>
-    <row r="3946" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3946" s="51"/>
-      <c r="B3946" s="56"/>
-      <c r="C3946" s="51"/>
-      <c r="D3946" s="51"/>
-      <c r="E3946" s="51"/>
-      <c r="F3946" s="51"/>
-      <c r="G3946" s="51"/>
-      <c r="H3946" s="52"/>
-      <c r="I3946" s="51"/>
-      <c r="J3946" s="51"/>
-    </row>
-    <row r="3947" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3947" s="51"/>
-      <c r="B3947" s="56"/>
-      <c r="C3947" s="51"/>
-      <c r="D3947" s="51"/>
-      <c r="E3947" s="51"/>
-      <c r="F3947" s="51"/>
-      <c r="G3947" s="51"/>
-      <c r="H3947" s="52"/>
-      <c r="I3947" s="51"/>
-      <c r="J3947" s="51"/>
-    </row>
-    <row r="3948" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3948" s="51"/>
-      <c r="B3948" s="56"/>
-      <c r="C3948" s="51"/>
-      <c r="D3948" s="51"/>
-      <c r="E3948" s="51"/>
-      <c r="F3948" s="51"/>
-      <c r="G3948" s="51"/>
-      <c r="H3948" s="52"/>
-      <c r="I3948" s="51"/>
-      <c r="J3948" s="51"/>
-    </row>
-    <row r="3949" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3949" s="51"/>
-      <c r="B3949" s="56"/>
-      <c r="C3949" s="51"/>
-      <c r="D3949" s="51"/>
-      <c r="E3949" s="51"/>
-      <c r="F3949" s="51"/>
-      <c r="G3949" s="51"/>
-      <c r="H3949" s="52"/>
-      <c r="I3949" s="51"/>
-      <c r="J3949" s="51"/>
-    </row>
-    <row r="3950" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3950" s="51"/>
-      <c r="B3950" s="56"/>
-      <c r="C3950" s="51"/>
-      <c r="D3950" s="51"/>
-      <c r="E3950" s="51"/>
-      <c r="F3950" s="51"/>
-      <c r="G3950" s="51"/>
-      <c r="H3950" s="52"/>
-      <c r="I3950" s="51"/>
-      <c r="J3950" s="51"/>
-    </row>
-    <row r="3951" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3951" s="51"/>
-      <c r="B3951" s="56"/>
-      <c r="C3951" s="51"/>
-      <c r="D3951" s="51"/>
-      <c r="E3951" s="51"/>
-      <c r="F3951" s="51"/>
-      <c r="G3951" s="51"/>
-      <c r="H3951" s="52"/>
-      <c r="I3951" s="51"/>
-      <c r="J3951" s="51"/>
-    </row>
-    <row r="3952" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3952" s="51"/>
-      <c r="B3952" s="56"/>
-      <c r="C3952" s="51"/>
-      <c r="D3952" s="51"/>
-      <c r="E3952" s="51"/>
-      <c r="F3952" s="51"/>
-      <c r="G3952" s="51"/>
-      <c r="H3952" s="52"/>
-      <c r="I3952" s="51"/>
-      <c r="J3952" s="51"/>
-    </row>
-    <row r="3953" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3953" s="51"/>
-      <c r="B3953" s="56"/>
-      <c r="C3953" s="51"/>
-      <c r="D3953" s="51"/>
-      <c r="E3953" s="51"/>
-      <c r="F3953" s="51"/>
-      <c r="G3953" s="51"/>
-      <c r="H3953" s="52"/>
-      <c r="I3953" s="51"/>
-      <c r="J3953" s="51"/>
-    </row>
-    <row r="3954" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3954" s="51"/>
-      <c r="B3954" s="56"/>
-      <c r="C3954" s="51"/>
-      <c r="D3954" s="51"/>
-      <c r="E3954" s="51"/>
-      <c r="F3954" s="51"/>
-      <c r="G3954" s="51"/>
-      <c r="H3954" s="52"/>
-      <c r="I3954" s="51"/>
-      <c r="J3954" s="51"/>
-    </row>
-    <row r="3955" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3955" s="51"/>
-      <c r="B3955" s="56"/>
-      <c r="C3955" s="51"/>
-      <c r="D3955" s="51"/>
-      <c r="E3955" s="51"/>
-      <c r="F3955" s="51"/>
-      <c r="G3955" s="51"/>
-      <c r="H3955" s="52"/>
-      <c r="I3955" s="51"/>
-      <c r="J3955" s="51"/>
-    </row>
-    <row r="3956" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3956" s="51"/>
-      <c r="B3956" s="56"/>
-      <c r="C3956" s="51"/>
-      <c r="D3956" s="51"/>
-      <c r="E3956" s="51"/>
-      <c r="F3956" s="51"/>
-      <c r="G3956" s="51"/>
-      <c r="H3956" s="52"/>
-      <c r="I3956" s="51"/>
-      <c r="J3956" s="51"/>
-    </row>
-    <row r="3957" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3957" s="51"/>
-      <c r="B3957" s="56"/>
-      <c r="C3957" s="51"/>
-      <c r="D3957" s="51"/>
-      <c r="E3957" s="51"/>
-      <c r="F3957" s="51"/>
-      <c r="G3957" s="51"/>
-      <c r="H3957" s="52"/>
-      <c r="I3957" s="51"/>
-      <c r="J3957" s="51"/>
-    </row>
-    <row r="3958" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3958" s="51"/>
-      <c r="B3958" s="56"/>
-      <c r="C3958" s="51"/>
-      <c r="D3958" s="51"/>
-      <c r="E3958" s="51"/>
-      <c r="F3958" s="51"/>
-      <c r="G3958" s="51"/>
-      <c r="H3958" s="52"/>
-      <c r="I3958" s="51"/>
-      <c r="J3958" s="51"/>
-    </row>
-    <row r="3959" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3959" s="51"/>
-      <c r="B3959" s="56"/>
-      <c r="C3959" s="51"/>
-      <c r="D3959" s="51"/>
-      <c r="E3959" s="51"/>
-      <c r="F3959" s="51"/>
-      <c r="G3959" s="51"/>
-      <c r="H3959" s="52"/>
-      <c r="I3959" s="51"/>
-      <c r="J3959" s="51"/>
-    </row>
-    <row r="3960" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3960" s="51"/>
-      <c r="B3960" s="56"/>
-      <c r="C3960" s="51"/>
-      <c r="D3960" s="51"/>
-      <c r="E3960" s="51"/>
-      <c r="F3960" s="51"/>
-      <c r="G3960" s="51"/>
-      <c r="H3960" s="52"/>
-      <c r="I3960" s="51"/>
-      <c r="J3960" s="51"/>
-    </row>
-    <row r="3961" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3961" s="51"/>
-      <c r="B3961" s="56"/>
-      <c r="C3961" s="51"/>
-      <c r="D3961" s="51"/>
-      <c r="E3961" s="51"/>
-      <c r="F3961" s="51"/>
-      <c r="G3961" s="51"/>
-      <c r="H3961" s="52"/>
-      <c r="I3961" s="51"/>
-      <c r="J3961" s="51"/>
-    </row>
-    <row r="3962" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3962" s="51"/>
-      <c r="B3962" s="56"/>
-      <c r="C3962" s="51"/>
-      <c r="D3962" s="51"/>
-      <c r="E3962" s="51"/>
-      <c r="F3962" s="51"/>
-      <c r="G3962" s="51"/>
-      <c r="H3962" s="52"/>
-      <c r="I3962" s="51"/>
-      <c r="J3962" s="51"/>
-    </row>
-    <row r="3963" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3963" s="51"/>
-      <c r="B3963" s="56"/>
-      <c r="C3963" s="51"/>
-      <c r="D3963" s="51"/>
-      <c r="E3963" s="51"/>
-      <c r="F3963" s="51"/>
-      <c r="G3963" s="51"/>
-      <c r="H3963" s="52"/>
-      <c r="I3963" s="51"/>
-      <c r="J3963" s="51"/>
-    </row>
-    <row r="3964" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3964" s="51"/>
-      <c r="B3964" s="56"/>
-      <c r="C3964" s="51"/>
-      <c r="D3964" s="51"/>
-      <c r="E3964" s="51"/>
-      <c r="F3964" s="51"/>
-      <c r="G3964" s="51"/>
-      <c r="H3964" s="52"/>
-      <c r="I3964" s="51"/>
-      <c r="J3964" s="51"/>
-    </row>
-    <row r="3965" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3965" s="51"/>
-      <c r="B3965" s="56"/>
-      <c r="C3965" s="51"/>
-      <c r="D3965" s="51"/>
-      <c r="E3965" s="51"/>
-      <c r="F3965" s="51"/>
-      <c r="G3965" s="51"/>
-      <c r="H3965" s="52"/>
-      <c r="I3965" s="51"/>
-      <c r="J3965" s="51"/>
-    </row>
-    <row r="3966" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3966" s="51"/>
-      <c r="B3966" s="56"/>
-      <c r="C3966" s="51"/>
-      <c r="D3966" s="51"/>
-      <c r="E3966" s="51"/>
-      <c r="F3966" s="51"/>
-      <c r="G3966" s="51"/>
-      <c r="H3966" s="52"/>
-      <c r="I3966" s="51"/>
-      <c r="J3966" s="51"/>
-    </row>
-    <row r="3967" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3967" s="51"/>
-      <c r="B3967" s="56"/>
-      <c r="C3967" s="51"/>
-      <c r="D3967" s="51"/>
-      <c r="E3967" s="51"/>
-      <c r="F3967" s="51"/>
-      <c r="G3967" s="51"/>
-      <c r="H3967" s="52"/>
-      <c r="I3967" s="51"/>
-      <c r="J3967" s="51"/>
-    </row>
-    <row r="3968" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3968" s="51"/>
-      <c r="B3968" s="56"/>
-      <c r="C3968" s="51"/>
-      <c r="D3968" s="51"/>
-      <c r="E3968" s="51"/>
-      <c r="F3968" s="51"/>
-      <c r="G3968" s="51"/>
-      <c r="H3968" s="52"/>
-      <c r="I3968" s="51"/>
-      <c r="J3968" s="51"/>
-    </row>
-    <row r="3969" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3969" s="51"/>
-      <c r="B3969" s="56"/>
-      <c r="C3969" s="51"/>
-      <c r="D3969" s="51"/>
-      <c r="E3969" s="51"/>
-      <c r="F3969" s="51"/>
-      <c r="G3969" s="51"/>
-      <c r="H3969" s="52"/>
-      <c r="I3969" s="51"/>
-      <c r="J3969" s="51"/>
-    </row>
-    <row r="3970" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3970" s="51"/>
-      <c r="B3970" s="56"/>
-      <c r="C3970" s="51"/>
-      <c r="D3970" s="51"/>
-      <c r="E3970" s="51"/>
-      <c r="F3970" s="51"/>
-      <c r="G3970" s="51"/>
-      <c r="H3970" s="52"/>
-      <c r="I3970" s="51"/>
-      <c r="J3970" s="51"/>
-    </row>
-    <row r="3971" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3971" s="51"/>
-      <c r="B3971" s="56"/>
-      <c r="C3971" s="51"/>
-      <c r="D3971" s="51"/>
-      <c r="E3971" s="51"/>
-      <c r="F3971" s="51"/>
-      <c r="G3971" s="51"/>
-      <c r="H3971" s="52"/>
-      <c r="I3971" s="51"/>
-      <c r="J3971" s="51"/>
-    </row>
-    <row r="3972" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3972" s="51"/>
-      <c r="B3972" s="56"/>
-      <c r="C3972" s="51"/>
-      <c r="D3972" s="51"/>
-      <c r="E3972" s="51"/>
-      <c r="F3972" s="51"/>
-      <c r="G3972" s="51"/>
-      <c r="H3972" s="52"/>
-      <c r="I3972" s="51"/>
-      <c r="J3972" s="51"/>
-    </row>
-    <row r="3973" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3973" s="51"/>
-      <c r="B3973" s="56"/>
-      <c r="C3973" s="51"/>
-      <c r="D3973" s="51"/>
-      <c r="E3973" s="51"/>
-      <c r="F3973" s="51"/>
-      <c r="G3973" s="51"/>
-      <c r="H3973" s="52"/>
-      <c r="I3973" s="51"/>
-      <c r="J3973" s="51"/>
-    </row>
-    <row r="3974" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3974" s="51"/>
-      <c r="B3974" s="56"/>
-      <c r="C3974" s="3"/>
-      <c r="D3974" s="57"/>
-      <c r="E3974" s="57"/>
-      <c r="F3974" s="3"/>
-      <c r="G3974" s="3"/>
-      <c r="H3974" s="5"/>
-      <c r="I3974" s="3"/>
-      <c r="J3974" s="3"/>
-    </row>
-    <row r="3975" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3975" s="3"/>
-      <c r="B3975" s="56"/>
-      <c r="C3975" s="3"/>
-      <c r="D3975" s="57"/>
-      <c r="E3975" s="57"/>
-      <c r="F3975" s="3"/>
-      <c r="G3975" s="3"/>
-      <c r="H3975" s="5"/>
-      <c r="I3975" s="3"/>
-      <c r="J3975" s="3"/>
-    </row>
-    <row r="3976" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3976" s="3"/>
-      <c r="B3976" s="56"/>
-      <c r="C3976" s="3"/>
-      <c r="D3976" s="3"/>
-      <c r="E3976" s="3"/>
-      <c r="F3976" s="3"/>
-      <c r="G3976" s="3"/>
-      <c r="H3976" s="5"/>
-      <c r="I3976" s="3"/>
-      <c r="J3976" s="3"/>
-    </row>
-    <row r="3977" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3977" s="3"/>
-      <c r="B3977" s="56"/>
-      <c r="C3977" s="3"/>
-      <c r="D3977" s="3"/>
-      <c r="E3977" s="3"/>
-      <c r="F3977" s="3"/>
-      <c r="G3977" s="3"/>
-      <c r="H3977" s="5"/>
-      <c r="I3977" s="3"/>
-      <c r="J3977" s="3"/>
-    </row>
-    <row r="3978" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3978" s="3"/>
-      <c r="B3978" s="56"/>
-      <c r="C3978" s="3"/>
-      <c r="D3978" s="3"/>
-      <c r="E3978" s="3"/>
-      <c r="F3978" s="3"/>
-      <c r="G3978" s="3"/>
-      <c r="H3978" s="5"/>
-      <c r="I3978" s="3"/>
-      <c r="J3978" s="3"/>
-    </row>
-    <row r="3979" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3979" s="3"/>
-      <c r="B3979" s="56"/>
-      <c r="C3979" s="3"/>
-      <c r="D3979" s="3"/>
-      <c r="E3979" s="3"/>
-      <c r="F3979" s="3"/>
-      <c r="G3979" s="3"/>
-      <c r="H3979" s="5"/>
-      <c r="I3979" s="3"/>
-      <c r="J3979" s="3"/>
-    </row>
-    <row r="3980" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3980" s="3"/>
-      <c r="B3980" s="56"/>
-      <c r="C3980" s="3"/>
-      <c r="D3980" s="3"/>
-      <c r="E3980" s="3"/>
-      <c r="F3980" s="3"/>
-      <c r="G3980" s="3"/>
-      <c r="H3980" s="5"/>
-      <c r="I3980" s="3"/>
-      <c r="J3980" s="3"/>
-    </row>
-    <row r="3981" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3981" s="3"/>
-      <c r="B3981" s="56"/>
-      <c r="C3981" s="3"/>
-      <c r="D3981" s="3"/>
-      <c r="E3981" s="3"/>
-      <c r="F3981" s="3"/>
-      <c r="G3981" s="3"/>
-      <c r="H3981" s="5"/>
-      <c r="I3981" s="3"/>
-      <c r="J3981" s="3"/>
-    </row>
-    <row r="3982" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3982" s="3"/>
-      <c r="B3982" s="56"/>
-      <c r="C3982" s="3"/>
-      <c r="D3982" s="3"/>
-      <c r="E3982" s="3"/>
-      <c r="F3982" s="3"/>
-      <c r="G3982" s="3"/>
-      <c r="H3982" s="5"/>
-      <c r="I3982" s="3"/>
-      <c r="J3982" s="3"/>
-    </row>
-    <row r="3983" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3983" s="3"/>
-      <c r="B3983" s="56"/>
-      <c r="C3983" s="3"/>
-      <c r="D3983" s="3"/>
-      <c r="E3983" s="3"/>
-      <c r="F3983" s="3"/>
-      <c r="G3983" s="3"/>
-      <c r="H3983" s="5"/>
-      <c r="I3983" s="3"/>
-      <c r="J3983" s="3"/>
-    </row>
-    <row r="3984" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3984" s="3"/>
-      <c r="B3984" s="56"/>
-      <c r="C3984" s="3"/>
-      <c r="D3984" s="3"/>
-      <c r="E3984" s="3"/>
-      <c r="F3984" s="3"/>
-      <c r="G3984" s="3"/>
-      <c r="H3984" s="5"/>
-      <c r="I3984" s="3"/>
-      <c r="J3984" s="3"/>
-    </row>
-    <row r="3985" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3985" s="3"/>
-      <c r="B3985" s="56"/>
-      <c r="C3985" s="3"/>
-      <c r="D3985" s="3"/>
-      <c r="E3985" s="3"/>
-      <c r="F3985" s="3"/>
-      <c r="G3985" s="3"/>
-      <c r="H3985" s="5"/>
-      <c r="I3985" s="3"/>
-      <c r="J3985" s="3"/>
-    </row>
-    <row r="3986" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3986" s="3"/>
-      <c r="B3986" s="56"/>
-      <c r="C3986" s="3"/>
-      <c r="D3986" s="3"/>
-      <c r="E3986" s="3"/>
-      <c r="F3986" s="3"/>
-      <c r="G3986" s="3"/>
-      <c r="H3986" s="5"/>
-      <c r="I3986" s="3"/>
-      <c r="J3986" s="3"/>
-    </row>
-    <row r="3987" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3987" s="3"/>
+      <c r="A3887" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J4270" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M2517">
-    <sortCondition ref="J4:J2517"/>
+  <autoFilter ref="A1:J4170" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J2417">
+    <sortCondition ref="J4:J2417"/>
   </sortState>
   <conditionalFormatting sqref="G435:G436">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
@@ -50545,10 +49335,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1450" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1350" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$4:$A$68</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C28 C36:C48 C151:C203 C304:C347 C460:C508 C676:C698 C733:C753 C771:C796 C897:C925 H926:H993 C1019:C1059 C1068:C3868" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C28 C36:C48 C151:C203 C304:C347 C460:C508 C676:C698 C733:C753 C771:C796 C897:C925 H926:H993 C1019:C1059 C1068:C3768" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$A$11:$A$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B415:B433 C434:C459 C377:C414 C509:C521 C546:C657 A873:B883 C822:C896" xr:uid="{00000000-0002-0000-0100-000002000000}">
@@ -50567,109 +49357,109 @@
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3974:G1048576 G347 G136:G186 G926:G993 G1311:G1682 G1692:G1868 G1904:G2169 G2182:G3868 G2:G28 G36:G48 G752:G753 G1068:G1300</xm:sqref>
+          <xm:sqref>G3874:G1048576 G347 G136:G186 G926:G993 G1211:G1582 G1592:G1768 G1804:G2069 G2082:G3768 G2:G28 G36:G48 G752:G753 G1068:G1200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>SQA!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3975:A1048576 A347 A926:A993 A1312:A1683 A1693:A1869 A1905:A2170 A2183:A3869 A1:A28 A36:A48 A136:A186 A752:A753 A895:A900 A1068:A1301</xm:sqref>
+          <xm:sqref>A3875:A1048576 A347 A926:A993 A1212:A1583 A1593:A1769 A1805:A2070 A2083:A3769 A1:A28 A36:A48 A136:A186 A752:A753 A895:A900 A1068:A1201</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>'Deliverable Types'!$A$1:$A$31</xm:f>
           </x14:formula1>
-          <xm:sqref>D3974:D1048576 D347 D929 D1311:D1682 D1692:D1868 D1904:D2169 D2182:D3868 D2:D28 D36:D48 D136:D154 D166:D168 D157:D164 D179:D186 D752:D753 D895:D896 D899:D900 A926:A993 D1068:D1300</xm:sqref>
+          <xm:sqref>D3874:D1048576 D347 D929 D1211:D1582 D1592:D1768 D1804:D2069 D2082:D3768 D2:D28 D36:D48 D136:D154 D166:D168 D157:D164 D179:D186 D752:D753 D895:D896 D899:D900 A926:A993 D1068:D1200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3869:D3973 D1301:D1310</xm:sqref>
+          <xm:sqref>D3769:D3873 D1201:D1210</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3869:G3973 G1301:G1310</xm:sqref>
+          <xm:sqref>G3769:G3873 G1201:G1210</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A3870:A3974 A1302:A1311</xm:sqref>
+          <xm:sqref>A3770:A3874 A1202:A1211</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D1683:D1691</xm:sqref>
+          <xm:sqref>D1583:D1591</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G1683:G1691</xm:sqref>
+          <xm:sqref>G1583:G1591</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A1684:A1692</xm:sqref>
+          <xm:sqref>A1584:A1592</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D1869:D1903</xm:sqref>
+          <xm:sqref>D1769:D1803</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A1870:A1904</xm:sqref>
+          <xm:sqref>A1770:A1804</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G1869:G1903</xm:sqref>
+          <xm:sqref>G1769:G1803</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D2170:D2181</xm:sqref>
+          <xm:sqref>D2070:D2081</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000010000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A2171:A2182</xm:sqref>
+          <xm:sqref>A2071:A2082</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000011000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G2170:G2181</xm:sqref>
+          <xm:sqref>G2070:G2081</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000012000000}">
           <x14:formula1>
             <xm:f>'Reasons for Disapproval'!$A$1:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>I3974:I1048576 I2:I29 I36:I48 I136:I186 I347 I752:I753 I895:I897 I899:I900 I933 I928:I929 I931 I936:I937 I944:I945 I947:I956 I958:I963 I965 I939:I942 I969:I993 I1068:I3868</xm:sqref>
+          <xm:sqref>I3874:I1048576 I2:I29 I36:I48 I136:I186 I347 I752:I753 I895:I897 I899:I900 I933 I928:I929 I931 I936:I937 I944:I945 I947:I956 I958:I963 I965 I939:I942 I969:I993 I1068:I3768</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000013000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Reasons for Disapproval'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I3869:I3973</xm:sqref>
+          <xm:sqref>I3769:I3873</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Application'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C3869:C3973</xm:sqref>
+          <xm:sqref>C3769:C3873</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000015000000}">
           <x14:formula1>
@@ -50771,7 +49561,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\meilx\Desktop\[FPA_Dallas_Mei Lan''s portion 10_31_6pm.xlsx]Reasons for Disapproval'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I381:I459 I377:I378 I640 I627 I622:I623 H619 H621:H624 H617 I562 H593:H615 I553 I556 I558 H550:H569 I610:I615 I607 I594 I589:I590 H572:I572 H574:H582 H584 H586 H588:H591 I570 I509:I550 H626:H657 I656 I643:I649 I820:I821 K873:K882 I883</xm:sqref>
+          <xm:sqref>I381:I459 I377:I378 I640 I627 I622:I623 H619 H621:H624 H617 I562 H593:H615 I553 I556 I558 H550:H569 I610:I615 I607 I594 I589:I590 H572:I572 H574:H582 H584 H586 H588:H591 I570 I509:I550 H626:H657 I656 I643:I649 I820:I821 I883</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000027000000}">
           <x14:formula1>
@@ -50795,7 +49585,7 @@
           <x14:formula1>
             <xm:f>Application!$A$19:$A$98</xm:f>
           </x14:formula1>
-          <xm:sqref>C3974:C1048576</xm:sqref>
+          <xm:sqref>C3874:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26F28218-8B16-4FD4-A04E-938C40C29027}">
           <x14:formula1>

--- a/data/First Pass Acceptance_Dallas.xlsx
+++ b/data/First Pass Acceptance_Dallas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\firstPassAcceptance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5CA7789-5BA5-4F01-A4B7-767886FD1B4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627D5A07-4CE9-4831-8C7B-5940E136CACE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="480" windowWidth="16665" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACR" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACR!$A$1:$J$670</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Application!$A$1:$A$87</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$4169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$4167</definedName>
     <definedName name="ListingItemLink" localSheetId="0">ACR!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8861" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9817" uniqueCount="935">
   <si>
     <t>Project ID</t>
   </si>
@@ -2723,6 +2723,156 @@
   </si>
   <si>
     <t>Maintenance-01</t>
+  </si>
+  <si>
+    <t>VVSR-01v02</t>
+  </si>
+  <si>
+    <t>UDoc01-03</t>
+  </si>
+  <si>
+    <t>VERA/Dallas GSS/LOG-IC 5.0</t>
+  </si>
+  <si>
+    <t>LOG-IC 5.0</t>
+  </si>
+  <si>
+    <t>SCR</t>
+  </si>
+  <si>
+    <t>User Requirement</t>
+  </si>
+  <si>
+    <t>CSIT09958</t>
+  </si>
+  <si>
+    <t>TMAtrix-01</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Other-07</t>
+  </si>
+  <si>
+    <t>Other-08</t>
+  </si>
+  <si>
+    <t>SDD-02</t>
+  </si>
+  <si>
+    <t>SCR Release 4.16</t>
+  </si>
+  <si>
+    <t>Dallas_R_D_Tools, Test 116</t>
+  </si>
+  <si>
+    <t>Dallas_R_D_Tools, Test 375</t>
+  </si>
+  <si>
+    <t>Dallas_R_D_Tools, Test 376</t>
+  </si>
+  <si>
+    <t>Dallas_R_D_Tools, Test 361</t>
+  </si>
+  <si>
+    <t>Install-12 Results (QA)</t>
+  </si>
+  <si>
+    <t>MaintPlan2</t>
+  </si>
+  <si>
+    <t>Install-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install -14 Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol-18 - Results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol-19 - Results </t>
+  </si>
+  <si>
+    <t>Protocol-21</t>
+  </si>
+  <si>
+    <t>URS-1v02</t>
+  </si>
+  <si>
+    <t>Protocol-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install-15 Result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol-3 Result </t>
+  </si>
+  <si>
+    <t>SCR-08 V02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol-1 Result </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install-14 Result </t>
+  </si>
+  <si>
+    <t>Protocol-18 Result</t>
+  </si>
+  <si>
+    <t>Protocol-19 Result</t>
+  </si>
+  <si>
+    <t>Testprotocol-21</t>
+  </si>
+  <si>
+    <t>Tmatrixuspro-1</t>
+  </si>
+  <si>
+    <t>Other-14 Security Matrix</t>
+  </si>
+  <si>
+    <t>Protocol-2-Result</t>
+  </si>
+  <si>
+    <t>Testprotocol-21-Result</t>
+  </si>
+  <si>
+    <t>VVSR06</t>
+  </si>
+  <si>
+    <t>Protocol-16</t>
+  </si>
+  <si>
+    <t>VDD01-06</t>
+  </si>
+  <si>
+    <t>DA-S-00921.001</t>
+  </si>
+  <si>
+    <t>SCR-15</t>
+  </si>
+  <si>
+    <t>SCR-16</t>
+  </si>
+  <si>
+    <t>Install -7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install -7 Results </t>
+  </si>
+  <si>
+    <t>DA-S-00774.010</t>
+  </si>
+  <si>
+    <t>DA-S-00923.001</t>
+  </si>
+  <si>
+    <t>Install -6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install-6 results </t>
   </si>
 </sst>
 </file>
@@ -2882,7 +3032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3063,6 +3213,30 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3303,13 +3477,13 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Application"/>
-      <sheetName val="Reasons for Disapproval"/>
-      <sheetName val="Deliverable Types"/>
-      <sheetName val="SQA"/>
-      <sheetName val="A or D"/>
       <sheetName val="ACR"/>
       <sheetName val="FPA"/>
+      <sheetName val="SQA"/>
+      <sheetName val="Application"/>
+      <sheetName val="Deliverable Types"/>
+      <sheetName val="Reasons for Disapproval"/>
+      <sheetName val="A or D"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3389,12 +3563,12 @@
       <sheetName val="A or D"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
@@ -3731,8 +3905,8 @@
   <dimension ref="A1:J674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,17 +4343,30 @@
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="21"/>
+      <c r="A23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="D23" s="21">
+        <v>43909.870694444442</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="29"/>
-      <c r="D25" s="21"/>
-      <c r="H25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="G25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="20"/>
@@ -6944,14 +7131,7 @@
       <c r="D674" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J670" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J670">
-      <sortCondition ref="D1:D670"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E19">
-    <sortCondition ref="D5:D19"/>
-  </sortState>
+  <autoFilter ref="A1:J670" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G76:G89 G97:G277" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>D76</formula1>
@@ -6965,9 +7145,10 @@
     <hyperlink ref="C4" r:id="rId2" tooltip="Update FA flag for Alinity s parts" display="http://mashup.oneabbott.com/tmtrack/tmtrack.dll?IssuePage&amp;RecordId=14182&amp;Template=view&amp;TableId=1025" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C3" r:id="rId3" tooltip="Update product codes sent to GIM" display="http://mashup.oneabbott.com/tmtrack/tmtrack.dll?IssuePage&amp;RecordId=14326&amp;Template=view&amp;TableId=1025" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C13" r:id="rId4" tooltip="Add Global Quality approvals for LSP Used approved parts" display="http://mashup.oneabbott.com/tmtrack/tmtrack.dll?IssuePage&amp;RecordId=14679&amp;Template=view&amp;TableId=1025" xr:uid="{D58A4EC4-A192-4D7B-A476-9B237117FC51}"/>
+    <hyperlink ref="C23" r:id="rId5" tooltip="Update FA flag for Alinity parts" display="http://mashup/tmtrack/tmtrack.dll?IssuePage&amp;RecordId=14780&amp;Template=view&amp;TableId=1025" xr:uid="{6F8DFA1A-AA24-49E0-8E77-21B908356E36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -6975,13 +7156,13 @@
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H34:H51 H319:H1048576 E34:E51 H66:H75 E66:E75 E319:E1048576 E90:E96 H90:H96 H278:H317 E278:E317 G318 H2:H30 E1:E30</xm:sqref>
+          <xm:sqref>H34:H51 H319:H1048576 E34:E51 H66:H75 E66:E75 E319:E1048576 E90:E96 H90:H96 H278:H317 E278:E317 G318 E1:E30 H2:H23 H26:H30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'Reasons for Disapproval'!$A$1:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>I34:I51 I66:I75 I90:I96 I278:I317 I319:I1048576 I2:I30</xm:sqref>
+          <xm:sqref>I34:I51 I66:I75 I90:I96 I278:I317 I319:I1048576 F24:F25 I2:I23 I26:I30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
@@ -7027,11 +7208,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J3874"/>
+  <dimension ref="A1:J3872"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1198" sqref="A1198"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1332" sqref="A1332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40385,10 +40566,10 @@
       <c r="A1144" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1144" s="52" t="s">
+      <c r="B1144" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1144" s="36" t="s">
+      <c r="C1144" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1144" s="6" t="s">
@@ -40417,10 +40598,10 @@
       <c r="A1145" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1145" s="52" t="s">
+      <c r="B1145" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1145" s="36" t="s">
+      <c r="C1145" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1145" s="6" t="s">
@@ -40449,10 +40630,10 @@
       <c r="A1146" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1146" s="52" t="s">
+      <c r="B1146" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1146" s="36" t="s">
+      <c r="C1146" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1146" s="6" t="s">
@@ -40478,10 +40659,10 @@
       <c r="A1147" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1147" s="52" t="s">
+      <c r="B1147" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1147" s="36" t="s">
+      <c r="C1147" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1147" s="6" t="s">
@@ -40510,10 +40691,10 @@
       <c r="A1148" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1148" s="52" t="s">
+      <c r="B1148" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1148" s="36" t="s">
+      <c r="C1148" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1148" s="6" t="s">
@@ -40539,10 +40720,10 @@
       <c r="A1149" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1149" s="52" t="s">
+      <c r="B1149" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1149" s="36" t="s">
+      <c r="C1149" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1149" s="6" t="s">
@@ -40571,10 +40752,10 @@
       <c r="A1150" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1150" s="52" t="s">
+      <c r="B1150" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1150" s="36" t="s">
+      <c r="C1150" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1150" s="6" t="s">
@@ -40603,10 +40784,10 @@
       <c r="A1151" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1151" s="52" t="s">
+      <c r="B1151" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1151" s="36" t="s">
+      <c r="C1151" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1151" s="6" t="s">
@@ -40635,10 +40816,10 @@
       <c r="A1152" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1152" s="52" t="s">
+      <c r="B1152" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1152" s="36" t="s">
+      <c r="C1152" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1152" s="6" t="s">
@@ -40664,10 +40845,10 @@
       <c r="A1153" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1153" s="52" t="s">
+      <c r="B1153" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1153" s="36" t="s">
+      <c r="C1153" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1153" s="6" t="s">
@@ -40696,10 +40877,10 @@
       <c r="A1154" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1154" s="52" t="s">
+      <c r="B1154" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1154" s="36" t="s">
+      <c r="C1154" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1154" s="6" t="s">
@@ -40717,7 +40898,7 @@
       <c r="H1154" s="35">
         <v>43875</v>
       </c>
-      <c r="I1154" s="39" t="s">
+      <c r="I1154" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J1154" s="6" t="s">
@@ -40728,10 +40909,10 @@
       <c r="A1155" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1155" s="52" t="s">
+      <c r="B1155" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1155" s="36" t="s">
+      <c r="C1155" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1155" s="6" t="s">
@@ -40757,16 +40938,16 @@
       <c r="A1156" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1156" s="52" t="s">
+      <c r="B1156" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1156" s="36" t="s">
+      <c r="C1156" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1156" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1156" s="13">
+      <c r="E1156" s="6">
         <v>1</v>
       </c>
       <c r="F1156" s="6" t="s">
@@ -40789,16 +40970,16 @@
       <c r="A1157" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1157" s="52" t="s">
+      <c r="B1157" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1157" s="36" t="s">
+      <c r="C1157" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1157" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1157" s="13">
+      <c r="E1157" s="6">
         <v>1</v>
       </c>
       <c r="F1157" s="6" t="s">
@@ -40818,10 +40999,10 @@
       <c r="A1158" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1158" s="52" t="s">
+      <c r="B1158" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1158" s="36" t="s">
+      <c r="C1158" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1158" s="6" t="s">
@@ -40850,10 +41031,10 @@
       <c r="A1159" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1159" s="52" t="s">
+      <c r="B1159" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1159" s="36" t="s">
+      <c r="C1159" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1159" s="6" t="s">
@@ -40879,10 +41060,10 @@
       <c r="A1160" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1160" s="52" t="s">
+      <c r="B1160" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1160" s="36" t="s">
+      <c r="C1160" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1160" s="6" t="s">
@@ -40911,10 +41092,10 @@
       <c r="A1161" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1161" s="52" t="s">
+      <c r="B1161" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1161" s="36" t="s">
+      <c r="C1161" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1161" s="6" t="s">
@@ -40940,16 +41121,16 @@
       <c r="A1162" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1162" s="52" t="s">
+      <c r="B1162" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1162" s="36" t="s">
+      <c r="C1162" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1162" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1162" s="13">
+      <c r="E1162" s="6">
         <v>1</v>
       </c>
       <c r="F1162" s="6" t="s">
@@ -40972,16 +41153,16 @@
       <c r="A1163" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1163" s="52" t="s">
+      <c r="B1163" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1163" s="36" t="s">
+      <c r="C1163" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1163" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1163" s="13">
+      <c r="E1163" s="6">
         <v>1</v>
       </c>
       <c r="F1163" s="6" t="s">
@@ -41001,10 +41182,10 @@
       <c r="A1164" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1164" s="52" t="s">
+      <c r="B1164" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1164" s="36" t="s">
+      <c r="C1164" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1164" s="6" t="s">
@@ -41030,10 +41211,10 @@
       <c r="A1165" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1165" s="52" t="s">
+      <c r="B1165" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1165" s="36" t="s">
+      <c r="C1165" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1165" s="6" t="s">
@@ -41059,10 +41240,10 @@
       <c r="A1166" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1166" s="52" t="s">
+      <c r="B1166" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1166" s="36" t="s">
+      <c r="C1166" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D1166" s="6" t="s">
@@ -41091,10 +41272,10 @@
       <c r="A1167" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1167" s="64" t="s">
+      <c r="B1167" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C1167" s="51" t="s">
+      <c r="C1167" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D1167" s="6" t="s">
@@ -41123,10 +41304,10 @@
       <c r="A1168" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1168" s="64" t="s">
+      <c r="B1168" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C1168" s="51" t="s">
+      <c r="C1168" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D1168" s="6" t="s">
@@ -41152,10 +41333,10 @@
       <c r="A1169" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1169" s="64" t="s">
+      <c r="B1169" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C1169" s="51" t="s">
+      <c r="C1169" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D1169" s="6" t="s">
@@ -41184,10 +41365,10 @@
       <c r="A1170" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1170" s="64" t="s">
+      <c r="B1170" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C1170" s="51" t="s">
+      <c r="C1170" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D1170" s="6" t="s">
@@ -41213,10 +41394,10 @@
       <c r="A1171" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1171" s="64" t="s">
+      <c r="B1171" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C1171" s="51" t="s">
+      <c r="C1171" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D1171" s="6" t="s">
@@ -41245,10 +41426,10 @@
       <c r="A1172" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1172" s="64" t="s">
+      <c r="B1172" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C1172" s="51" t="s">
+      <c r="C1172" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D1172" s="6" t="s">
@@ -41277,10 +41458,10 @@
       <c r="A1173" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1173" s="64" t="s">
+      <c r="B1173" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C1173" s="51" t="s">
+      <c r="C1173" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D1173" s="6" t="s">
@@ -41309,10 +41490,10 @@
       <c r="A1174" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1174" s="64" t="s">
+      <c r="B1174" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C1174" s="51" t="s">
+      <c r="C1174" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D1174" s="6" t="s">
@@ -41341,7 +41522,7 @@
       <c r="A1175" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1175" s="52" t="s">
+      <c r="B1175" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1175" s="6" t="s">
@@ -41373,7 +41554,7 @@
       <c r="A1176" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1176" s="52" t="s">
+      <c r="B1176" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1176" s="6" t="s">
@@ -41402,7 +41583,7 @@
       <c r="A1177" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1177" s="52" t="s">
+      <c r="B1177" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1177" s="6" t="s">
@@ -41434,7 +41615,7 @@
       <c r="A1178" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1178" s="52" t="s">
+      <c r="B1178" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1178" s="6" t="s">
@@ -41463,7 +41644,7 @@
       <c r="A1179" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1179" s="52" t="s">
+      <c r="B1179" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1179" s="6" t="s">
@@ -41472,7 +41653,7 @@
       <c r="D1179" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1179" s="13">
+      <c r="E1179" s="6">
         <v>1</v>
       </c>
       <c r="F1179" s="6" t="s">
@@ -41492,7 +41673,7 @@
       <c r="A1180" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1180" s="52" t="s">
+      <c r="B1180" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1180" s="6" t="s">
@@ -41501,7 +41682,7 @@
       <c r="D1180" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1180" s="13">
+      <c r="E1180" s="6">
         <v>1</v>
       </c>
       <c r="F1180" s="6" t="s">
@@ -41524,7 +41705,7 @@
       <c r="A1181" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1181" s="52" t="s">
+      <c r="B1181" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1181" s="6" t="s">
@@ -41533,7 +41714,7 @@
       <c r="D1181" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1181" s="13">
+      <c r="E1181" s="6">
         <v>1</v>
       </c>
       <c r="F1181" s="6" t="s">
@@ -41553,7 +41734,7 @@
       <c r="A1182" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1182" s="52" t="s">
+      <c r="B1182" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1182" s="6" t="s">
@@ -41562,7 +41743,7 @@
       <c r="D1182" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1182" s="13">
+      <c r="E1182" s="6">
         <v>2</v>
       </c>
       <c r="F1182" s="6" t="s">
@@ -41585,7 +41766,7 @@
       <c r="A1183" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1183" s="52" t="s">
+      <c r="B1183" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1183" s="6" t="s">
@@ -41614,7 +41795,7 @@
       <c r="A1184" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1184" s="52" t="s">
+      <c r="B1184" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1184" s="6" t="s">
@@ -41643,7 +41824,7 @@
       <c r="A1185" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1185" s="52" t="s">
+      <c r="B1185" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1185" s="6" t="s">
@@ -41672,7 +41853,7 @@
       <c r="A1186" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1186" s="52" t="s">
+      <c r="B1186" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1186" s="6" t="s">
@@ -41704,7 +41885,7 @@
       <c r="A1187" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1187" s="52" t="s">
+      <c r="B1187" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1187" s="6" t="s">
@@ -41736,7 +41917,7 @@
       <c r="A1188" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1188" s="52" t="s">
+      <c r="B1188" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1188" s="6" t="s">
@@ -41765,7 +41946,7 @@
       <c r="A1189" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1189" s="52" t="s">
+      <c r="B1189" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1189" s="6" t="s">
@@ -41797,7 +41978,7 @@
       <c r="A1190" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1190" s="52" t="s">
+      <c r="B1190" s="63" t="s">
         <v>177</v>
       </c>
       <c r="C1190" s="6" t="s">
@@ -41826,7 +42007,7 @@
       <c r="A1191" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1191" s="52" t="s">
+      <c r="B1191" s="63" t="s">
         <v>317</v>
       </c>
       <c r="C1191" s="6" t="s">
@@ -41858,10 +42039,10 @@
       <c r="A1192" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1192" s="52" t="s">
+      <c r="B1192" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C1192" s="36" t="s">
+      <c r="C1192" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D1192" s="6" t="s">
@@ -41890,10 +42071,10 @@
       <c r="A1193" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1193" s="52" t="s">
+      <c r="B1193" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C1193" s="36" t="s">
+      <c r="C1193" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D1193" s="6" t="s">
@@ -41922,10 +42103,10 @@
       <c r="A1194" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1194" s="52" t="s">
+      <c r="B1194" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C1194" s="36" t="s">
+      <c r="C1194" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D1194" s="6" t="s">
@@ -41954,10 +42135,10 @@
       <c r="A1195" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1195" s="52" t="s">
+      <c r="B1195" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C1195" s="36" t="s">
+      <c r="C1195" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D1195" s="6" t="s">
@@ -41986,10 +42167,10 @@
       <c r="A1196" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1196" s="52" t="s">
+      <c r="B1196" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C1196" s="36" t="s">
+      <c r="C1196" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D1196" s="6" t="s">
@@ -42015,10 +42196,10 @@
       <c r="A1197" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B1197" s="52" t="s">
+      <c r="B1197" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C1197" s="36" t="s">
+      <c r="C1197" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D1197" s="6" t="s">
@@ -42040,32 +42221,4021 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1367" s="38"/>
-    </row>
-    <row r="1583" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1583" s="66"/>
-      <c r="G1583" s="59"/>
-    </row>
-    <row r="1584" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1584" s="66"/>
-      <c r="G1584" s="59"/>
-    </row>
-    <row r="1587" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1587" s="66"/>
-      <c r="G1587" s="59"/>
-    </row>
-    <row r="1588" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1588" s="66"/>
-      <c r="G1588" s="59"/>
-    </row>
-    <row r="1602" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1602" s="66"/>
-      <c r="G1602" s="59"/>
-    </row>
-    <row r="1603" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1603" s="66"/>
-      <c r="G1603" s="59"/>
+    <row r="1198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1198" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1198" s="63" t="s">
+        <v>878</v>
+      </c>
+      <c r="C1198" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1198" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="E1198" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1198" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1198" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1198" s="35">
+        <v>43896.437013888892</v>
+      </c>
+      <c r="I1198" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1199" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1199" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1199" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1199" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1199" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1199" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="G1199" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1199" s="35">
+        <v>43906.411226851851</v>
+      </c>
+      <c r="I1199" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1200" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1200" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1200" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1200" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1200" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1200" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="G1200" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1200" s="35">
+        <v>43907.411226851851</v>
+      </c>
+      <c r="I1200" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1201" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1201" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1201" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1201" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1201" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1201" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="G1201" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1201" s="35">
+        <v>43907.411226851851</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1202" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1202" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1202" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1202" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E1202" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1202" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="G1202" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1202" s="35">
+        <v>43908.546678240738</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1203" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1203" s="63" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1203" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1203" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1203" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1203" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="G1203" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1203" s="35">
+        <v>43920.633726851855</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1204" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1204" s="63" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1204" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1204" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E1204" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1204" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1204" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1204" s="35">
+        <v>43907</v>
+      </c>
+      <c r="I1204" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1205" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1205" s="63" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1205" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1205" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E1205" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1205" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1205" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1205" s="35">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1206" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1206" s="63" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1206" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1206" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="E1206" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1206" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="G1206" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1206" s="35">
+        <v>43907</v>
+      </c>
+      <c r="I1206" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1207" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1207" s="63" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1207" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1207" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="E1207" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1207" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="G1207" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1207" s="35">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1208" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1208" s="63" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1208" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1208" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="E1208" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1208" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="G1208" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1208" s="35">
+        <v>43907</v>
+      </c>
+      <c r="I1208" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1209" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1209" s="63" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1209" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1209" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="E1209" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1209" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="G1209" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1209" s="35">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1210" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1210" s="63" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1210" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1210" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="E1210" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1210" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1210" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1210" s="35">
+        <v>43913</v>
+      </c>
+      <c r="I1210" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1211" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1211" s="63" t="s">
+        <v>887</v>
+      </c>
+      <c r="C1211" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="D1211" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="E1211" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1211" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1211" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1211" s="35">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1212" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1212" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1212" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1212" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1212" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1212" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1212" s="75">
+        <v>43893</v>
+      </c>
+      <c r="I1212" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1212" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1213" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1213" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1213" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1213" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1213" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1213" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1213" s="75">
+        <v>43893</v>
+      </c>
+      <c r="I1213" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1213" s="3"/>
+    </row>
+    <row r="1214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1214" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1214" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1214" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1214" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1214" s="5">
+        <v>6</v>
+      </c>
+      <c r="F1214" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="G1214" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1214" s="75">
+        <v>43893</v>
+      </c>
+      <c r="I1214" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1214" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1215" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1215" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1215" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1215" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1215" s="5">
+        <v>6</v>
+      </c>
+      <c r="F1215" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="G1215" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1215" s="76">
+        <v>43894</v>
+      </c>
+      <c r="I1215" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1215" s="5"/>
+    </row>
+    <row r="1216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1216" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1216" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1216" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1216" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1216" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1216" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1216" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1216" s="75">
+        <v>43893</v>
+      </c>
+      <c r="I1216" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1216" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1217" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1217" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1217" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1217" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1217" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1217" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1217" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1217" s="76">
+        <v>43894</v>
+      </c>
+      <c r="I1217" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1217" s="3"/>
+    </row>
+    <row r="1218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1218" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1218" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1218" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1218" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1218" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1218" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1218" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1218" s="75">
+        <v>43895</v>
+      </c>
+      <c r="I1218" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1218" s="3"/>
+    </row>
+    <row r="1219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1219" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1219" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1219" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1219" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1219" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1219" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1219" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1219" s="75">
+        <v>43903</v>
+      </c>
+      <c r="I1219" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1219" s="3"/>
+    </row>
+    <row r="1220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1220" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1220" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1220" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1220" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1220" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1220" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1220" s="75">
+        <v>43917</v>
+      </c>
+      <c r="I1220" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1220" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1221" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1221" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1221" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1221" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1221" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="G1221" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1221" s="75">
+        <v>43909</v>
+      </c>
+      <c r="I1221" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1221" s="3"/>
+    </row>
+    <row r="1222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1222" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1222" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1222" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1222" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1222" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1222" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1222" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1222" s="75">
+        <v>43914</v>
+      </c>
+      <c r="I1222" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1222" s="3"/>
+    </row>
+    <row r="1223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1223" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1223" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1223" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1223" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1223" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1223" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1223" s="75">
+        <v>43896</v>
+      </c>
+      <c r="I1223" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1223" s="3"/>
+    </row>
+    <row r="1224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1224" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1224" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1224" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1224" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1224" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1224" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1224" s="75">
+        <v>43906</v>
+      </c>
+      <c r="I1224" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1224" s="3"/>
+    </row>
+    <row r="1225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1225" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1225" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1225" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1225" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1225" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1225" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1225" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1225" s="75">
+        <v>43906</v>
+      </c>
+      <c r="I1225" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1225" s="3"/>
+    </row>
+    <row r="1226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1226" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1226" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1226" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1226" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1226" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1226" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1226" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1226" s="76">
+        <v>43894</v>
+      </c>
+      <c r="I1226" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1226" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1227" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1227" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1227" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1227" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1227" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1227" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1227" s="76">
+        <v>43909</v>
+      </c>
+      <c r="I1227" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1227" s="3"/>
+    </row>
+    <row r="1228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1228" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1228" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1228" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1228" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1228" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1228" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="G1228" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1228" s="75">
+        <v>43910</v>
+      </c>
+      <c r="I1228" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1228" s="3"/>
+    </row>
+    <row r="1229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1229" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1229" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1229" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1229" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1229" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1229" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1229" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1229" s="75">
+        <v>43896</v>
+      </c>
+      <c r="I1229" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1229" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1230" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1230" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1230" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1230" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1230" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1230" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1230" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1230" s="75">
+        <v>43906</v>
+      </c>
+      <c r="I1230" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1230" s="3"/>
+    </row>
+    <row r="1231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1231" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1231" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1231" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1231" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1231" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1231" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1231" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1231" s="75">
+        <v>43914</v>
+      </c>
+      <c r="I1231" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1231" s="3"/>
+    </row>
+    <row r="1232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1232" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1232" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1232" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1232" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1232" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1232" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1232" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1232" s="75">
+        <v>43892</v>
+      </c>
+      <c r="I1232" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1232" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1233" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1233" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1233" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1233" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1233" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1233" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1233" s="75">
+        <v>43895</v>
+      </c>
+      <c r="I1233" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1233" s="3"/>
+    </row>
+    <row r="1234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1234" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1234" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1234" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1234" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1234" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1234" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1234" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1234" s="75">
+        <v>43892</v>
+      </c>
+      <c r="I1234" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1234" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1235" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1235" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1235" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1235" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1235" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1235" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1235" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1235" s="75">
+        <v>43895</v>
+      </c>
+      <c r="I1235" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1235" s="3"/>
+    </row>
+    <row r="1236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1236" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1236" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1236" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1236" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1236" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1236" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1236" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1236" s="75">
+        <v>43892</v>
+      </c>
+      <c r="I1236" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1236" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1237" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1237" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1237" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1237" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1237" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1237" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1237" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1237" s="75">
+        <v>43895</v>
+      </c>
+      <c r="I1237" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1237" s="3"/>
+    </row>
+    <row r="1238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1238" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1238" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1238" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1238" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1238" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1238" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1238" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1238" s="75">
+        <v>43896</v>
+      </c>
+      <c r="I1238" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1238" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1239" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1239" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1239" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1239" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1239" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1239" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1239" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1239" s="75">
+        <v>43896</v>
+      </c>
+      <c r="I1239" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1239" s="3"/>
+    </row>
+    <row r="1240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1240" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1240" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1240" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1240" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1240" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1240" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1240" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1240" s="75">
+        <v>43900</v>
+      </c>
+      <c r="I1240" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1240" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1241" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1241" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1241" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1241" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1241" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1241" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1241" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1241" s="75">
+        <v>43903</v>
+      </c>
+      <c r="I1241" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1241" s="3"/>
+    </row>
+    <row r="1242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1242" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1242" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1242" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1242" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1242" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1242" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1242" s="75">
+        <v>43895</v>
+      </c>
+      <c r="I1242" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1242" s="3"/>
+    </row>
+    <row r="1243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1243" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1243" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1243" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1243" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1243" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1243" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1243" s="75">
+        <v>43900</v>
+      </c>
+      <c r="I1243" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1243" s="3"/>
+    </row>
+    <row r="1244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1244" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1244" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1244" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1244" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1244" s="5"/>
+      <c r="F1244" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G1244" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1244" s="76">
+        <v>43899</v>
+      </c>
+      <c r="I1244" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1244" s="5"/>
+    </row>
+    <row r="1245" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1245" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1245" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1245" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1245" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1245" s="5"/>
+      <c r="F1245" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G1245" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1245" s="76">
+        <v>43900</v>
+      </c>
+      <c r="I1245" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1245" s="5"/>
+    </row>
+    <row r="1246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1246" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1246" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1246" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1246" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1246" s="5"/>
+      <c r="F1246" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G1246" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1246" s="76">
+        <v>43902</v>
+      </c>
+      <c r="I1246" s="5"/>
+      <c r="J1246" s="5"/>
+    </row>
+    <row r="1247" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1247" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1247" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1247" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1247" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1247" s="5"/>
+      <c r="F1247" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1247" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1247" s="76">
+        <v>43905</v>
+      </c>
+      <c r="I1247" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1247" s="5"/>
+    </row>
+    <row r="1248" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1248" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1248" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1248" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1248" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1248" s="5"/>
+      <c r="F1248" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1248" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1248" s="76">
+        <v>43917</v>
+      </c>
+      <c r="I1248" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1248" s="5"/>
+    </row>
+    <row r="1249" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1249" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1249" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1249" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1249" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1249" s="5"/>
+      <c r="F1249" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="G1249" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1249" s="76">
+        <v>43905</v>
+      </c>
+      <c r="I1249" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1249" s="5"/>
+    </row>
+    <row r="1250" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1250" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1250" s="81" t="s">
+        <v>834</v>
+      </c>
+      <c r="C1250" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1250" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1250" s="5"/>
+      <c r="F1250" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="G1250" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1250" s="76">
+        <v>43920</v>
+      </c>
+      <c r="I1250" s="5"/>
+      <c r="J1250" s="5"/>
+    </row>
+    <row r="1251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1251" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1251" s="81" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1251" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1251" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1251" s="5"/>
+      <c r="F1251" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="G1251" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="H1251" s="76">
+        <v>43895</v>
+      </c>
+      <c r="I1251" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1251" s="5"/>
+    </row>
+    <row r="1252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1252" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1252" s="81" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1252" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D1252" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1252" s="5"/>
+      <c r="F1252" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="G1252" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1252" s="76">
+        <v>43905</v>
+      </c>
+      <c r="I1252" s="5"/>
+      <c r="J1252" s="5"/>
+    </row>
+    <row r="1253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1253" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1253" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1253" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1253" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1253" s="5"/>
+      <c r="F1253" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G1253" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1253" s="76">
+        <v>43913</v>
+      </c>
+      <c r="I1253" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1253" s="5"/>
+    </row>
+    <row r="1254" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1254" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1254" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1254" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1254" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1254" s="5"/>
+      <c r="F1254" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G1254" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1254" s="76">
+        <v>43914</v>
+      </c>
+      <c r="I1254" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1254" s="5"/>
+    </row>
+    <row r="1255" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1255" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1255" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1255" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1255" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1255" s="5"/>
+      <c r="F1255" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="G1255" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1255" s="76">
+        <v>43914</v>
+      </c>
+      <c r="I1255" s="5"/>
+      <c r="J1255" s="5"/>
+    </row>
+    <row r="1256" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1256" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1256" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1256" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1256" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1256" s="5"/>
+      <c r="F1256" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="G1256" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1256" s="76">
+        <v>43914</v>
+      </c>
+      <c r="I1256" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1256" s="5"/>
+    </row>
+    <row r="1257" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1257" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1257" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1257" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1257" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1257" s="5"/>
+      <c r="F1257" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="G1257" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1257" s="76">
+        <v>43917</v>
+      </c>
+      <c r="I1257" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1257" s="5"/>
+    </row>
+    <row r="1258" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1258" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1258" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1258" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1258" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1258" s="5"/>
+      <c r="F1258" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="G1258" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1258" s="76">
+        <v>43920</v>
+      </c>
+      <c r="I1258" s="5"/>
+      <c r="J1258" s="5"/>
+    </row>
+    <row r="1259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1259" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1259" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1259" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1259" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1259" s="5"/>
+      <c r="F1259" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1259" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1259" s="76">
+        <v>43916</v>
+      </c>
+      <c r="I1259" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1259" s="5"/>
+    </row>
+    <row r="1260" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1260" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1260" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1260" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1260" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1260" s="5"/>
+      <c r="F1260" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1260" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1260" s="76">
+        <v>43917</v>
+      </c>
+      <c r="I1260" s="5"/>
+      <c r="J1260" s="5"/>
+    </row>
+    <row r="1261" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1261" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1261" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1261" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1261" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1261" s="5"/>
+      <c r="F1261" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="G1261" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1261" s="76">
+        <v>43917</v>
+      </c>
+      <c r="I1261" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1261" s="5"/>
+    </row>
+    <row r="1262" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1262" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1262" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1262" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1262" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1262" s="5"/>
+      <c r="F1262" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="G1262" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1262" s="76">
+        <v>43917</v>
+      </c>
+      <c r="I1262" s="5"/>
+      <c r="J1262" s="5"/>
+    </row>
+    <row r="1263" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1263" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1263" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1263" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1263" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1263" s="5"/>
+      <c r="F1263" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="G1263" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1263" s="76">
+        <v>43913</v>
+      </c>
+      <c r="I1263" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1263" s="5"/>
+    </row>
+    <row r="1264" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1264" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1264" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1264" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1264" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1264" s="5"/>
+      <c r="F1264" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="G1264" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1264" s="76">
+        <v>43913</v>
+      </c>
+      <c r="I1264" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1264" s="5"/>
+    </row>
+    <row r="1265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1265" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1265" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1265" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1265" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1265" s="5"/>
+      <c r="F1265" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="G1265" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1265" s="76">
+        <v>43913</v>
+      </c>
+      <c r="I1265" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1265" s="5"/>
+    </row>
+    <row r="1266" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1266" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1266" s="81" t="s">
+        <v>837</v>
+      </c>
+      <c r="C1266" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1266" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1266" s="5"/>
+      <c r="F1266" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="G1266" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1266" s="76">
+        <v>43914</v>
+      </c>
+      <c r="I1266" s="5"/>
+      <c r="J1266" s="5"/>
+    </row>
+    <row r="1267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1267" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1267" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1267" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1267" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1267" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1267" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="G1267" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1267" s="75">
+        <v>43892</v>
+      </c>
+      <c r="I1267" s="3"/>
+      <c r="J1267" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1268" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1268" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1268" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1268" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1268" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1268" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1268" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1268" s="75">
+        <v>43892</v>
+      </c>
+      <c r="I1268" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1268" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1269" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1269" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1269" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1269" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1269" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1269" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1269" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1269" s="75">
+        <v>43892</v>
+      </c>
+      <c r="I1269" s="3"/>
+      <c r="J1269" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1270" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1270" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1270" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1270" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1270" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1270" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1270" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1270" s="75">
+        <v>43893</v>
+      </c>
+      <c r="I1270" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1270" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1271" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1271" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1271" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1271" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1271" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1271" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1271" s="75">
+        <v>43894</v>
+      </c>
+      <c r="I1271" s="3"/>
+      <c r="J1271" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1272" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1272" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1272" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1272" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1272" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1272" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="G1272" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1272" s="75">
+        <v>43899</v>
+      </c>
+      <c r="I1272" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1272" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1273" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1273" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1273" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1273" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1273" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1273" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="G1273" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1273" s="75">
+        <v>43900</v>
+      </c>
+      <c r="I1273" s="3"/>
+      <c r="J1273" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1274" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1274" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1274" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1274" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1274" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1274" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="G1274" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1274" s="75">
+        <v>43900</v>
+      </c>
+      <c r="I1274" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1274" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1275" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1275" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1275" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1275" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1275" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1275" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="G1275" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1275" s="75">
+        <v>43901</v>
+      </c>
+      <c r="I1275" s="3"/>
+      <c r="J1275" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1276" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1276" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1276" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1276" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1276" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1276" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="G1276" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1276" s="75">
+        <v>43901</v>
+      </c>
+      <c r="I1276" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1276" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1277" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1277" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1277" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1277" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1277" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1277" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="G1277" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1277" s="75">
+        <v>43901</v>
+      </c>
+      <c r="I1277" s="3"/>
+      <c r="J1277" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1278" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1278" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1278" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1278" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1278" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1278" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="G1278" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1278" s="75">
+        <v>43901</v>
+      </c>
+      <c r="I1278" s="3"/>
+      <c r="J1278" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1279" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1279" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1279" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1279" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1279" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1279" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1279" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1279" s="75">
+        <v>43901</v>
+      </c>
+      <c r="I1279" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1279" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1280" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1280" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1280" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1280" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1280" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1280" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1280" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1280" s="75">
+        <v>43901</v>
+      </c>
+      <c r="I1280" s="3"/>
+      <c r="J1280" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1281" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1281" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1281" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1281" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1281" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1281" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1281" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1281" s="75">
+        <v>43901</v>
+      </c>
+      <c r="I1281" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1281" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1282" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1282" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1282" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1282" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1282" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1282" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1282" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1282" s="75">
+        <v>43901</v>
+      </c>
+      <c r="I1282" s="3"/>
+      <c r="J1282" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1283" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1283" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1283" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1283" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1283" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1283" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="G1283" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1283" s="75">
+        <v>43916</v>
+      </c>
+      <c r="I1283" s="3"/>
+      <c r="J1283" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1284" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1284" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1284" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1284" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1284" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1284" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="G1284" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1284" s="75">
+        <v>43916</v>
+      </c>
+      <c r="I1284" s="3"/>
+      <c r="J1284" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1285" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1285" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1285" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1285" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1285" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1285" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1285" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1285" s="75">
+        <v>43902</v>
+      </c>
+      <c r="I1285" s="3"/>
+      <c r="J1285" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1286" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1286" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1286" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1286" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1286" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1286" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1286" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1286" s="75">
+        <v>43902</v>
+      </c>
+      <c r="I1286" s="3"/>
+      <c r="J1286" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1287" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1287" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1287" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1287" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1287" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1287" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1287" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1287" s="75">
+        <v>43903</v>
+      </c>
+      <c r="I1287" s="3"/>
+      <c r="J1287" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1288" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1288" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1288" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1288" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1288" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1288" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="G1288" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1288" s="75">
+        <v>43903</v>
+      </c>
+      <c r="I1288" s="3"/>
+      <c r="J1288" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1289" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1289" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1289" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1289" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1289" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1289" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="G1289" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1289" s="75">
+        <v>43903</v>
+      </c>
+      <c r="I1289" s="3"/>
+      <c r="J1289" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1290" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1290" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1290" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1290" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1290" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1290" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1290" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1290" s="75">
+        <v>43906</v>
+      </c>
+      <c r="I1290" s="3"/>
+      <c r="J1290" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1291" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1291" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1291" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1291" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1291" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1291" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1291" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1291" s="75">
+        <v>43907</v>
+      </c>
+      <c r="I1291" s="3"/>
+      <c r="J1291" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1292" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1292" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1292" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1292" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1292" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1292" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="G1292" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1292" s="75">
+        <v>43908</v>
+      </c>
+      <c r="I1292" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1292" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1293" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1293" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1293" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1293" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1293" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1293" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="G1293" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1293" s="75">
+        <v>43908</v>
+      </c>
+      <c r="I1293" s="3"/>
+      <c r="J1293" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1294" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1294" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1294" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1294" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1294" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1294" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G1294" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1294" s="75">
+        <v>43913</v>
+      </c>
+      <c r="I1294" s="3"/>
+      <c r="J1294" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1295" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1295" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1295" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1295" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1295" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1295" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="G1295" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1295" s="75">
+        <v>43913</v>
+      </c>
+      <c r="I1295" s="3"/>
+      <c r="J1295" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1296" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1296" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1296" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1296" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1296" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1296" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="G1296" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1296" s="75">
+        <v>43913</v>
+      </c>
+      <c r="I1296" s="3"/>
+      <c r="J1296" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1297" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1297" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1297" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1297" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1297" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1297" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G1297" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1297" s="75">
+        <v>43913</v>
+      </c>
+      <c r="I1297" s="3"/>
+      <c r="J1297" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1298" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1298" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1298" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1298" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1298" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1298" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="G1298" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1298" s="75">
+        <v>43913</v>
+      </c>
+      <c r="I1298" s="3"/>
+      <c r="J1298" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1299" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1299" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1299" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1299" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1299" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1299" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="G1299" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1299" s="75">
+        <v>43914</v>
+      </c>
+      <c r="I1299" s="3"/>
+      <c r="J1299" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1300" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1300" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1300" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1300" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1300" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1300" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="G1300" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1300" s="75">
+        <v>43916</v>
+      </c>
+      <c r="I1300" s="3"/>
+      <c r="J1300" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1301" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1301" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1301" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1301" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1301" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1301" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="G1301" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1301" s="75">
+        <v>43916</v>
+      </c>
+      <c r="I1301" s="3"/>
+      <c r="J1301" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1302" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1302" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1302" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1302" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1302" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1302" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1302" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1302" s="75">
+        <v>43916</v>
+      </c>
+      <c r="I1302" s="3"/>
+      <c r="J1302" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1303" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1303" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1303" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1303" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1303" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1303" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="G1303" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1303" s="75">
+        <v>43916</v>
+      </c>
+      <c r="I1303" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1303" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1304" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1304" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1304" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1304" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1304" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1304" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="G1304" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1304" s="75">
+        <v>43916</v>
+      </c>
+      <c r="I1304" s="3"/>
+      <c r="J1304" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1305" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1305" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1305" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1305" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1305" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1305" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1305" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1305" s="75">
+        <v>43917</v>
+      </c>
+      <c r="I1305" s="3"/>
+      <c r="J1305" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1306" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1306" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1306" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1306" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1306" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1306" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="G1306" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1306" s="75">
+        <v>43917</v>
+      </c>
+      <c r="I1306" s="3"/>
+      <c r="J1306" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1307" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1307" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1307" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1307" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1307" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1307" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="G1307" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1307" s="75">
+        <v>43917</v>
+      </c>
+      <c r="I1307" s="3"/>
+      <c r="J1307" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1308" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1308" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1308" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1308" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1308" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1308" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1308" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1308" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1308" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1308" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1309" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1309" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1309" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1309" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1309" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1309" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1309" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1309" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1309" s="3"/>
+      <c r="J1309" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1310" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1310" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1310" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1310" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1310" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1310" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="G1310" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1310" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1310" s="3"/>
+      <c r="J1310" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1311" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1311" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1311" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1311" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1311" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1311" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="G1311" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1311" s="75">
+        <v>43916</v>
+      </c>
+      <c r="I1311" s="3"/>
+      <c r="J1311" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1312" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1312" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1312" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1312" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1312" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1312" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1312" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1312" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1312" s="3"/>
+      <c r="J1312" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1313" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1313" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1313" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1313" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1313" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1313" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1313" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1313" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1313" s="3"/>
+      <c r="J1313" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1314" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1314" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1314" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1314" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1314" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1314" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1314" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1314" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1314" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1314" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1315" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1315" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1315" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1315" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1315" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1315" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="G1315" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1315" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1315" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1315" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1316" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1316" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1316" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1316" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1316" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1316" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="G1316" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1316" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1316" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1316" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1317" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1317" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1317" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1317" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1317" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1317" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1317" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1317" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1317" s="3"/>
+      <c r="J1317" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1318" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1318" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1318" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1318" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1318" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1318" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="G1318" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1318" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1318" s="3"/>
+      <c r="J1318" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1319" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1319" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1319" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1319" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1319" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1319" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="G1319" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1319" s="75">
+        <v>43920</v>
+      </c>
+      <c r="I1319" s="3"/>
+      <c r="J1319" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1320" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1320" s="80" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1320" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1320" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1320" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="G1320" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1320" s="75">
+        <v>43892</v>
+      </c>
+      <c r="I1320" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1320" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1321" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1321" s="80" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1321" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1321" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1321" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1321" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1321" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1321" s="75">
+        <v>43892</v>
+      </c>
+      <c r="I1321" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1321" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1322" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1322" s="80" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1322" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1322" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1322" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1322" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="G1322" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1322" s="76">
+        <v>43914</v>
+      </c>
+      <c r="I1322" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1322" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1323" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1323" s="80" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1323" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1323" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1323" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1323" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="G1323" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1323" s="76">
+        <v>43914</v>
+      </c>
+      <c r="I1323" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1323" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1324" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1324" s="80" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1324" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1324" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1324" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1324" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="G1324" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1324" s="75">
+        <v>43919</v>
+      </c>
+      <c r="I1324" s="3"/>
+      <c r="J1324" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1325" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1325" s="80" t="s">
+        <v>926</v>
+      </c>
+      <c r="C1325" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1325" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1325" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1325" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="G1325" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1325" s="75">
+        <v>43921</v>
+      </c>
+      <c r="I1325" s="3"/>
+      <c r="J1325" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1326" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1326" s="80" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1326" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1326" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1326" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1326" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="G1326" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1326" s="75">
+        <v>43895</v>
+      </c>
+      <c r="I1326" s="3"/>
+      <c r="J1326" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1327" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1327" s="80" t="s">
+        <v>931</v>
+      </c>
+      <c r="C1327" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D1327" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1327" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1327" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1327" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1327" s="75">
+        <v>43900</v>
+      </c>
+      <c r="I1327" s="3"/>
+      <c r="J1327" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1328" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1328" s="80" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1328" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1328" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1328" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1328" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1328" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1328" s="75">
+        <v>43915</v>
+      </c>
+      <c r="I1328" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1328" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1329" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1329" s="80" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1329" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1329" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1329" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1329" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1329" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1329" s="75">
+        <v>43915</v>
+      </c>
+      <c r="I1329" s="3"/>
+      <c r="J1329" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1330" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1330" s="80" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1330" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1330" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1330" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1330" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="G1330" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1330" s="75">
+        <v>43914</v>
+      </c>
+      <c r="I1330" s="3"/>
+      <c r="J1330" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1331" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1331" s="80" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1331" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1331" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1331" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1331" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="G1331" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1331" s="75">
+        <v>43915</v>
+      </c>
+      <c r="I1331" s="3"/>
+      <c r="J1331" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1365" s="38"/>
+    </row>
+    <row r="1581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1581" s="66"/>
+      <c r="G1581" s="59"/>
+    </row>
+    <row r="1582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1582" s="66"/>
+      <c r="G1582" s="59"/>
+    </row>
+    <row r="1585" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1585" s="66"/>
+      <c r="G1585" s="59"/>
+    </row>
+    <row r="1586" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1586" s="66"/>
+      <c r="G1586" s="59"/>
+    </row>
+    <row r="1600" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1600" s="66"/>
+      <c r="G1600" s="59"/>
+    </row>
+    <row r="1601" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1601" s="66"/>
+      <c r="G1601" s="59"/>
+    </row>
+    <row r="1609" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1609" s="66"/>
+      <c r="G1609" s="59"/>
+    </row>
+    <row r="1610" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1610" s="66"/>
+      <c r="G1610" s="59"/>
     </row>
     <row r="1611" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1611" s="66"/>
@@ -42075,40 +46245,40 @@
       <c r="B1612" s="66"/>
       <c r="G1612" s="59"/>
     </row>
-    <row r="1613" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1613" s="66"/>
-      <c r="G1613" s="59"/>
-    </row>
-    <row r="1614" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1614" s="66"/>
-      <c r="G1614" s="59"/>
-    </row>
-    <row r="1635" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1635" s="66"/>
-      <c r="G1635" s="59"/>
-    </row>
-    <row r="1647" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1647" s="66"/>
-      <c r="G1647" s="59"/>
-    </row>
-    <row r="1662" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1662" s="66"/>
-      <c r="G1662" s="59"/>
-    </row>
-    <row r="1772" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1633" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1633" s="66"/>
+      <c r="G1633" s="59"/>
+    </row>
+    <row r="1645" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1645" s="66"/>
+      <c r="G1645" s="59"/>
+    </row>
+    <row r="1660" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1660" s="66"/>
+      <c r="G1660" s="59"/>
+    </row>
+    <row r="1770" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1770" s="66"/>
+    </row>
+    <row r="1771" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1771" s="66"/>
+    </row>
+    <row r="1772" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1772" s="66"/>
     </row>
-    <row r="1773" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1773" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1773" s="66"/>
     </row>
-    <row r="1774" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1774" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1774" s="66"/>
     </row>
-    <row r="1775" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1775" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1775" s="66"/>
-    </row>
-    <row r="1776" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="G1775" s="59"/>
+    </row>
+    <row r="1776" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1776" s="66"/>
+      <c r="G1776" s="59"/>
     </row>
     <row r="1777" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1777" s="66"/>
@@ -42116,11 +46286,9 @@
     </row>
     <row r="1778" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1778" s="66"/>
-      <c r="G1778" s="59"/>
     </row>
     <row r="1779" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1779" s="66"/>
-      <c r="G1779" s="59"/>
     </row>
     <row r="1780" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1780" s="66"/>
@@ -42134,50 +46302,50 @@
     <row r="1783" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1783" s="66"/>
     </row>
-    <row r="1784" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1784" s="66"/>
-    </row>
-    <row r="1785" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1785" s="66"/>
-    </row>
-    <row r="1795" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1793" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1793" s="66"/>
+    </row>
+    <row r="1794" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1794" s="66"/>
+    </row>
+    <row r="1795" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1795" s="66"/>
     </row>
-    <row r="1796" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1796" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1796" s="66"/>
     </row>
-    <row r="1797" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1797" s="66"/>
-    </row>
-    <row r="1798" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1798" s="66"/>
-    </row>
-    <row r="1806" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1804" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1804" s="66"/>
+    </row>
+    <row r="1805" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1805" s="66"/>
+    </row>
+    <row r="1806" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1806" s="66"/>
     </row>
-    <row r="1807" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1807" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1807" s="66"/>
     </row>
-    <row r="1808" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1808" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1808" s="66"/>
+      <c r="F1808" s="67"/>
     </row>
     <row r="1809" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1809" s="66"/>
+      <c r="F1809" s="14"/>
     </row>
     <row r="1810" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1810" s="66"/>
-      <c r="F1810" s="67"/>
+      <c r="F1810" s="14"/>
     </row>
     <row r="1811" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1811" s="66"/>
-      <c r="F1811" s="14"/>
-    </row>
-    <row r="1812" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1812" s="66"/>
-      <c r="F1812" s="14"/>
-    </row>
-    <row r="1813" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1813" s="66"/>
+    </row>
+    <row r="1818" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1818" s="66"/>
+    </row>
+    <row r="1819" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1819" s="66"/>
     </row>
     <row r="1820" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1820" s="66"/>
@@ -42185,58 +46353,58 @@
     <row r="1821" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1821" s="66"/>
     </row>
-    <row r="1822" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1822" s="66"/>
-    </row>
-    <row r="1823" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1823" s="66"/>
-    </row>
-    <row r="1834" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1834" s="66"/>
-    </row>
-    <row r="1871" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1871" s="13"/>
-    </row>
-    <row r="1897" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1897" s="13"/>
-    </row>
-    <row r="2064" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2064" s="66"/>
-    </row>
-    <row r="2072" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2072" s="66"/>
+    <row r="1832" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1832" s="66"/>
+    </row>
+    <row r="1869" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1869" s="13"/>
+    </row>
+    <row r="1895" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1895" s="13"/>
+    </row>
+    <row r="2062" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2062" s="66"/>
+    </row>
+    <row r="2070" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2070" s="66"/>
+    </row>
+    <row r="2081" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2081" s="66"/>
+    </row>
+    <row r="2082" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2082" s="66"/>
     </row>
     <row r="2083" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2083" s="66"/>
     </row>
-    <row r="2084" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2084" s="66"/>
-    </row>
     <row r="2085" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2085" s="66"/>
     </row>
+    <row r="2086" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2086" s="66"/>
+    </row>
     <row r="2087" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2087" s="66"/>
     </row>
     <row r="2088" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2088" s="66"/>
     </row>
-    <row r="2089" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2089" s="66"/>
-    </row>
-    <row r="2090" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2090" s="66"/>
+    <row r="2091" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2091" s="66"/>
+      <c r="G2091" s="59"/>
+    </row>
+    <row r="2092" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2092" s="66"/>
     </row>
     <row r="2093" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2093" s="66"/>
       <c r="G2093" s="59"/>
     </row>
-    <row r="2094" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2094" s="66"/>
-    </row>
-    <row r="2095" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2095" s="66"/>
-      <c r="G2095" s="59"/>
+    <row r="2151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2151" s="68"/>
+    </row>
+    <row r="2152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2152" s="68"/>
     </row>
     <row r="2153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2153" s="68"/>
@@ -42247,29 +46415,29 @@
     <row r="2155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2155" s="68"/>
     </row>
-    <row r="2156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2156" s="68"/>
-    </row>
-    <row r="2157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2157" s="68"/>
+    <row r="2160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2160" s="66"/>
+    </row>
+    <row r="2161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2161" s="66"/>
     </row>
     <row r="2162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2162" s="66"/>
     </row>
-    <row r="2163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2163" s="66"/>
-    </row>
-    <row r="2164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2164" s="66"/>
+    <row r="2170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2170" s="66"/>
+    </row>
+    <row r="2171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2171" s="66"/>
     </row>
     <row r="2172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2172" s="66"/>
     </row>
-    <row r="2173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2173" s="66"/>
-    </row>
-    <row r="2174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2174" s="66"/>
+    <row r="2177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2177" s="66"/>
+    </row>
+    <row r="2178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2178" s="66"/>
     </row>
     <row r="2179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2179" s="66"/>
@@ -42277,28 +46445,46 @@
     <row r="2180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2180" s="66"/>
     </row>
-    <row r="2181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2181" s="66"/>
-    </row>
-    <row r="2182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2182" s="66"/>
-    </row>
-    <row r="2185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2185" s="66"/>
-    </row>
-    <row r="2186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2186" s="66"/>
-    </row>
-    <row r="2356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2356" s="66"/>
-    </row>
-    <row r="2368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2368" s="66"/>
-    </row>
-    <row r="2369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2369" s="66"/>
+    <row r="2183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2183" s="66"/>
+    </row>
+    <row r="2184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2184" s="66"/>
+    </row>
+    <row r="2354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2354" s="66"/>
+    </row>
+    <row r="2366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2366" s="66"/>
+    </row>
+    <row r="2367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2367" s="66"/>
+    </row>
+    <row r="3067" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3067" s="66"/>
+      <c r="C3067" s="38"/>
+      <c r="D3067" s="38"/>
+      <c r="E3067" s="38"/>
+      <c r="F3067" s="38"/>
+      <c r="G3067" s="38"/>
+      <c r="H3067" s="69"/>
+      <c r="I3067" s="38"/>
+      <c r="J3067" s="66"/>
+    </row>
+    <row r="3068" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3068" s="38"/>
+      <c r="B3068" s="66"/>
+      <c r="C3068" s="38"/>
+      <c r="D3068" s="38"/>
+      <c r="E3068" s="38"/>
+      <c r="F3068" s="38"/>
+      <c r="G3068" s="38"/>
+      <c r="H3068" s="69"/>
+      <c r="I3068" s="38"/>
+      <c r="J3068" s="66"/>
     </row>
     <row r="3069" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3069" s="38"/>
       <c r="B3069" s="66"/>
       <c r="C3069" s="38"/>
       <c r="D3069" s="38"/>
@@ -42327,7 +46513,7 @@
       <c r="C3071" s="38"/>
       <c r="D3071" s="38"/>
       <c r="E3071" s="38"/>
-      <c r="F3071" s="38"/>
+      <c r="F3071" s="70"/>
       <c r="G3071" s="38"/>
       <c r="H3071" s="69"/>
       <c r="I3071" s="38"/>
@@ -42339,7 +46525,7 @@
       <c r="C3072" s="38"/>
       <c r="D3072" s="38"/>
       <c r="E3072" s="38"/>
-      <c r="F3072" s="38"/>
+      <c r="F3072" s="70"/>
       <c r="G3072" s="38"/>
       <c r="H3072" s="69"/>
       <c r="I3072" s="38"/>
@@ -42351,7 +46537,7 @@
       <c r="C3073" s="38"/>
       <c r="D3073" s="38"/>
       <c r="E3073" s="38"/>
-      <c r="F3073" s="70"/>
+      <c r="F3073" s="38"/>
       <c r="G3073" s="38"/>
       <c r="H3073" s="69"/>
       <c r="I3073" s="38"/>
@@ -42363,7 +46549,7 @@
       <c r="C3074" s="38"/>
       <c r="D3074" s="38"/>
       <c r="E3074" s="38"/>
-      <c r="F3074" s="70"/>
+      <c r="F3074" s="38"/>
       <c r="G3074" s="38"/>
       <c r="H3074" s="69"/>
       <c r="I3074" s="38"/>
@@ -42375,7 +46561,7 @@
       <c r="C3075" s="38"/>
       <c r="D3075" s="38"/>
       <c r="E3075" s="38"/>
-      <c r="F3075" s="38"/>
+      <c r="F3075" s="37"/>
       <c r="G3075" s="38"/>
       <c r="H3075" s="69"/>
       <c r="I3075" s="38"/>
@@ -42387,7 +46573,7 @@
       <c r="C3076" s="38"/>
       <c r="D3076" s="38"/>
       <c r="E3076" s="38"/>
-      <c r="F3076" s="38"/>
+      <c r="F3076" s="37"/>
       <c r="G3076" s="38"/>
       <c r="H3076" s="69"/>
       <c r="I3076" s="38"/>
@@ -42459,7 +46645,7 @@
       <c r="C3082" s="38"/>
       <c r="D3082" s="38"/>
       <c r="E3082" s="38"/>
-      <c r="F3082" s="37"/>
+      <c r="F3082" s="38"/>
       <c r="G3082" s="38"/>
       <c r="H3082" s="69"/>
       <c r="I3082" s="38"/>
@@ -42467,32 +46653,30 @@
     </row>
     <row r="3083" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3083" s="38"/>
-      <c r="B3083" s="66"/>
-      <c r="C3083" s="38"/>
-      <c r="D3083" s="38"/>
-      <c r="E3083" s="38"/>
-      <c r="F3083" s="37"/>
-      <c r="G3083" s="38"/>
-      <c r="H3083" s="69"/>
-      <c r="I3083" s="38"/>
-      <c r="J3083" s="66"/>
-    </row>
-    <row r="3084" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3084" s="38"/>
-      <c r="B3084" s="66"/>
-      <c r="C3084" s="38"/>
-      <c r="D3084" s="38"/>
-      <c r="E3084" s="38"/>
-      <c r="F3084" s="38"/>
-      <c r="G3084" s="38"/>
-      <c r="H3084" s="69"/>
-      <c r="I3084" s="38"/>
-      <c r="J3084" s="66"/>
-    </row>
-    <row r="3085" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3085" s="38"/>
+    </row>
+    <row r="3766" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3766" s="38"/>
+      <c r="D3766" s="38"/>
+      <c r="E3766" s="38"/>
+      <c r="F3766" s="38"/>
+      <c r="G3766" s="38"/>
+      <c r="H3766" s="69"/>
+      <c r="I3766" s="38"/>
+      <c r="J3766" s="38"/>
+    </row>
+    <row r="3767" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3767" s="38"/>
+      <c r="C3767" s="38"/>
+      <c r="D3767" s="38"/>
+      <c r="E3767" s="38"/>
+      <c r="F3767" s="38"/>
+      <c r="G3767" s="38"/>
+      <c r="H3767" s="69"/>
+      <c r="I3767" s="38"/>
+      <c r="J3767" s="38"/>
     </row>
     <row r="3768" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3768" s="38"/>
       <c r="C3768" s="38"/>
       <c r="D3768" s="38"/>
       <c r="E3768" s="38"/>
@@ -42812,6 +46996,7 @@
     </row>
     <row r="3797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3797" s="38"/>
+      <c r="B3797" s="38"/>
       <c r="C3797" s="38"/>
       <c r="D3797" s="38"/>
       <c r="E3797" s="38"/>
@@ -42834,7 +47019,6 @@
     </row>
     <row r="3799" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3799" s="38"/>
-      <c r="B3799" s="38"/>
       <c r="C3799" s="38"/>
       <c r="D3799" s="38"/>
       <c r="E3799" s="38"/>
@@ -43627,39 +47811,17 @@
     </row>
     <row r="3871" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3871" s="38"/>
-      <c r="C3871" s="38"/>
-      <c r="D3871" s="38"/>
-      <c r="E3871" s="38"/>
-      <c r="F3871" s="38"/>
-      <c r="G3871" s="38"/>
-      <c r="H3871" s="69"/>
-      <c r="I3871" s="38"/>
-      <c r="J3871" s="38"/>
+      <c r="D3871" s="71"/>
+      <c r="E3871" s="71"/>
     </row>
     <row r="3872" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3872" s="38"/>
-      <c r="C3872" s="38"/>
-      <c r="D3872" s="38"/>
-      <c r="E3872" s="38"/>
-      <c r="F3872" s="38"/>
-      <c r="G3872" s="38"/>
-      <c r="H3872" s="69"/>
-      <c r="I3872" s="38"/>
-      <c r="J3872" s="38"/>
-    </row>
-    <row r="3873" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3873" s="38"/>
-      <c r="D3873" s="71"/>
-      <c r="E3873" s="71"/>
-    </row>
-    <row r="3874" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3874" s="71"/>
-      <c r="E3874" s="71"/>
+      <c r="D3872" s="71"/>
+      <c r="E3872" s="71"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J4169" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J2416">
-    <sortCondition ref="J4:J2416"/>
+  <autoFilter ref="A1:J4167" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J2414">
+    <sortCondition ref="J4:J2414"/>
   </sortState>
   <conditionalFormatting sqref="G435:G436">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
@@ -43695,10 +47857,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1349" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1347" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$4:$A$68</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C28 C36:C48 C151:C203 C304:C347 C460:C508 C676:C698 C733:C753 C771:C796 C897:C925 C1019:C1059 C1086:C1134 H1135:H1141 C1191:C3767" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C28 C36:C48 C151:C203 C304:C347 C460:C508 C676:C698 C733:C753 C771:C796 C897:C925 C1019:C1059 C1086:C1134 H1135:H1141 C1191:C1197 C1232:C3765" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$A$11:$A$86</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B415:B433 C434:C459 C377:C414 C509:C521 C546:C657 A873:B883 C822:C896" xr:uid="{00000000-0002-0000-0100-000002000000}">
@@ -43717,109 +47879,109 @@
           <x14:formula1>
             <xm:f>'A or D'!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G3873:G1048576 G347 G136:G186 G926:G993 G1210:G1581 G1591:G1767 G1803:G2068 G2081:G3767 G2:G28 G36:G48 G752:G753 G1068:G1085 G1198:G1199</xm:sqref>
+          <xm:sqref>G3871:G1048576 G347 G136:G186 G926:G993 G1068:G1085 G1589:G1765 G1801:G2066 G2079:G3765 G2:G28 G36:G48 G752:G753 G1244:G1266 G1332:G1579</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>SQA!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>A3874:A1048576 A347 A926:A993 A1211:A1582 A1592:A1768 A1804:A2069 A2082:A3768 A1:A28 A36:A48 A136:A186 A752:A753 A895:A900 A1068:A1085 A1198:A1200</xm:sqref>
+          <xm:sqref>A3872:A1048576 A347 A926:A993 A1590:A1766 A1802:A2067 A2080:A3766 A1:A28 A36:A48 A136:A186 A752:A753 A895:A900 A1068:A1085 A1244:A1266 A1332:A1580</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>'Deliverable Types'!$A$1:$A$31</xm:f>
           </x14:formula1>
-          <xm:sqref>D3873:D1048576 D347 D929 D1210:D1581 D1591:D1767 D1803:D2068 D2081:D3767 D2:D28 D36:D48 D136:D154 D166:D168 D157:D164 D179:D186 D752:D753 D895:D896 D899:D900 A926:A993 D1068:D1085 D1198:D1199</xm:sqref>
+          <xm:sqref>D3871:D1048576 D347 D929 D1068:D1085 D1589:D1765 D1801:D2066 D2079:D3765 D2:D28 D36:D48 D136:D154 D166:D168 D157:D164 D179:D186 D752:D753 D895:D896 D899:D900 A926:A993 D1244:D1266 D1332:D1579</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3768:D3872 D1200:D1209</xm:sqref>
+          <xm:sqref>D3766:D3870</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3768:G3872 G1200:G1209</xm:sqref>
+          <xm:sqref>G3766:G3870</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A3769:A3873 A1201:A1210</xm:sqref>
+          <xm:sqref>A3767:A3871</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D1582:D1590</xm:sqref>
+          <xm:sqref>D1580:D1588</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G1582:G1590</xm:sqref>
+          <xm:sqref>G1580:G1588</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 9142018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A1583:A1591</xm:sqref>
+          <xm:sqref>A1581:A1589</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D1768:D1802</xm:sqref>
+          <xm:sqref>D1766:D1800</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A1769:A1803</xm:sqref>
+          <xm:sqref>A1767:A1801</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 10052018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G1768:G1802</xm:sqref>
+          <xm:sqref>G1766:G1800</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D2069:D2080</xm:sqref>
+          <xm:sqref>D2067:D2078</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000010000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A2070:A2081</xm:sqref>
+          <xm:sqref>A2068:A2079</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000011000000}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Beilah 11092018.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G2069:G2080</xm:sqref>
+          <xm:sqref>G2067:G2078</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000012000000}">
           <x14:formula1>
             <xm:f>'Reasons for Disapproval'!$A$1:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>I3873:I1048576 I2:I29 I36:I48 I136:I186 I347 I752:I753 I895:I897 I899:I900 I933 I928:I929 I931 I936:I937 I944:I945 I947:I956 I958:I963 I965 I939:I942 I969:I993 I1068:I1085 I1198:I3767</xm:sqref>
+          <xm:sqref>I3871:I1048576 I2:I29 I36:I48 I136:I186 I347 I752:I753 I895:I897 I899:I900 I933 I928:I929 I931 I936:I937 I944:I945 I947:I956 I958:I963 I965 I939:I942 I969:I993 I1068:I1085 I1244:I1266 I1332:I3765</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000013000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Reasons for Disapproval'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I3768:I3872</xm:sqref>
+          <xm:sqref>I3766:I3870</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\lauernd\Desktop\[Nick First Pass Acceptance.xlsx]Application'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C3768:C3872</xm:sqref>
+          <xm:sqref>C3766:C3870</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000015000000}">
           <x14:formula1>
@@ -43855,31 +48017,31 @@
           <x14:formula1>
             <xm:f>'C:\Users\sadatcc\Desktop\[First Pass Acceptance_CSO.xlsx]Application'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C49:C106 C204:C235 C276:C303 C658:C675 C754:C770 C994:C1018 C1144:C1190</xm:sqref>
+          <xm:sqref>C49:C106 C204:C235 C276:C303 C658:C675 C754:C770 C994:C1018 C1144:C1190 C1212:C1231</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00001B000000}">
           <x14:formula1>
             <xm:f>'C:\Users\sadatcc\Desktop\[First Pass Acceptance_CSO.xlsx]Reasons for Disapproval'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I49:I106 I196:I197 I189:I193 I199:I266 I276:I320 I379:I380 I658:I698 I754:I796 I828 I838 I842 I862 I864 I866 I870:I871 I822:I824 I826 I832 I835 I840 I847 I850 I856 I868 I882 I874 I884 I889 I994:I1038 I1044:I1059 I1144:I1197</xm:sqref>
+          <xm:sqref>I49:I106 I196:I197 I189:I193 I199:I266 I276:I320 I379:I380 I658:I698 I754:I796 I828 I838 I842 I862 I864 I866 I870:I871 I822:I824 I826 I832 I835 I840 I847 I850 I856 I868 I882 I874 I884 I889 I994:I1038 I1044:I1059 I1144:I1197 I1212:I1243</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00001C000000}">
           <x14:formula1>
             <xm:f>'C:\Users\sadatcc\Desktop\[First Pass Acceptance_CSO.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D49:D106 D204:D266 D276:D320 D658:D698 D754:D796 D994:D1059 D1144:D1197</xm:sqref>
+          <xm:sqref>D49:D106 D204:D266 D276:D320 D658:D698 D754:D796 D994:D1059 D1144:D1197 D1212:D1243</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00001D000000}">
           <x14:formula1>
             <xm:f>'C:\Users\sadatcc\Desktop\[First Pass Acceptance_CSO.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A49:A106 A204:A266 A276:A320 A658:A698 A754:A796 A994:A1059 A1144:A1197</xm:sqref>
+          <xm:sqref>A49:A106 A204:A266 A276:A320 A658:A698 A754:A796 A994:A1059 A1144:A1197 A1212:A1243</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00001E000000}">
           <x14:formula1>
             <xm:f>'C:\Users\sadatcc\Desktop\[First Pass Acceptance_CSO.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G49:G106 G204:G266 G276:G320 G658:G698 G754:G796 G858:G861 G852:G855 G844:G846 G837 G830:G831 G834 G849 G872:G873 G876:G881 G894:G896 G891 G888 G994:G1059 G1144:G1197</xm:sqref>
+          <xm:sqref>G49:G106 G204:G266 G276:G320 G658:G698 G754:G796 G858:G861 G852:G855 G844:G846 G837 G830:G831 G834 G849 G872:G873 G876:G881 G894:G896 G891 G888 G994:G1059 G1144:G1197 G1212:G1243</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000020000000}">
           <x14:formula1>
@@ -43897,25 +48059,25 @@
           <x14:formula1>
             <xm:f>'C:\Users\veermax\Desktop\Abbott ADD Projects\Dallas First Pass Acceptance\[First Pass Acceptance_Dallas_Arun.xlsx]Reasons for Disapproval'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I321:I346 I460:I508 I733:I751 I938 I901:I927 I930 I932 I934:I935 I943 I946 I957 I964 I966:I968 I1086:I1134</xm:sqref>
+          <xm:sqref>I321:I346 I460:I508 I733:I751 I938 I901:I927 I930 I932 I934:I935 I943 I946 I957 I964 I966:I968 I1086:I1134 I1267:I1331</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000023000000}">
           <x14:formula1>
             <xm:f>'C:\Users\veermax\Desktop\Abbott ADD Projects\Dallas First Pass Acceptance\[First Pass Acceptance_Dallas_Arun.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D321:D346 D460:D508 D733:D751 D930:D931 D901:D928 D946:D947 D960:D961 D990:D991 D943:D944 D957:D958 D1086:D1134</xm:sqref>
+          <xm:sqref>D321:D346 D460:D508 D733:D751 D930:D931 D901:D928 D946:D947 D960:D961 D990:D991 D943:D944 D957:D958 D1086:D1134 D1199:D1201 D1267:D1331</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000024000000}">
           <x14:formula1>
             <xm:f>'C:\Users\veermax\Desktop\Abbott ADD Projects\Dallas First Pass Acceptance\[First Pass Acceptance_Dallas_Arun.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A321:A346 A460:A508 A733:A751 A901:A925 A1086:A1134</xm:sqref>
+          <xm:sqref>A321:A346 A460:A508 A733:A751 A901:A925 A1086:A1134 A1267:A1331</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000025000000}">
           <x14:formula1>
             <xm:f>'C:\Users\veermax\Desktop\Abbott ADD Projects\Dallas First Pass Acceptance\[First Pass Acceptance_Dallas_Arun.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G321:G346 G460:G508 G733:G751 G901:G925 G1086:G1134</xm:sqref>
+          <xm:sqref>G321:G346 G460:G508 G733:G751 G901:G925 G1086:G1134 G1267:G1331</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000026000000}">
           <x14:formula1>
@@ -43945,7 +48107,7 @@
           <x14:formula1>
             <xm:f>Application!$A$19:$A$97</xm:f>
           </x14:formula1>
-          <xm:sqref>C3873:C1048576</xm:sqref>
+          <xm:sqref>C3871:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26F28218-8B16-4FD4-A04E-938C40C29027}">
           <x14:formula1>
@@ -43957,25 +48119,25 @@
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Dallas_local 3_2.xlsx]Reasons for Disapproval'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I1135:I1143</xm:sqref>
+          <xm:sqref>I1135:I1143 I1198:I1211</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7781D27B-0435-4F23-896D-06807E2615D2}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Dallas_local 3_2.xlsx]Deliverable Types'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D1137:D1141 A1135:A1143</xm:sqref>
+          <xm:sqref>D1137:D1141 A1135:A1143 D1203 A1198:A1211</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5E64A954-A35C-4905-89FD-9815ABB9428B}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Dallas_local 3_2.xlsx]SQA'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A1135:A1143</xm:sqref>
+          <xm:sqref>A1135:A1143 A1198:A1211</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FC7EFC04-2B88-4BC1-BFEC-A6CEEC72E32D}">
           <x14:formula1>
             <xm:f>'[First Pass Acceptance_Dallas_local 3_2.xlsx]A or D'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G1135:G1143</xm:sqref>
+          <xm:sqref>G1135:G1143 G1198:G1211</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
